--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Банка/Лампада_1_2_3.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Банка/Лампада_1_2_3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -3676,6 +3676,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3720,114 +3726,198 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -3835,6 +3925,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3850,110 +3954,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3963,93 +4050,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -4080,6 +4080,9 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4089,12 +4092,12 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4105,9 +4108,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -7273,47 +7273,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="502" t="s">
+      <c r="A1" s="504" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="506"/>
-      <c r="C1" s="506"/>
-      <c r="D1" s="506"/>
-      <c r="E1" s="506"/>
+      <c r="B1" s="508"/>
+      <c r="C1" s="508"/>
+      <c r="D1" s="508"/>
+      <c r="E1" s="508"/>
       <c r="G1" s="363" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="503" t="s">
+      <c r="A2" s="505" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="504"/>
-      <c r="C2" s="504"/>
-      <c r="D2" s="504"/>
-      <c r="E2" s="505"/>
+      <c r="B2" s="506"/>
+      <c r="C2" s="506"/>
+      <c r="D2" s="506"/>
+      <c r="E2" s="507"/>
       <c r="G2" s="362" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="503" t="s">
+      <c r="A3" s="505" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="504"/>
-      <c r="C3" s="504"/>
-      <c r="D3" s="504"/>
-      <c r="E3" s="505"/>
+      <c r="B3" s="506"/>
+      <c r="C3" s="506"/>
+      <c r="D3" s="506"/>
+      <c r="E3" s="507"/>
       <c r="G3" s="362"/>
     </row>
     <row r="4" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="503" t="s">
+      <c r="A4" s="505" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="504"/>
-      <c r="C4" s="504"/>
-      <c r="D4" s="504"/>
-      <c r="E4" s="505"/>
+      <c r="B4" s="506"/>
+      <c r="C4" s="506"/>
+      <c r="D4" s="506"/>
+      <c r="E4" s="507"/>
       <c r="G4" s="362"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
@@ -7322,45 +7322,45 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="507" t="s">
+      <c r="A6" s="509" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="508"/>
-      <c r="C6" s="508"/>
-      <c r="D6" s="508"/>
-      <c r="E6" s="508"/>
+      <c r="B6" s="510"/>
+      <c r="C6" s="510"/>
+      <c r="D6" s="510"/>
+      <c r="E6" s="510"/>
     </row>
     <row r="7" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="509" t="s">
+      <c r="A7" s="511" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="510"/>
-      <c r="C7" s="510"/>
-      <c r="D7" s="510"/>
-      <c r="E7" s="511"/>
+      <c r="B7" s="512"/>
+      <c r="C7" s="512"/>
+      <c r="D7" s="512"/>
+      <c r="E7" s="513"/>
     </row>
     <row r="8" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="502" t="s">
+      <c r="A9" s="504" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="506"/>
-      <c r="C9" s="506"/>
-      <c r="D9" s="506"/>
-      <c r="E9" s="506"/>
+      <c r="B9" s="508"/>
+      <c r="C9" s="508"/>
+      <c r="D9" s="508"/>
+      <c r="E9" s="508"/>
     </row>
     <row r="10" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="512"/>
-      <c r="B10" s="513"/>
-      <c r="C10" s="513"/>
-      <c r="D10" s="513"/>
-      <c r="E10" s="514"/>
+      <c r="A10" s="514"/>
+      <c r="B10" s="515"/>
+      <c r="C10" s="515"/>
+      <c r="D10" s="515"/>
+      <c r="E10" s="516"/>
     </row>
     <row r="12" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="502" t="s">
+      <c r="A12" s="504" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="502"/>
+      <c r="B12" s="504"/>
       <c r="C12" s="364"/>
       <c r="D12" s="370" t="s">
         <v>93</v>
@@ -7371,33 +7371,33 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="500"/>
-      <c r="B13" s="501"/>
+      <c r="A13" s="502"/>
+      <c r="B13" s="503"/>
       <c r="D13" s="369">
         <v>43853</v>
       </c>
-      <c r="F13" s="515" t="s">
+      <c r="F13" s="499" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="515"/>
-      <c r="H13" s="515"/>
-      <c r="I13" s="515"/>
-      <c r="J13" s="516" t="s">
+      <c r="G13" s="499"/>
+      <c r="H13" s="499"/>
+      <c r="I13" s="499"/>
+      <c r="J13" s="500" t="s">
         <v>98</v>
       </c>
-      <c r="K13" s="516"/>
+      <c r="K13" s="500"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="515" t="s">
+      <c r="F14" s="499" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="515"/>
-      <c r="H14" s="515"/>
-      <c r="I14" s="515"/>
-      <c r="J14" s="516" t="s">
+      <c r="G14" s="499"/>
+      <c r="H14" s="499"/>
+      <c r="I14" s="499"/>
+      <c r="J14" s="500" t="s">
         <v>99</v>
       </c>
-      <c r="K14" s="516"/>
+      <c r="K14" s="500"/>
     </row>
     <row r="15" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="374" t="s">
@@ -7415,16 +7415,16 @@
       <c r="E15" s="474" t="s">
         <v>134</v>
       </c>
-      <c r="F15" s="515" t="s">
+      <c r="F15" s="499" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="515"/>
-      <c r="H15" s="515"/>
-      <c r="I15" s="515"/>
-      <c r="J15" s="516" t="s">
+      <c r="G15" s="499"/>
+      <c r="H15" s="499"/>
+      <c r="I15" s="499"/>
+      <c r="J15" s="500" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="516"/>
+      <c r="K15" s="500"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="365" t="s">
@@ -7685,11 +7685,11 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="499" t="s">
+      <c r="A33" s="501" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="499"/>
-      <c r="C33" s="499"/>
+      <c r="B33" s="501"/>
+      <c r="C33" s="501"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="363" t="s">
@@ -7757,12 +7757,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A12:B12"/>
@@ -7774,6 +7768,12 @@
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7828,50 +7828,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="600">
+      <c r="B2" s="603">
         <f>'Чист. форма (2)'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="601"/>
-      <c r="D2" s="602"/>
-      <c r="E2" s="609" t="s">
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="610"/>
-      <c r="G2" s="610"/>
-      <c r="H2" s="611"/>
-      <c r="I2" s="615" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="616"/>
-      <c r="K2" s="619">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B19</f>
         <v>19</v>
       </c>
-      <c r="L2" s="620"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="577"/>
-      <c r="Q2" s="577"/>
+      <c r="P2" s="567"/>
+      <c r="Q2" s="567"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="603"/>
-      <c r="C3" s="604"/>
-      <c r="D3" s="605"/>
-      <c r="E3" s="612" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="613"/>
-      <c r="G3" s="613"/>
-      <c r="H3" s="614"/>
-      <c r="I3" s="617"/>
-      <c r="J3" s="618"/>
-      <c r="K3" s="621"/>
-      <c r="L3" s="622"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -7882,9 +7882,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="606"/>
-      <c r="C4" s="607"/>
-      <c r="D4" s="608"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7903,22 +7903,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="592" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="623"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="624"/>
-      <c r="J5" s="625"/>
-      <c r="K5" s="626"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -7929,22 +7929,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="623"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="595"/>
-      <c r="F6" s="595"/>
-      <c r="G6" s="595"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="624"/>
-      <c r="J6" s="625"/>
-      <c r="K6" s="626"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -7955,27 +7955,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="627"/>
-      <c r="D7" s="512">
+      <c r="C7" s="601"/>
+      <c r="D7" s="514">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="628" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="627"/>
-      <c r="K7" s="500">
+      <c r="J7" s="601"/>
+      <c r="K7" s="502">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -8166,12 +8166,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="598" t="s">
+      <c r="B14" s="627" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="599"/>
-      <c r="D14" s="599"/>
-      <c r="E14" s="599"/>
+      <c r="C14" s="628"/>
+      <c r="D14" s="628"/>
+      <c r="E14" s="628"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -8193,13 +8193,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="551" t="s">
+      <c r="B15" s="589" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="552"/>
-      <c r="D15" s="552"/>
-      <c r="E15" s="552"/>
-      <c r="F15" s="597"/>
+      <c r="C15" s="590"/>
+      <c r="D15" s="590"/>
+      <c r="E15" s="590"/>
+      <c r="F15" s="626"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -8218,12 +8218,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="589" t="s">
+      <c r="B16" s="579" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="590"/>
-      <c r="D16" s="590"/>
-      <c r="E16" s="591"/>
+      <c r="C16" s="580"/>
+      <c r="D16" s="580"/>
+      <c r="E16" s="581"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -8270,28 +8270,42 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="121"/>
-      <c r="L19" s="564" t="s">
+      <c r="L19" s="554" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="564"/>
-      <c r="N19" s="564"/>
+      <c r="M19" s="554"/>
+      <c r="N19" s="554"/>
       <c r="O19" s="475"/>
       <c r="P19" s="475"/>
       <c r="Q19" s="491"/>
       <c r="R19" s="491"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="561" t="s">
+      <c r="O20" s="551" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="561"/>
-      <c r="Q20" s="562" t="s">
+      <c r="P20" s="551"/>
+      <c r="Q20" s="552" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="563"/>
+      <c r="R20" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="O20:P20"/>
@@ -8302,20 +8316,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="notBetween">
@@ -8390,47 +8390,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="565"/>
-      <c r="C2" s="566"/>
-      <c r="D2" s="567"/>
-      <c r="E2" s="574" t="s">
+      <c r="B2" s="555"/>
+      <c r="C2" s="556"/>
+      <c r="D2" s="557"/>
+      <c r="E2" s="564" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="575"/>
-      <c r="G2" s="575"/>
-      <c r="H2" s="576"/>
-      <c r="I2" s="581" t="s">
+      <c r="F2" s="565"/>
+      <c r="G2" s="565"/>
+      <c r="H2" s="566"/>
+      <c r="I2" s="571" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="582"/>
-      <c r="K2" s="585">
+      <c r="J2" s="572"/>
+      <c r="K2" s="575">
         <f>Данные!B16</f>
         <v>19</v>
       </c>
-      <c r="L2" s="586"/>
+      <c r="L2" s="576"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="577"/>
-      <c r="Q2" s="577"/>
+      <c r="P2" s="567"/>
+      <c r="Q2" s="567"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="568"/>
-      <c r="C3" s="569"/>
-      <c r="D3" s="570"/>
-      <c r="E3" s="578" t="s">
+      <c r="B3" s="558"/>
+      <c r="C3" s="559"/>
+      <c r="D3" s="560"/>
+      <c r="E3" s="568" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="579"/>
-      <c r="G3" s="579"/>
-      <c r="H3" s="580"/>
-      <c r="I3" s="583"/>
-      <c r="J3" s="584"/>
-      <c r="K3" s="587"/>
-      <c r="L3" s="588"/>
+      <c r="F3" s="569"/>
+      <c r="G3" s="569"/>
+      <c r="H3" s="570"/>
+      <c r="I3" s="573"/>
+      <c r="J3" s="574"/>
+      <c r="K3" s="577"/>
+      <c r="L3" s="578"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -8441,9 +8441,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="571"/>
-      <c r="C4" s="572"/>
-      <c r="D4" s="573"/>
+      <c r="B4" s="561"/>
+      <c r="C4" s="562"/>
+      <c r="D4" s="563"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -8462,22 +8462,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="592" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="593"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="583"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="554"/>
-      <c r="J5" s="555"/>
-      <c r="K5" s="510"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="584"/>
+      <c r="J5" s="585"/>
+      <c r="K5" s="512"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -8488,22 +8488,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="594"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="586"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="595"/>
-      <c r="F6" s="595"/>
-      <c r="G6" s="595"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="554"/>
-      <c r="J6" s="555"/>
-      <c r="K6" s="510"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="584"/>
+      <c r="J6" s="585"/>
+      <c r="K6" s="512"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -8514,27 +8514,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="557"/>
-      <c r="D7" s="512">
+      <c r="C7" s="593"/>
+      <c r="D7" s="514">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="556" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="592" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="560"/>
-      <c r="K7" s="500">
+      <c r="J7" s="596"/>
+      <c r="K7" s="502">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -9006,12 +9006,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="551" t="s">
+      <c r="B23" s="589" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="552"/>
-      <c r="D23" s="552"/>
-      <c r="E23" s="553"/>
+      <c r="C23" s="590"/>
+      <c r="D23" s="590"/>
+      <c r="E23" s="591"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -9033,12 +9033,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="589" t="s">
+      <c r="B24" s="579" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="590"/>
-      <c r="D24" s="590"/>
-      <c r="E24" s="591"/>
+      <c r="C24" s="580"/>
+      <c r="D24" s="580"/>
+      <c r="E24" s="581"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -9081,28 +9081,42 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K27" s="564" t="s">
+      <c r="K27" s="554" t="s">
         <v>136</v>
       </c>
-      <c r="L27" s="564"/>
-      <c r="M27" s="564"/>
+      <c r="L27" s="554"/>
+      <c r="M27" s="554"/>
       <c r="N27" s="475"/>
       <c r="O27" s="475"/>
       <c r="P27" s="491"/>
       <c r="Q27" s="491"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N28" s="561" t="s">
+      <c r="N28" s="551" t="s">
         <v>140</v>
       </c>
-      <c r="O28" s="561"/>
-      <c r="P28" s="562" t="s">
+      <c r="O28" s="551"/>
+      <c r="P28" s="552" t="s">
         <v>141</v>
       </c>
-      <c r="Q28" s="563"/>
+      <c r="Q28" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="K27:M27"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
@@ -9112,20 +9126,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
@@ -9192,50 +9192,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="600">
+      <c r="B2" s="603">
         <f>'Чист. форма (3)'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="601"/>
-      <c r="D2" s="602"/>
-      <c r="E2" s="609" t="s">
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="610"/>
-      <c r="G2" s="610"/>
-      <c r="H2" s="611"/>
-      <c r="I2" s="615" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="616"/>
-      <c r="K2" s="619">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B19</f>
         <v>19</v>
       </c>
-      <c r="L2" s="620"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="577"/>
-      <c r="Q2" s="577"/>
+      <c r="P2" s="567"/>
+      <c r="Q2" s="567"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="603"/>
-      <c r="C3" s="604"/>
-      <c r="D3" s="605"/>
-      <c r="E3" s="612" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="613"/>
-      <c r="G3" s="613"/>
-      <c r="H3" s="614"/>
-      <c r="I3" s="617"/>
-      <c r="J3" s="618"/>
-      <c r="K3" s="621"/>
-      <c r="L3" s="622"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -9246,9 +9246,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="606"/>
-      <c r="C4" s="607"/>
-      <c r="D4" s="608"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9267,22 +9267,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="592" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="623"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="624"/>
-      <c r="J5" s="625"/>
-      <c r="K5" s="626"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -9293,22 +9293,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="623"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="595"/>
-      <c r="F6" s="595"/>
-      <c r="G6" s="595"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="624"/>
-      <c r="J6" s="625"/>
-      <c r="K6" s="626"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -9319,27 +9319,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="627"/>
-      <c r="D7" s="512">
+      <c r="C7" s="601"/>
+      <c r="D7" s="514">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="628" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="627"/>
-      <c r="K7" s="500">
+      <c r="J7" s="601"/>
+      <c r="K7" s="502">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -9530,12 +9530,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="598" t="s">
+      <c r="B14" s="627" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="599"/>
-      <c r="D14" s="599"/>
-      <c r="E14" s="599"/>
+      <c r="C14" s="628"/>
+      <c r="D14" s="628"/>
+      <c r="E14" s="628"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -9557,13 +9557,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="551" t="s">
+      <c r="B15" s="589" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="552"/>
-      <c r="D15" s="552"/>
-      <c r="E15" s="552"/>
-      <c r="F15" s="597"/>
+      <c r="C15" s="590"/>
+      <c r="D15" s="590"/>
+      <c r="E15" s="590"/>
+      <c r="F15" s="626"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -9582,12 +9582,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="589" t="s">
+      <c r="B16" s="579" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="590"/>
-      <c r="D16" s="590"/>
-      <c r="E16" s="591"/>
+      <c r="C16" s="580"/>
+      <c r="D16" s="580"/>
+      <c r="E16" s="581"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -9634,28 +9634,42 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="121"/>
-      <c r="L19" s="564" t="s">
+      <c r="L19" s="554" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="564"/>
-      <c r="N19" s="564"/>
+      <c r="M19" s="554"/>
+      <c r="N19" s="554"/>
       <c r="O19" s="475"/>
       <c r="P19" s="475"/>
       <c r="Q19" s="491"/>
       <c r="R19" s="491"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="561" t="s">
+      <c r="O20" s="551" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="561"/>
-      <c r="Q20" s="562" t="s">
+      <c r="P20" s="551"/>
+      <c r="Q20" s="552" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="563"/>
+      <c r="R20" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="O20:P20"/>
@@ -9666,20 +9680,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="notBetween">
@@ -9753,47 +9753,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="565"/>
-      <c r="C2" s="566"/>
-      <c r="D2" s="567"/>
-      <c r="E2" s="574" t="s">
+      <c r="B2" s="555"/>
+      <c r="C2" s="556"/>
+      <c r="D2" s="557"/>
+      <c r="E2" s="564" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="575"/>
-      <c r="G2" s="575"/>
-      <c r="H2" s="576"/>
-      <c r="I2" s="581" t="s">
+      <c r="F2" s="565"/>
+      <c r="G2" s="565"/>
+      <c r="H2" s="566"/>
+      <c r="I2" s="571" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="582"/>
-      <c r="K2" s="585">
+      <c r="J2" s="572"/>
+      <c r="K2" s="575">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="L2" s="586"/>
+      <c r="L2" s="576"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="577"/>
-      <c r="Q2" s="577"/>
+      <c r="P2" s="567"/>
+      <c r="Q2" s="567"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="568"/>
-      <c r="C3" s="569"/>
-      <c r="D3" s="570"/>
-      <c r="E3" s="578" t="s">
+      <c r="B3" s="558"/>
+      <c r="C3" s="559"/>
+      <c r="D3" s="560"/>
+      <c r="E3" s="568" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="579"/>
-      <c r="G3" s="579"/>
-      <c r="H3" s="580"/>
-      <c r="I3" s="583"/>
-      <c r="J3" s="584"/>
-      <c r="K3" s="587"/>
-      <c r="L3" s="588"/>
+      <c r="F3" s="569"/>
+      <c r="G3" s="569"/>
+      <c r="H3" s="570"/>
+      <c r="I3" s="573"/>
+      <c r="J3" s="574"/>
+      <c r="K3" s="577"/>
+      <c r="L3" s="578"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -9804,9 +9804,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="571"/>
-      <c r="C4" s="572"/>
-      <c r="D4" s="573"/>
+      <c r="B4" s="561"/>
+      <c r="C4" s="562"/>
+      <c r="D4" s="563"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -9825,22 +9825,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="592" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="593"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="583"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="554"/>
-      <c r="J5" s="555"/>
-      <c r="K5" s="510"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="584"/>
+      <c r="J5" s="585"/>
+      <c r="K5" s="512"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -9851,22 +9851,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="594"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="586"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="595"/>
-      <c r="F6" s="595"/>
-      <c r="G6" s="595"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="554"/>
-      <c r="J6" s="555"/>
-      <c r="K6" s="510"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="584"/>
+      <c r="J6" s="585"/>
+      <c r="K6" s="512"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -9877,27 +9877,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="557"/>
-      <c r="D7" s="512">
+      <c r="C7" s="593"/>
+      <c r="D7" s="514">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="556" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="592" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="560"/>
-      <c r="K7" s="500">
+      <c r="J7" s="596"/>
+      <c r="K7" s="502">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -10378,24 +10378,17 @@
       <c r="R23" s="491"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O24" s="561" t="s">
+      <c r="O24" s="551" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="561"/>
-      <c r="Q24" s="562" t="s">
+      <c r="P24" s="551"/>
+      <c r="Q24" s="552" t="s">
         <v>141</v>
       </c>
-      <c r="R24" s="563"/>
+      <c r="R24" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -10410,6 +10403,13 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
@@ -10477,24 +10477,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="565"/>
-      <c r="C2" s="566"/>
-      <c r="D2" s="567"/>
-      <c r="E2" s="574" t="s">
+      <c r="B2" s="555"/>
+      <c r="C2" s="556"/>
+      <c r="D2" s="557"/>
+      <c r="E2" s="564" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="575"/>
-      <c r="G2" s="575"/>
-      <c r="H2" s="576"/>
-      <c r="I2" s="581" t="s">
+      <c r="F2" s="565"/>
+      <c r="G2" s="565"/>
+      <c r="H2" s="566"/>
+      <c r="I2" s="571" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="582"/>
-      <c r="K2" s="585">
+      <c r="J2" s="572"/>
+      <c r="K2" s="575">
         <f>Данные!B21</f>
         <v>60</v>
       </c>
-      <c r="L2" s="586"/>
+      <c r="L2" s="576"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -10505,19 +10505,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="568"/>
-      <c r="C3" s="569"/>
-      <c r="D3" s="570"/>
-      <c r="E3" s="578" t="s">
+      <c r="B3" s="558"/>
+      <c r="C3" s="559"/>
+      <c r="D3" s="560"/>
+      <c r="E3" s="568" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="579"/>
-      <c r="G3" s="579"/>
-      <c r="H3" s="580"/>
-      <c r="I3" s="583"/>
-      <c r="J3" s="584"/>
-      <c r="K3" s="587"/>
-      <c r="L3" s="588"/>
+      <c r="F3" s="569"/>
+      <c r="G3" s="569"/>
+      <c r="H3" s="570"/>
+      <c r="I3" s="573"/>
+      <c r="J3" s="574"/>
+      <c r="K3" s="577"/>
+      <c r="L3" s="578"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -10528,9 +10528,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="571"/>
-      <c r="C4" s="572"/>
-      <c r="D4" s="573"/>
+      <c r="B4" s="561"/>
+      <c r="C4" s="562"/>
+      <c r="D4" s="563"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10549,22 +10549,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="592" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="593"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="583"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="554"/>
-      <c r="J5" s="555"/>
-      <c r="K5" s="510"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="584"/>
+      <c r="J5" s="585"/>
+      <c r="K5" s="512"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -10575,22 +10575,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="594"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="586"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="595"/>
-      <c r="F6" s="595"/>
-      <c r="G6" s="595"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="554"/>
-      <c r="J6" s="555"/>
-      <c r="K6" s="510"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="584"/>
+      <c r="J6" s="585"/>
+      <c r="K6" s="512"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -10601,27 +10601,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="557"/>
-      <c r="D7" s="512">
+      <c r="C7" s="593"/>
+      <c r="D7" s="514">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="556" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="592" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="560"/>
-      <c r="K7" s="500">
+      <c r="J7" s="596"/>
+      <c r="K7" s="502">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -10912,23 +10912,17 @@
       <c r="R18" s="491"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="O19" s="561" t="s">
+      <c r="O19" s="551" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="561"/>
-      <c r="Q19" s="562" t="s">
+      <c r="P19" s="551"/>
+      <c r="Q19" s="552" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="563"/>
+      <c r="R19" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
@@ -10944,6 +10938,12 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E2:H2"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -11015,24 +11015,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="600"/>
-      <c r="C2" s="601"/>
-      <c r="D2" s="602"/>
-      <c r="E2" s="609" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="610"/>
-      <c r="G2" s="610"/>
-      <c r="H2" s="611"/>
-      <c r="I2" s="615" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="616"/>
-      <c r="K2" s="619">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B22</f>
         <v>28</v>
       </c>
-      <c r="L2" s="620"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="631"/>
       <c r="N2" s="632"/>
       <c r="O2" s="632"/>
@@ -11043,19 +11043,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="603"/>
-      <c r="C3" s="604"/>
-      <c r="D3" s="605"/>
-      <c r="E3" s="612" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="613"/>
-      <c r="G3" s="613"/>
-      <c r="H3" s="614"/>
-      <c r="I3" s="617"/>
-      <c r="J3" s="618"/>
-      <c r="K3" s="621"/>
-      <c r="L3" s="622"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="634"/>
       <c r="N3" s="635"/>
       <c r="O3" s="635"/>
@@ -11066,9 +11066,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="606"/>
-      <c r="C4" s="607"/>
-      <c r="D4" s="608"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -11087,22 +11087,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="592" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="623"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="624"/>
-      <c r="J5" s="625"/>
-      <c r="K5" s="626"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="634"/>
       <c r="N5" s="635"/>
       <c r="O5" s="635"/>
@@ -11113,22 +11113,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="623"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="595"/>
-      <c r="F6" s="595"/>
-      <c r="G6" s="595"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="624"/>
-      <c r="J6" s="625"/>
-      <c r="K6" s="626"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="634"/>
       <c r="N6" s="635"/>
       <c r="O6" s="635"/>
@@ -11139,27 +11139,27 @@
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="627"/>
-      <c r="D7" s="512">
+      <c r="C7" s="601"/>
+      <c r="D7" s="514">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="628" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="627"/>
-      <c r="K7" s="500">
+      <c r="J7" s="601"/>
+      <c r="K7" s="502">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="634"/>
       <c r="N7" s="635"/>
       <c r="O7" s="635"/>
@@ -11542,12 +11542,12 @@
     </row>
     <row r="20" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
-      <c r="B20" s="589" t="s">
+      <c r="B20" s="579" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="590"/>
-      <c r="D20" s="590"/>
-      <c r="E20" s="591"/>
+      <c r="C20" s="580"/>
+      <c r="D20" s="580"/>
+      <c r="E20" s="581"/>
       <c r="F20" s="114" t="s">
         <v>16</v>
       </c>
@@ -11603,17 +11603,23 @@
       <c r="R23" s="491"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O24" s="561" t="s">
+      <c r="O24" s="551" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="561"/>
-      <c r="Q24" s="562" t="s">
+      <c r="P24" s="551"/>
+      <c r="Q24" s="552" t="s">
         <v>141</v>
       </c>
-      <c r="R24" s="563"/>
+      <c r="R24" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="B2:D4"/>
@@ -11630,12 +11636,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
@@ -11700,24 +11700,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="600"/>
-      <c r="C2" s="601"/>
-      <c r="D2" s="602"/>
-      <c r="E2" s="609" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="610"/>
-      <c r="G2" s="610"/>
-      <c r="H2" s="611"/>
-      <c r="I2" s="615" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="616"/>
-      <c r="K2" s="619">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B23</f>
         <v>28</v>
       </c>
-      <c r="L2" s="620"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -11728,19 +11728,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="603"/>
-      <c r="C3" s="604"/>
-      <c r="D3" s="605"/>
-      <c r="E3" s="612" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="613"/>
-      <c r="G3" s="613"/>
-      <c r="H3" s="614"/>
-      <c r="I3" s="617"/>
-      <c r="J3" s="618"/>
-      <c r="K3" s="621"/>
-      <c r="L3" s="622"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11751,9 +11751,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="606"/>
-      <c r="C4" s="607"/>
-      <c r="D4" s="608"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -11772,22 +11772,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="592" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="623"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="624"/>
-      <c r="J5" s="625"/>
-      <c r="K5" s="626"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11798,22 +11798,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="623"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="595"/>
-      <c r="F6" s="595"/>
-      <c r="G6" s="595"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="624"/>
-      <c r="J6" s="625"/>
-      <c r="K6" s="626"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11824,27 +11824,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="627"/>
-      <c r="D7" s="512">
+      <c r="C7" s="601"/>
+      <c r="D7" s="514">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="628" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="627"/>
-      <c r="K7" s="500">
+      <c r="J7" s="601"/>
+      <c r="K7" s="502">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12101,12 +12101,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="589" t="s">
+      <c r="B16" s="579" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="590"/>
-      <c r="D16" s="590"/>
-      <c r="E16" s="591"/>
+      <c r="C16" s="580"/>
+      <c r="D16" s="580"/>
+      <c r="E16" s="581"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -12162,17 +12162,27 @@
       <c r="R19" s="491"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="561" t="s">
+      <c r="O20" s="551" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="561"/>
-      <c r="Q20" s="562" t="s">
+      <c r="P20" s="551"/>
+      <c r="Q20" s="552" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="563"/>
+      <c r="R20" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -12185,16 +12195,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -12262,24 +12262,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="163"/>
-      <c r="B2" s="600"/>
-      <c r="C2" s="601"/>
-      <c r="D2" s="602"/>
-      <c r="E2" s="609" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="610"/>
-      <c r="G2" s="610"/>
-      <c r="H2" s="611"/>
-      <c r="I2" s="615" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="616"/>
-      <c r="K2" s="619">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B24</f>
         <v>78</v>
       </c>
-      <c r="L2" s="620"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
@@ -12290,19 +12290,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="163"/>
-      <c r="B3" s="603"/>
-      <c r="C3" s="604"/>
-      <c r="D3" s="605"/>
-      <c r="E3" s="612" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="613"/>
-      <c r="G3" s="613"/>
-      <c r="H3" s="614"/>
-      <c r="I3" s="617"/>
-      <c r="J3" s="618"/>
-      <c r="K3" s="621"/>
-      <c r="L3" s="622"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -12313,9 +12313,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="163"/>
-      <c r="B4" s="606"/>
-      <c r="C4" s="607"/>
-      <c r="D4" s="608"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12334,22 +12334,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="163"/>
-      <c r="B5" s="592" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="623"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="624"/>
-      <c r="J5" s="625"/>
-      <c r="K5" s="626"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -12360,22 +12360,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="163"/>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="623"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="595"/>
-      <c r="F6" s="595"/>
-      <c r="G6" s="595"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="624"/>
-      <c r="J6" s="625"/>
-      <c r="K6" s="626"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -12386,27 +12386,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="163"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="627"/>
-      <c r="D7" s="512">
+      <c r="C7" s="601"/>
+      <c r="D7" s="514">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="628" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="627"/>
-      <c r="K7" s="500">
+      <c r="J7" s="601"/>
+      <c r="K7" s="502">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -12796,17 +12796,22 @@
       <c r="R21" s="491"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O22" s="561" t="s">
+      <c r="O22" s="551" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="561"/>
-      <c r="Q22" s="562" t="s">
+      <c r="P22" s="551"/>
+      <c r="Q22" s="552" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="563"/>
+      <c r="R22" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="B2:D4"/>
@@ -12823,11 +12828,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -12893,47 +12893,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="202"/>
-      <c r="B2" s="600"/>
-      <c r="C2" s="601"/>
-      <c r="D2" s="602"/>
-      <c r="E2" s="609" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="610"/>
-      <c r="G2" s="610"/>
-      <c r="H2" s="611"/>
-      <c r="I2" s="615" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="616"/>
-      <c r="K2" s="619">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B29</f>
         <v>83</v>
       </c>
-      <c r="L2" s="620"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="642"/>
-      <c r="Q2" s="642"/>
+      <c r="P2" s="639"/>
+      <c r="Q2" s="639"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="202"/>
-      <c r="B3" s="603"/>
-      <c r="C3" s="604"/>
-      <c r="D3" s="605"/>
-      <c r="E3" s="612" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="613"/>
-      <c r="G3" s="613"/>
-      <c r="H3" s="614"/>
-      <c r="I3" s="617"/>
-      <c r="J3" s="618"/>
-      <c r="K3" s="621"/>
-      <c r="L3" s="622"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -12944,9 +12944,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="202"/>
-      <c r="B4" s="606"/>
-      <c r="C4" s="607"/>
-      <c r="D4" s="608"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12965,22 +12965,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="202"/>
-      <c r="B5" s="592" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="623"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="624"/>
-      <c r="J5" s="625"/>
-      <c r="K5" s="626"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -12991,22 +12991,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="202"/>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="623"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="595"/>
-      <c r="F6" s="595"/>
-      <c r="G6" s="595"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="624"/>
-      <c r="J6" s="625"/>
-      <c r="K6" s="626"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -13017,27 +13017,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="202"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="627"/>
-      <c r="D7" s="512">
+      <c r="C7" s="601"/>
+      <c r="D7" s="514">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="628" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="627"/>
-      <c r="K7" s="500">
+      <c r="J7" s="601"/>
+      <c r="K7" s="502">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -13350,12 +13350,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="212"/>
-      <c r="B18" s="639" t="s">
+      <c r="B18" s="640" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="640"/>
-      <c r="D18" s="640"/>
-      <c r="E18" s="641"/>
+      <c r="C18" s="641"/>
+      <c r="D18" s="641"/>
+      <c r="E18" s="642"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -13409,17 +13409,26 @@
       <c r="R21" s="491"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O22" s="561" t="s">
+      <c r="O22" s="551" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="561"/>
-      <c r="Q22" s="562" t="s">
+      <c r="P22" s="551"/>
+      <c r="Q22" s="552" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="563"/>
+      <c r="R22" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="P2:Q2"/>
@@ -13433,15 +13442,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="L21:N21"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -13516,24 +13516,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="130"/>
-      <c r="B2" s="600"/>
-      <c r="C2" s="601"/>
-      <c r="D2" s="602"/>
-      <c r="E2" s="609" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="610"/>
-      <c r="G2" s="610"/>
-      <c r="H2" s="611"/>
-      <c r="I2" s="615" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="616"/>
-      <c r="K2" s="619">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B30</f>
         <v>18</v>
       </c>
-      <c r="L2" s="620"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
@@ -13544,19 +13544,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="130"/>
-      <c r="B3" s="603"/>
-      <c r="C3" s="604"/>
-      <c r="D3" s="605"/>
-      <c r="E3" s="612" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="613"/>
-      <c r="G3" s="613"/>
-      <c r="H3" s="614"/>
-      <c r="I3" s="617"/>
-      <c r="J3" s="618"/>
-      <c r="K3" s="621"/>
-      <c r="L3" s="622"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -13567,9 +13567,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="130"/>
-      <c r="B4" s="606"/>
-      <c r="C4" s="607"/>
-      <c r="D4" s="608"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -13588,22 +13588,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="130"/>
-      <c r="B5" s="592" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="623"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="624"/>
-      <c r="J5" s="625"/>
-      <c r="K5" s="626"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -13614,22 +13614,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="130"/>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="623"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="595"/>
-      <c r="F6" s="595"/>
-      <c r="G6" s="595"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="624"/>
-      <c r="J6" s="625"/>
-      <c r="K6" s="626"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -13640,27 +13640,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="130"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="627"/>
-      <c r="D7" s="512">
+      <c r="C7" s="601"/>
+      <c r="D7" s="514">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="628" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="627"/>
-      <c r="K7" s="500">
+      <c r="J7" s="601"/>
+      <c r="K7" s="502">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -13982,17 +13982,22 @@
       <c r="R19" s="491"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="561" t="s">
+      <c r="O20" s="551" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="561"/>
-      <c r="Q20" s="562" t="s">
+      <c r="P20" s="551"/>
+      <c r="Q20" s="552" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="563"/>
+      <c r="R20" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B2:D4"/>
@@ -14009,11 +14014,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
@@ -14083,17 +14083,17 @@
       <c r="L2" s="381"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="520" t="s">
+      <c r="A3" s="519" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="520"/>
-      <c r="C3" s="520"/>
-      <c r="D3" s="520"/>
-      <c r="E3" s="520"/>
-      <c r="F3" s="520"/>
-      <c r="G3" s="520"/>
-      <c r="H3" s="520"/>
-      <c r="I3" s="520"/>
+      <c r="B3" s="519"/>
+      <c r="C3" s="519"/>
+      <c r="D3" s="519"/>
+      <c r="E3" s="519"/>
+      <c r="F3" s="519"/>
+      <c r="G3" s="519"/>
+      <c r="H3" s="519"/>
+      <c r="I3" s="519"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
@@ -14459,12 +14459,12 @@
       <c r="J24" s="383"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="521" t="s">
+      <c r="A25" s="520" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="521"/>
-      <c r="C25" s="521"/>
-      <c r="D25" s="521"/>
+      <c r="B25" s="520"/>
+      <c r="C25" s="520"/>
+      <c r="D25" s="520"/>
       <c r="E25" s="383"/>
       <c r="F25" s="383"/>
       <c r="G25" s="383"/>
@@ -14473,10 +14473,10 @@
       <c r="J25" s="383"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="522" t="s">
+      <c r="A26" s="521" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="522"/>
+      <c r="B26" s="521"/>
       <c r="C26" s="493" t="s">
         <v>130</v>
       </c>
@@ -14491,11 +14491,11 @@
       <c r="J26" s="383"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="523">
+      <c r="A27" s="522">
         <f>A10-F21</f>
         <v>12268085</v>
       </c>
-      <c r="B27" s="524"/>
+      <c r="B27" s="523"/>
       <c r="C27" s="463">
         <f>1-G21</f>
         <v>0.9224124060150376</v>
@@ -14557,8 +14557,8 @@
       <c r="F31" s="467"/>
       <c r="G31" s="467"/>
       <c r="H31" s="467"/>
-      <c r="I31" s="517"/>
-      <c r="J31" s="518"/>
+      <c r="I31" s="524"/>
+      <c r="J31" s="525"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="468"/>
@@ -14652,9 +14652,9 @@
     </row>
     <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="383"/>
-      <c r="B41" s="525"/>
-      <c r="C41" s="525"/>
-      <c r="D41" s="526"/>
+      <c r="B41" s="517"/>
+      <c r="C41" s="517"/>
+      <c r="D41" s="518"/>
       <c r="E41" s="492"/>
       <c r="F41" s="383"/>
       <c r="G41" s="383"/>
@@ -14671,8 +14671,8 @@
       <c r="F42" s="467"/>
       <c r="G42" s="467"/>
       <c r="H42" s="467"/>
-      <c r="I42" s="517"/>
-      <c r="J42" s="518"/>
+      <c r="I42" s="524"/>
+      <c r="J42" s="525"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="468"/>
@@ -14683,8 +14683,8 @@
       <c r="F43" s="413"/>
       <c r="G43" s="413"/>
       <c r="H43" s="469"/>
-      <c r="I43" s="519"/>
-      <c r="J43" s="519"/>
+      <c r="I43" s="526"/>
+      <c r="J43" s="526"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="468"/>
@@ -14695,8 +14695,8 @@
       <c r="F44" s="403"/>
       <c r="G44" s="403"/>
       <c r="H44" s="403"/>
-      <c r="I44" s="519"/>
-      <c r="J44" s="519"/>
+      <c r="I44" s="526"/>
+      <c r="J44" s="526"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="383"/>
@@ -14709,26 +14709,26 @@
       <c r="H45" s="383"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="517"/>
-      <c r="C50" s="518"/>
+      <c r="B50" s="524"/>
+      <c r="C50" s="525"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="517"/>
-      <c r="C57" s="518"/>
+      <c r="B57" s="524"/>
+      <c r="C57" s="525"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B57:C57"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B57:C57"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14786,47 +14786,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="259"/>
-      <c r="B2" s="600"/>
-      <c r="C2" s="601"/>
-      <c r="D2" s="602"/>
-      <c r="E2" s="609" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="610"/>
-      <c r="G2" s="610"/>
-      <c r="H2" s="611"/>
-      <c r="I2" s="615" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="616"/>
-      <c r="K2" s="644">
+      <c r="J2" s="619"/>
+      <c r="K2" s="645">
         <f>Данные!B27</f>
         <v>0</v>
       </c>
-      <c r="L2" s="645"/>
+      <c r="L2" s="646"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="648"/>
-      <c r="Q2" s="648"/>
+      <c r="P2" s="644"/>
+      <c r="Q2" s="644"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="259"/>
-      <c r="B3" s="603"/>
-      <c r="C3" s="604"/>
-      <c r="D3" s="605"/>
-      <c r="E3" s="612" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="613"/>
-      <c r="G3" s="613"/>
-      <c r="H3" s="614"/>
-      <c r="I3" s="617"/>
-      <c r="J3" s="618"/>
-      <c r="K3" s="646"/>
-      <c r="L3" s="647"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="647"/>
+      <c r="L3" s="648"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -14837,9 +14837,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="259"/>
-      <c r="B4" s="606"/>
-      <c r="C4" s="607"/>
-      <c r="D4" s="608"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14858,22 +14858,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="259"/>
-      <c r="B5" s="592" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="623"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="624"/>
-      <c r="J5" s="625"/>
-      <c r="K5" s="626"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -14884,22 +14884,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="623"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="595"/>
-      <c r="F6" s="595"/>
-      <c r="G6" s="595"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="624"/>
-      <c r="J6" s="625"/>
-      <c r="K6" s="626"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -14910,27 +14910,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="627"/>
-      <c r="D7" s="512">
+      <c r="C7" s="601"/>
+      <c r="D7" s="514">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="628" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="627"/>
-      <c r="K7" s="500">
+      <c r="J7" s="601"/>
+      <c r="K7" s="502">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -15205,17 +15205,22 @@
       <c r="R18" s="491"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="O19" s="561" t="s">
+      <c r="O19" s="551" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="561"/>
-      <c r="Q19" s="562" t="s">
+      <c r="P19" s="551"/>
+      <c r="Q19" s="552" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="563"/>
+      <c r="R19" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
@@ -15232,11 +15237,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -15266,7 +15266,7 @@
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15321,17 +15321,17 @@
       <c r="L2" s="381"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="520" t="s">
+      <c r="A3" s="519" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="520"/>
-      <c r="C3" s="520"/>
-      <c r="D3" s="520"/>
-      <c r="E3" s="520"/>
-      <c r="F3" s="520"/>
-      <c r="G3" s="520"/>
-      <c r="H3" s="520"/>
-      <c r="I3" s="520"/>
+      <c r="B3" s="519"/>
+      <c r="C3" s="519"/>
+      <c r="D3" s="519"/>
+      <c r="E3" s="519"/>
+      <c r="F3" s="519"/>
+      <c r="G3" s="519"/>
+      <c r="H3" s="519"/>
+      <c r="I3" s="519"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
@@ -15474,31 +15474,31 @@
         <v>12600000</v>
       </c>
       <c r="B10" s="423">
-        <v>43759</v>
+        <v>43881</v>
       </c>
       <c r="C10" s="424">
-        <v>43765</v>
+        <v>43884</v>
       </c>
       <c r="D10" s="423">
-        <v>43769</v>
+        <v>43885</v>
       </c>
       <c r="E10" s="425">
-        <v>948096</v>
+        <v>874640</v>
       </c>
       <c r="F10" s="425">
-        <v>1031915</v>
+        <v>899444</v>
       </c>
       <c r="G10" s="426">
         <f>F10/A$10</f>
-        <v>8.1898015873015872E-2</v>
+        <v>7.1384444444444445E-2</v>
       </c>
       <c r="H10" s="427">
         <f>A10-F10</f>
-        <v>11568085</v>
+        <v>11700556</v>
       </c>
       <c r="I10" s="428">
         <f>1-G10</f>
-        <v>0.91810198412698418</v>
+        <v>0.92861555555555553</v>
       </c>
       <c r="J10" s="429"/>
       <c r="K10" s="403"/>
@@ -15517,11 +15517,11 @@
       </c>
       <c r="H11" s="433">
         <f>H10-F11</f>
-        <v>11568085</v>
+        <v>11700556</v>
       </c>
       <c r="I11" s="434">
         <f>I10-G11</f>
-        <v>0.91810198412698418</v>
+        <v>0.92861555555555553</v>
       </c>
       <c r="J11" s="383"/>
       <c r="K11" s="383"/>
@@ -15662,23 +15662,23 @@
       <c r="D21" s="455"/>
       <c r="E21" s="456">
         <f>SUM(E10:E20)</f>
-        <v>948096</v>
+        <v>874640</v>
       </c>
       <c r="F21" s="457">
         <f>SUM(F10:F20)</f>
-        <v>1031915</v>
+        <v>899444</v>
       </c>
       <c r="G21" s="458">
         <f>SUM(G10:G20)</f>
-        <v>8.1898015873015872E-2</v>
+        <v>7.1384444444444445E-2</v>
       </c>
       <c r="H21" s="459">
         <f>A10-F21</f>
-        <v>11568085</v>
+        <v>11700556</v>
       </c>
       <c r="I21" s="460">
         <f>1-G21</f>
-        <v>0.91810198412698418</v>
+        <v>0.92861555555555553</v>
       </c>
       <c r="J21" s="461"/>
       <c r="K21" s="461"/>
@@ -15697,12 +15697,12 @@
       <c r="J24" s="383"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="521" t="s">
+      <c r="A25" s="520" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="521"/>
-      <c r="C25" s="521"/>
-      <c r="D25" s="521"/>
+      <c r="B25" s="520"/>
+      <c r="C25" s="520"/>
+      <c r="D25" s="520"/>
       <c r="E25" s="383"/>
       <c r="F25" s="383"/>
       <c r="G25" s="383"/>
@@ -15711,10 +15711,10 @@
       <c r="J25" s="383"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="522" t="s">
+      <c r="A26" s="521" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="522"/>
+      <c r="B26" s="521"/>
       <c r="C26" s="493" t="s">
         <v>130</v>
       </c>
@@ -15729,18 +15729,18 @@
       <c r="J26" s="383"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="523">
+      <c r="A27" s="522">
         <f>A10-F21</f>
-        <v>11568085</v>
-      </c>
-      <c r="B27" s="524"/>
+        <v>11700556</v>
+      </c>
+      <c r="B27" s="523"/>
       <c r="C27" s="463">
         <f>1-G21</f>
-        <v>0.91810198412698418</v>
+        <v>0.92861555555555553</v>
       </c>
       <c r="D27" s="464">
         <f>(C27/0.8)*100</f>
-        <v>114.762748015873</v>
+        <v>116.07694444444444</v>
       </c>
       <c r="E27" s="492" t="s">
         <v>132</v>
@@ -15795,8 +15795,8 @@
       <c r="F31" s="467"/>
       <c r="G31" s="467"/>
       <c r="H31" s="467"/>
-      <c r="I31" s="517"/>
-      <c r="J31" s="518"/>
+      <c r="I31" s="524"/>
+      <c r="J31" s="525"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="468"/>
@@ -15890,9 +15890,9 @@
     </row>
     <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="383"/>
-      <c r="B41" s="525"/>
-      <c r="C41" s="525"/>
-      <c r="D41" s="526"/>
+      <c r="B41" s="517"/>
+      <c r="C41" s="517"/>
+      <c r="D41" s="518"/>
       <c r="E41" s="492"/>
       <c r="F41" s="383"/>
       <c r="G41" s="383"/>
@@ -15909,8 +15909,8 @@
       <c r="F42" s="467"/>
       <c r="G42" s="467"/>
       <c r="H42" s="467"/>
-      <c r="I42" s="517"/>
-      <c r="J42" s="518"/>
+      <c r="I42" s="524"/>
+      <c r="J42" s="525"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="468"/>
@@ -15921,8 +15921,8 @@
       <c r="F43" s="413"/>
       <c r="G43" s="413"/>
       <c r="H43" s="469"/>
-      <c r="I43" s="519"/>
-      <c r="J43" s="519"/>
+      <c r="I43" s="526"/>
+      <c r="J43" s="526"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="468"/>
@@ -15933,8 +15933,8 @@
       <c r="F44" s="403"/>
       <c r="G44" s="403"/>
       <c r="H44" s="403"/>
-      <c r="I44" s="519"/>
-      <c r="J44" s="519"/>
+      <c r="I44" s="526"/>
+      <c r="J44" s="526"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="383"/>
@@ -15947,26 +15947,26 @@
       <c r="H45" s="383"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="517"/>
-      <c r="C50" s="518"/>
+      <c r="B50" s="524"/>
+      <c r="C50" s="525"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="517"/>
-      <c r="C57" s="518"/>
+      <c r="B57" s="524"/>
+      <c r="C57" s="525"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B57:C57"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B57:C57"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -15982,7 +15982,7 @@
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16037,17 +16037,17 @@
       <c r="L2" s="381"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="520" t="s">
+      <c r="A3" s="519" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="520"/>
-      <c r="C3" s="520"/>
-      <c r="D3" s="520"/>
-      <c r="E3" s="520"/>
-      <c r="F3" s="520"/>
-      <c r="G3" s="520"/>
-      <c r="H3" s="520"/>
-      <c r="I3" s="520"/>
+      <c r="B3" s="519"/>
+      <c r="C3" s="519"/>
+      <c r="D3" s="519"/>
+      <c r="E3" s="519"/>
+      <c r="F3" s="519"/>
+      <c r="G3" s="519"/>
+      <c r="H3" s="519"/>
+      <c r="I3" s="519"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
@@ -16190,31 +16190,31 @@
         <v>12600000</v>
       </c>
       <c r="B10" s="423">
-        <v>43759</v>
+        <v>43879</v>
       </c>
       <c r="C10" s="424">
-        <v>43765</v>
+        <v>43880</v>
       </c>
       <c r="D10" s="423">
-        <v>43769</v>
+        <v>43885</v>
       </c>
       <c r="E10" s="425">
-        <v>948096</v>
+        <v>349440</v>
       </c>
       <c r="F10" s="425">
-        <v>1031915</v>
+        <v>407248</v>
       </c>
       <c r="G10" s="426">
         <f>F10/A$10</f>
-        <v>8.1898015873015872E-2</v>
+        <v>3.2321269841269838E-2</v>
       </c>
       <c r="H10" s="427">
         <f>A10-F10</f>
-        <v>11568085</v>
+        <v>12192752</v>
       </c>
       <c r="I10" s="428">
         <f>1-G10</f>
-        <v>0.91810198412698418</v>
+        <v>0.96767873015873018</v>
       </c>
       <c r="J10" s="429"/>
       <c r="K10" s="403"/>
@@ -16233,11 +16233,11 @@
       </c>
       <c r="H11" s="433">
         <f>H10-F11</f>
-        <v>11568085</v>
+        <v>12192752</v>
       </c>
       <c r="I11" s="434">
         <f>I10-G11</f>
-        <v>0.91810198412698418</v>
+        <v>0.96767873015873018</v>
       </c>
       <c r="J11" s="383"/>
       <c r="K11" s="383"/>
@@ -16378,23 +16378,23 @@
       <c r="D21" s="455"/>
       <c r="E21" s="456">
         <f>SUM(E10:E20)</f>
-        <v>948096</v>
+        <v>349440</v>
       </c>
       <c r="F21" s="457">
         <f>SUM(F10:F20)</f>
-        <v>1031915</v>
+        <v>407248</v>
       </c>
       <c r="G21" s="458">
         <f>SUM(G10:G20)</f>
-        <v>8.1898015873015872E-2</v>
+        <v>3.2321269841269838E-2</v>
       </c>
       <c r="H21" s="459">
         <f>A10-F21</f>
-        <v>11568085</v>
+        <v>12192752</v>
       </c>
       <c r="I21" s="460">
         <f>1-G21</f>
-        <v>0.91810198412698418</v>
+        <v>0.96767873015873018</v>
       </c>
       <c r="J21" s="461"/>
       <c r="K21" s="461"/>
@@ -16413,12 +16413,12 @@
       <c r="J24" s="383"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="521" t="s">
+      <c r="A25" s="520" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="521"/>
-      <c r="C25" s="521"/>
-      <c r="D25" s="521"/>
+      <c r="B25" s="520"/>
+      <c r="C25" s="520"/>
+      <c r="D25" s="520"/>
       <c r="E25" s="383"/>
       <c r="F25" s="383"/>
       <c r="G25" s="383"/>
@@ -16427,10 +16427,10 @@
       <c r="J25" s="383"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="522" t="s">
+      <c r="A26" s="521" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="522"/>
+      <c r="B26" s="521"/>
       <c r="C26" s="493" t="s">
         <v>130</v>
       </c>
@@ -16445,18 +16445,18 @@
       <c r="J26" s="383"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="523">
+      <c r="A27" s="522">
         <f>A10-F21</f>
-        <v>11568085</v>
-      </c>
-      <c r="B27" s="524"/>
+        <v>12192752</v>
+      </c>
+      <c r="B27" s="523"/>
       <c r="C27" s="463">
         <f>1-G21</f>
-        <v>0.91810198412698418</v>
+        <v>0.96767873015873018</v>
       </c>
       <c r="D27" s="464">
         <f>(C27/0.8)*100</f>
-        <v>114.762748015873</v>
+        <v>120.95984126984128</v>
       </c>
       <c r="E27" s="492" t="s">
         <v>132</v>
@@ -16511,8 +16511,8 @@
       <c r="F31" s="467"/>
       <c r="G31" s="467"/>
       <c r="H31" s="467"/>
-      <c r="I31" s="517"/>
-      <c r="J31" s="518"/>
+      <c r="I31" s="524"/>
+      <c r="J31" s="525"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="468"/>
@@ -16606,9 +16606,9 @@
     </row>
     <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="383"/>
-      <c r="B41" s="525"/>
-      <c r="C41" s="525"/>
-      <c r="D41" s="526"/>
+      <c r="B41" s="517"/>
+      <c r="C41" s="517"/>
+      <c r="D41" s="518"/>
       <c r="E41" s="492"/>
       <c r="F41" s="383"/>
       <c r="G41" s="383"/>
@@ -16625,8 +16625,8 @@
       <c r="F42" s="467"/>
       <c r="G42" s="467"/>
       <c r="H42" s="467"/>
-      <c r="I42" s="517"/>
-      <c r="J42" s="518"/>
+      <c r="I42" s="524"/>
+      <c r="J42" s="525"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="468"/>
@@ -16637,8 +16637,8 @@
       <c r="F43" s="413"/>
       <c r="G43" s="413"/>
       <c r="H43" s="469"/>
-      <c r="I43" s="519"/>
-      <c r="J43" s="519"/>
+      <c r="I43" s="526"/>
+      <c r="J43" s="526"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="468"/>
@@ -16649,8 +16649,8 @@
       <c r="F44" s="403"/>
       <c r="G44" s="403"/>
       <c r="H44" s="403"/>
-      <c r="I44" s="519"/>
-      <c r="J44" s="519"/>
+      <c r="I44" s="526"/>
+      <c r="J44" s="526"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="383"/>
@@ -16663,26 +16663,26 @@
       <c r="H45" s="383"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="517"/>
-      <c r="C50" s="518"/>
+      <c r="B50" s="524"/>
+      <c r="C50" s="525"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="517"/>
-      <c r="C57" s="518"/>
+      <c r="B57" s="524"/>
+      <c r="C57" s="525"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B57:C57"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B57:C57"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16697,8 +16697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16752,17 +16752,17 @@
       <c r="L2" s="381"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="520" t="s">
+      <c r="A3" s="519" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="520"/>
-      <c r="C3" s="520"/>
-      <c r="D3" s="520"/>
-      <c r="E3" s="520"/>
-      <c r="F3" s="520"/>
-      <c r="G3" s="520"/>
-      <c r="H3" s="520"/>
-      <c r="I3" s="520"/>
+      <c r="B3" s="519"/>
+      <c r="C3" s="519"/>
+      <c r="D3" s="519"/>
+      <c r="E3" s="519"/>
+      <c r="F3" s="519"/>
+      <c r="G3" s="519"/>
+      <c r="H3" s="519"/>
+      <c r="I3" s="519"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
@@ -17218,31 +17218,31 @@
         <v>36000000</v>
       </c>
       <c r="B20" s="423">
-        <v>43759</v>
+        <v>43879</v>
       </c>
       <c r="C20" s="424">
-        <v>43765</v>
+        <v>43884</v>
       </c>
       <c r="D20" s="423">
-        <v>43769</v>
+        <v>43885</v>
       </c>
       <c r="E20" s="425">
-        <v>948096</v>
+        <v>1224080</v>
       </c>
       <c r="F20" s="425">
-        <v>1031915</v>
+        <v>1306692</v>
       </c>
       <c r="G20" s="426">
         <f>F20/A$20</f>
-        <v>2.8664305555555554E-2</v>
+        <v>3.6297000000000003E-2</v>
       </c>
       <c r="H20" s="427">
         <f>A20-F20</f>
-        <v>34968085</v>
+        <v>34693308</v>
       </c>
       <c r="I20" s="428">
         <f>1-G20</f>
-        <v>0.97133569444444445</v>
+        <v>0.96370299999999998</v>
       </c>
       <c r="J20" s="429"/>
       <c r="K20" s="403"/>
@@ -17261,11 +17261,11 @@
       </c>
       <c r="H21" s="433">
         <f>H20-F21</f>
-        <v>34968085</v>
+        <v>34693308</v>
       </c>
       <c r="I21" s="434">
         <f>I20-G21</f>
-        <v>0.97133569444444445</v>
+        <v>0.96370299999999998</v>
       </c>
       <c r="J21" s="383"/>
       <c r="K21" s="383"/>
@@ -17406,23 +17406,23 @@
       <c r="D31" s="455"/>
       <c r="E31" s="456">
         <f>SUM(E20:E30)</f>
-        <v>948096</v>
+        <v>1224080</v>
       </c>
       <c r="F31" s="457">
         <f>SUM(F20:F30)</f>
-        <v>1031915</v>
+        <v>1306692</v>
       </c>
       <c r="G31" s="458">
         <f>SUM(G20:G30)</f>
-        <v>2.8664305555555554E-2</v>
+        <v>3.6297000000000003E-2</v>
       </c>
       <c r="H31" s="459">
         <f>A20-F31</f>
-        <v>34968085</v>
+        <v>34693308</v>
       </c>
       <c r="I31" s="460">
         <f>1-G31</f>
-        <v>0.97133569444444445</v>
+        <v>0.96370299999999998</v>
       </c>
       <c r="J31" s="461"/>
       <c r="K31" s="461"/>
@@ -17441,12 +17441,12 @@
       <c r="J34" s="383"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="521" t="s">
+      <c r="A35" s="520" t="s">
         <v>128</v>
       </c>
-      <c r="B35" s="521"/>
-      <c r="C35" s="521"/>
-      <c r="D35" s="521"/>
+      <c r="B35" s="520"/>
+      <c r="C35" s="520"/>
+      <c r="D35" s="520"/>
       <c r="E35" s="383"/>
       <c r="F35" s="383"/>
       <c r="G35" s="383"/>
@@ -17455,10 +17455,10 @@
       <c r="J35" s="383"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="522" t="s">
+      <c r="A36" s="521" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="522"/>
+      <c r="B36" s="521"/>
       <c r="C36" s="462" t="s">
         <v>130</v>
       </c>
@@ -17473,18 +17473,18 @@
       <c r="J36" s="383"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="523">
+      <c r="A37" s="522">
         <f>A20-F31</f>
-        <v>34968085</v>
-      </c>
-      <c r="B37" s="524"/>
+        <v>34693308</v>
+      </c>
+      <c r="B37" s="523"/>
       <c r="C37" s="463">
         <f>1-G31</f>
-        <v>0.97133569444444445</v>
+        <v>0.96370299999999998</v>
       </c>
       <c r="D37" s="464">
         <f>(C37/0.8)*100</f>
-        <v>121.41696180555554</v>
+        <v>120.462875</v>
       </c>
       <c r="E37" s="465" t="s">
         <v>132</v>
@@ -17539,8 +17539,8 @@
       <c r="F41" s="467"/>
       <c r="G41" s="467"/>
       <c r="H41" s="467"/>
-      <c r="I41" s="517"/>
-      <c r="J41" s="518"/>
+      <c r="I41" s="524"/>
+      <c r="J41" s="525"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="468"/>
@@ -17634,9 +17634,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="383"/>
-      <c r="B51" s="525"/>
-      <c r="C51" s="525"/>
-      <c r="D51" s="526"/>
+      <c r="B51" s="517"/>
+      <c r="C51" s="517"/>
+      <c r="D51" s="518"/>
       <c r="E51" s="465"/>
       <c r="F51" s="383"/>
       <c r="G51" s="383"/>
@@ -17653,8 +17653,8 @@
       <c r="F52" s="467"/>
       <c r="G52" s="467"/>
       <c r="H52" s="467"/>
-      <c r="I52" s="517"/>
-      <c r="J52" s="518"/>
+      <c r="I52" s="524"/>
+      <c r="J52" s="525"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="468"/>
@@ -17665,8 +17665,8 @@
       <c r="F53" s="413"/>
       <c r="G53" s="413"/>
       <c r="H53" s="469"/>
-      <c r="I53" s="519"/>
-      <c r="J53" s="519"/>
+      <c r="I53" s="526"/>
+      <c r="J53" s="526"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="468"/>
@@ -17677,8 +17677,8 @@
       <c r="F54" s="403"/>
       <c r="G54" s="403"/>
       <c r="H54" s="403"/>
-      <c r="I54" s="519"/>
-      <c r="J54" s="519"/>
+      <c r="I54" s="526"/>
+      <c r="J54" s="526"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="383"/>
@@ -17691,26 +17691,26 @@
       <c r="H55" s="383"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="517"/>
-      <c r="C60" s="518"/>
+      <c r="B60" s="524"/>
+      <c r="C60" s="525"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="517"/>
-      <c r="C67" s="518"/>
+      <c r="B67" s="524"/>
+      <c r="C67" s="525"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B67:C67"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B67:C67"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17725,7 +17725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A32" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A32" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E30" sqref="E30:F31"/>
     </sheetView>
   </sheetViews>
@@ -17793,47 +17793,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="536" t="s">
+      <c r="A11" s="546" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="536"/>
-      <c r="C11" s="536"/>
-      <c r="D11" s="536"/>
-      <c r="E11" s="536"/>
-      <c r="F11" s="536"/>
-      <c r="G11" s="536"/>
-      <c r="H11" s="536"/>
-      <c r="I11" s="536"/>
-      <c r="J11" s="536"/>
+      <c r="B11" s="546"/>
+      <c r="C11" s="546"/>
+      <c r="D11" s="546"/>
+      <c r="E11" s="546"/>
+      <c r="F11" s="546"/>
+      <c r="G11" s="546"/>
+      <c r="H11" s="546"/>
+      <c r="I11" s="546"/>
+      <c r="J11" s="546"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="535" t="s">
+      <c r="A12" s="550" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="535"/>
-      <c r="C12" s="535"/>
-      <c r="D12" s="535"/>
-      <c r="E12" s="535"/>
-      <c r="F12" s="535"/>
-      <c r="G12" s="535"/>
-      <c r="H12" s="535"/>
-      <c r="I12" s="535"/>
-      <c r="J12" s="535"/>
+      <c r="B12" s="550"/>
+      <c r="C12" s="550"/>
+      <c r="D12" s="550"/>
+      <c r="E12" s="550"/>
+      <c r="F12" s="550"/>
+      <c r="G12" s="550"/>
+      <c r="H12" s="550"/>
+      <c r="I12" s="550"/>
+      <c r="J12" s="550"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="537" t="str">
+      <c r="A13" s="547" t="str">
         <f>Данные!A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="B13" s="536"/>
-      <c r="C13" s="536"/>
-      <c r="D13" s="536"/>
-      <c r="E13" s="536"/>
-      <c r="F13" s="536"/>
-      <c r="G13" s="536"/>
-      <c r="H13" s="536"/>
-      <c r="I13" s="536"/>
-      <c r="J13" s="536"/>
+      <c r="B13" s="546"/>
+      <c r="C13" s="546"/>
+      <c r="D13" s="546"/>
+      <c r="E13" s="546"/>
+      <c r="F13" s="546"/>
+      <c r="G13" s="546"/>
+      <c r="H13" s="546"/>
+      <c r="I13" s="546"/>
+      <c r="J13" s="546"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="304" t="s">
@@ -17958,491 +17958,491 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="541" t="s">
+      <c r="A22" s="548" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="541" t="s">
+      <c r="B22" s="548" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="541"/>
-      <c r="D22" s="541"/>
-      <c r="E22" s="541" t="s">
+      <c r="C22" s="548"/>
+      <c r="D22" s="548"/>
+      <c r="E22" s="548" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="541"/>
-      <c r="G22" s="547" t="s">
+      <c r="F22" s="548"/>
+      <c r="G22" s="549" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="541" t="s">
+      <c r="H22" s="548" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="541"/>
-      <c r="J22" s="541"/>
+      <c r="I22" s="548"/>
+      <c r="J22" s="548"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="541"/>
-      <c r="B23" s="541"/>
-      <c r="C23" s="541"/>
-      <c r="D23" s="541"/>
-      <c r="E23" s="541"/>
-      <c r="F23" s="541"/>
-      <c r="G23" s="547"/>
-      <c r="H23" s="541"/>
-      <c r="I23" s="541"/>
-      <c r="J23" s="541"/>
+      <c r="A23" s="548"/>
+      <c r="B23" s="548"/>
+      <c r="C23" s="548"/>
+      <c r="D23" s="548"/>
+      <c r="E23" s="548"/>
+      <c r="F23" s="548"/>
+      <c r="G23" s="549"/>
+      <c r="H23" s="548"/>
+      <c r="I23" s="548"/>
+      <c r="J23" s="548"/>
     </row>
     <row r="24" spans="1:10" s="498" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="542">
+      <c r="A24" s="527">
         <v>1</v>
       </c>
-      <c r="B24" s="544" t="s">
+      <c r="B24" s="543" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="545"/>
-      <c r="D24" s="546"/>
-      <c r="E24" s="527">
+      <c r="C24" s="544"/>
+      <c r="D24" s="545"/>
+      <c r="E24" s="532">
         <f>Данные!C16</f>
         <v>19067</v>
       </c>
-      <c r="F24" s="529"/>
-      <c r="G24" s="533">
+      <c r="F24" s="533"/>
+      <c r="G24" s="536">
         <f>Данные!B16</f>
         <v>19</v>
       </c>
-      <c r="H24" s="527"/>
-      <c r="I24" s="528"/>
-      <c r="J24" s="529"/>
+      <c r="H24" s="532"/>
+      <c r="I24" s="538"/>
+      <c r="J24" s="533"/>
     </row>
     <row r="25" spans="1:10" s="498" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="543"/>
-      <c r="B25" s="538" t="str">
+      <c r="A25" s="528"/>
+      <c r="B25" s="540" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
-      <c r="C25" s="539"/>
-      <c r="D25" s="540"/>
-      <c r="E25" s="531"/>
-      <c r="F25" s="532"/>
-      <c r="G25" s="534"/>
-      <c r="H25" s="530"/>
-      <c r="I25" s="531"/>
-      <c r="J25" s="532"/>
+      <c r="C25" s="541"/>
+      <c r="D25" s="542"/>
+      <c r="E25" s="539"/>
+      <c r="F25" s="535"/>
+      <c r="G25" s="537"/>
+      <c r="H25" s="534"/>
+      <c r="I25" s="539"/>
+      <c r="J25" s="535"/>
     </row>
     <row r="26" spans="1:10" s="498" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="542">
+      <c r="A26" s="527">
         <v>1</v>
       </c>
-      <c r="B26" s="544" t="s">
+      <c r="B26" s="543" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="545"/>
-      <c r="D26" s="546"/>
-      <c r="E26" s="527">
+      <c r="C26" s="544"/>
+      <c r="D26" s="545"/>
+      <c r="E26" s="532">
         <f>Данные!C17</f>
         <v>19068</v>
       </c>
-      <c r="F26" s="529"/>
-      <c r="G26" s="533">
+      <c r="F26" s="533"/>
+      <c r="G26" s="536">
         <f>Данные!B17</f>
         <v>18</v>
       </c>
-      <c r="H26" s="527"/>
-      <c r="I26" s="528"/>
-      <c r="J26" s="529"/>
+      <c r="H26" s="532"/>
+      <c r="I26" s="538"/>
+      <c r="J26" s="533"/>
     </row>
     <row r="27" spans="1:10" s="498" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="543"/>
-      <c r="B27" s="538" t="str">
+      <c r="A27" s="528"/>
+      <c r="B27" s="540" t="str">
         <f>Данные!$C$34</f>
         <v>(к серийному формокомплекту Лампада 2)</v>
       </c>
-      <c r="C27" s="539"/>
-      <c r="D27" s="540"/>
-      <c r="E27" s="531"/>
-      <c r="F27" s="532"/>
-      <c r="G27" s="534"/>
-      <c r="H27" s="530"/>
-      <c r="I27" s="531"/>
-      <c r="J27" s="532"/>
+      <c r="C27" s="541"/>
+      <c r="D27" s="542"/>
+      <c r="E27" s="539"/>
+      <c r="F27" s="535"/>
+      <c r="G27" s="537"/>
+      <c r="H27" s="534"/>
+      <c r="I27" s="539"/>
+      <c r="J27" s="535"/>
     </row>
     <row r="28" spans="1:10" s="498" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="542">
+      <c r="A28" s="527">
         <v>1</v>
       </c>
-      <c r="B28" s="544" t="s">
+      <c r="B28" s="543" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="545"/>
-      <c r="D28" s="546"/>
-      <c r="E28" s="527">
+      <c r="C28" s="544"/>
+      <c r="D28" s="545"/>
+      <c r="E28" s="532">
         <f>Данные!C18</f>
         <v>19069</v>
       </c>
-      <c r="F28" s="529"/>
-      <c r="G28" s="533">
+      <c r="F28" s="533"/>
+      <c r="G28" s="536">
         <f>Данные!B18</f>
         <v>18</v>
       </c>
-      <c r="H28" s="527"/>
-      <c r="I28" s="528"/>
-      <c r="J28" s="529"/>
+      <c r="H28" s="532"/>
+      <c r="I28" s="538"/>
+      <c r="J28" s="533"/>
     </row>
     <row r="29" spans="1:10" s="498" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="543"/>
-      <c r="B29" s="538" t="str">
+      <c r="A29" s="528"/>
+      <c r="B29" s="540" t="str">
         <f>Данные!$F$34</f>
         <v>(к серийному формокомплекту Лампада 3)</v>
       </c>
-      <c r="C29" s="539"/>
-      <c r="D29" s="540"/>
-      <c r="E29" s="531"/>
-      <c r="F29" s="532"/>
-      <c r="G29" s="534"/>
-      <c r="H29" s="530"/>
-      <c r="I29" s="531"/>
-      <c r="J29" s="532"/>
+      <c r="C29" s="541"/>
+      <c r="D29" s="542"/>
+      <c r="E29" s="539"/>
+      <c r="F29" s="535"/>
+      <c r="G29" s="537"/>
+      <c r="H29" s="534"/>
+      <c r="I29" s="539"/>
+      <c r="J29" s="535"/>
     </row>
     <row r="30" spans="1:10" s="498" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="542">
+      <c r="A30" s="527">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B30" s="548" t="s">
+      <c r="B30" s="529" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="549"/>
-      <c r="D30" s="550"/>
-      <c r="E30" s="527">
+      <c r="C30" s="530"/>
+      <c r="D30" s="531"/>
+      <c r="E30" s="532">
         <f>Данные!C19</f>
         <v>0</v>
       </c>
-      <c r="F30" s="529"/>
-      <c r="G30" s="533">
+      <c r="F30" s="533"/>
+      <c r="G30" s="536">
         <f>Данные!B19</f>
         <v>19</v>
       </c>
-      <c r="H30" s="527"/>
-      <c r="I30" s="528"/>
-      <c r="J30" s="529"/>
+      <c r="H30" s="532"/>
+      <c r="I30" s="538"/>
+      <c r="J30" s="533"/>
     </row>
     <row r="31" spans="1:10" s="498" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="543"/>
-      <c r="B31" s="538" t="str">
+      <c r="A31" s="528"/>
+      <c r="B31" s="540" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
-      <c r="C31" s="539"/>
-      <c r="D31" s="540"/>
-      <c r="E31" s="531"/>
-      <c r="F31" s="532"/>
-      <c r="G31" s="534"/>
-      <c r="H31" s="530"/>
-      <c r="I31" s="531"/>
-      <c r="J31" s="532"/>
+      <c r="C31" s="541"/>
+      <c r="D31" s="542"/>
+      <c r="E31" s="539"/>
+      <c r="F31" s="535"/>
+      <c r="G31" s="537"/>
+      <c r="H31" s="534"/>
+      <c r="I31" s="539"/>
+      <c r="J31" s="535"/>
     </row>
     <row r="32" spans="1:10" s="498" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="542">
+      <c r="A32" s="527">
         <f t="shared" ref="A32" si="0">A30+1</f>
         <v>3</v>
       </c>
-      <c r="B32" s="548" t="s">
+      <c r="B32" s="529" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="549"/>
-      <c r="D32" s="550"/>
-      <c r="E32" s="527">
+      <c r="C32" s="530"/>
+      <c r="D32" s="531"/>
+      <c r="E32" s="532">
         <f>Данные!C20</f>
         <v>0</v>
       </c>
-      <c r="F32" s="529"/>
-      <c r="G32" s="533">
+      <c r="F32" s="533"/>
+      <c r="G32" s="536">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="H32" s="527"/>
-      <c r="I32" s="528"/>
-      <c r="J32" s="529"/>
+      <c r="H32" s="532"/>
+      <c r="I32" s="538"/>
+      <c r="J32" s="533"/>
     </row>
     <row r="33" spans="1:10" s="498" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="543"/>
-      <c r="B33" s="538" t="str">
+      <c r="A33" s="528"/>
+      <c r="B33" s="540" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
-      <c r="C33" s="539"/>
-      <c r="D33" s="540"/>
-      <c r="E33" s="531"/>
-      <c r="F33" s="532"/>
-      <c r="G33" s="534"/>
-      <c r="H33" s="530"/>
-      <c r="I33" s="531"/>
-      <c r="J33" s="532"/>
+      <c r="C33" s="541"/>
+      <c r="D33" s="542"/>
+      <c r="E33" s="539"/>
+      <c r="F33" s="535"/>
+      <c r="G33" s="537"/>
+      <c r="H33" s="534"/>
+      <c r="I33" s="539"/>
+      <c r="J33" s="535"/>
     </row>
     <row r="34" spans="1:10" s="498" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="542">
+      <c r="A34" s="527">
         <f t="shared" ref="A34" si="1">A32+1</f>
         <v>4</v>
       </c>
-      <c r="B34" s="548" t="s">
+      <c r="B34" s="529" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="549"/>
-      <c r="D34" s="550"/>
-      <c r="E34" s="527">
+      <c r="C34" s="530"/>
+      <c r="D34" s="531"/>
+      <c r="E34" s="532">
         <f>Данные!C21</f>
         <v>0</v>
       </c>
-      <c r="F34" s="529"/>
-      <c r="G34" s="533">
+      <c r="F34" s="533"/>
+      <c r="G34" s="536">
         <f>Данные!B21</f>
         <v>60</v>
       </c>
-      <c r="H34" s="527"/>
-      <c r="I34" s="528"/>
-      <c r="J34" s="529"/>
+      <c r="H34" s="532"/>
+      <c r="I34" s="538"/>
+      <c r="J34" s="533"/>
     </row>
     <row r="35" spans="1:10" s="498" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="543"/>
-      <c r="B35" s="538" t="str">
+      <c r="A35" s="528"/>
+      <c r="B35" s="540" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
-      <c r="C35" s="539"/>
-      <c r="D35" s="540"/>
-      <c r="E35" s="530"/>
-      <c r="F35" s="532"/>
-      <c r="G35" s="534"/>
-      <c r="H35" s="530"/>
-      <c r="I35" s="531"/>
-      <c r="J35" s="532"/>
+      <c r="C35" s="541"/>
+      <c r="D35" s="542"/>
+      <c r="E35" s="534"/>
+      <c r="F35" s="535"/>
+      <c r="G35" s="537"/>
+      <c r="H35" s="534"/>
+      <c r="I35" s="539"/>
+      <c r="J35" s="535"/>
     </row>
     <row r="36" spans="1:10" s="498" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="542">
+      <c r="A36" s="527">
         <f t="shared" ref="A36" si="2">A34+1</f>
         <v>5</v>
       </c>
-      <c r="B36" s="548" t="s">
+      <c r="B36" s="529" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="549"/>
-      <c r="D36" s="550"/>
-      <c r="E36" s="527">
+      <c r="C36" s="530"/>
+      <c r="D36" s="531"/>
+      <c r="E36" s="532">
         <f>Данные!C22</f>
         <v>0</v>
       </c>
-      <c r="F36" s="529"/>
-      <c r="G36" s="533">
+      <c r="F36" s="533"/>
+      <c r="G36" s="536">
         <f>Данные!B22</f>
         <v>28</v>
       </c>
-      <c r="H36" s="527"/>
-      <c r="I36" s="528"/>
-      <c r="J36" s="529"/>
+      <c r="H36" s="532"/>
+      <c r="I36" s="538"/>
+      <c r="J36" s="533"/>
     </row>
     <row r="37" spans="1:10" s="498" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="543"/>
-      <c r="B37" s="538" t="str">
+      <c r="A37" s="528"/>
+      <c r="B37" s="540" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
-      <c r="C37" s="539"/>
-      <c r="D37" s="540"/>
-      <c r="E37" s="530"/>
-      <c r="F37" s="532"/>
-      <c r="G37" s="534"/>
-      <c r="H37" s="530"/>
-      <c r="I37" s="531"/>
-      <c r="J37" s="532"/>
+      <c r="C37" s="541"/>
+      <c r="D37" s="542"/>
+      <c r="E37" s="534"/>
+      <c r="F37" s="535"/>
+      <c r="G37" s="537"/>
+      <c r="H37" s="534"/>
+      <c r="I37" s="539"/>
+      <c r="J37" s="535"/>
     </row>
     <row r="38" spans="1:10" s="498" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="542">
+      <c r="A38" s="527">
         <f t="shared" ref="A38" si="3">A36+1</f>
         <v>6</v>
       </c>
-      <c r="B38" s="548" t="s">
+      <c r="B38" s="529" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="549"/>
-      <c r="D38" s="550"/>
-      <c r="E38" s="527">
+      <c r="C38" s="530"/>
+      <c r="D38" s="531"/>
+      <c r="E38" s="532">
         <f>Данные!C23</f>
         <v>0</v>
       </c>
-      <c r="F38" s="529"/>
-      <c r="G38" s="533">
+      <c r="F38" s="533"/>
+      <c r="G38" s="536">
         <f>Данные!B23</f>
         <v>28</v>
       </c>
-      <c r="H38" s="527"/>
-      <c r="I38" s="528"/>
-      <c r="J38" s="529"/>
+      <c r="H38" s="532"/>
+      <c r="I38" s="538"/>
+      <c r="J38" s="533"/>
     </row>
     <row r="39" spans="1:10" s="498" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="543"/>
-      <c r="B39" s="538" t="str">
+      <c r="A39" s="528"/>
+      <c r="B39" s="540" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
-      <c r="C39" s="539"/>
-      <c r="D39" s="540"/>
-      <c r="E39" s="530"/>
-      <c r="F39" s="532"/>
-      <c r="G39" s="534"/>
-      <c r="H39" s="530"/>
-      <c r="I39" s="531"/>
-      <c r="J39" s="532"/>
+      <c r="C39" s="541"/>
+      <c r="D39" s="542"/>
+      <c r="E39" s="534"/>
+      <c r="F39" s="535"/>
+      <c r="G39" s="537"/>
+      <c r="H39" s="534"/>
+      <c r="I39" s="539"/>
+      <c r="J39" s="535"/>
     </row>
     <row r="40" spans="1:10" s="498" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="542">
+      <c r="A40" s="527">
         <f t="shared" ref="A40:A42" si="4">A38+1</f>
         <v>7</v>
       </c>
-      <c r="B40" s="548" t="s">
+      <c r="B40" s="529" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="549"/>
-      <c r="D40" s="550"/>
-      <c r="E40" s="527">
+      <c r="C40" s="530"/>
+      <c r="D40" s="531"/>
+      <c r="E40" s="532">
         <f>Данные!C24</f>
         <v>0</v>
       </c>
-      <c r="F40" s="529"/>
-      <c r="G40" s="533">
+      <c r="F40" s="533"/>
+      <c r="G40" s="536">
         <f>Данные!B24</f>
         <v>78</v>
       </c>
-      <c r="H40" s="527"/>
-      <c r="I40" s="528"/>
-      <c r="J40" s="529"/>
+      <c r="H40" s="532"/>
+      <c r="I40" s="538"/>
+      <c r="J40" s="533"/>
     </row>
     <row r="41" spans="1:10" s="498" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="543"/>
-      <c r="B41" s="538" t="str">
+      <c r="A41" s="528"/>
+      <c r="B41" s="540" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
-      <c r="C41" s="539"/>
-      <c r="D41" s="540"/>
-      <c r="E41" s="530"/>
-      <c r="F41" s="532"/>
-      <c r="G41" s="534"/>
-      <c r="H41" s="530"/>
-      <c r="I41" s="531"/>
-      <c r="J41" s="532"/>
+      <c r="C41" s="541"/>
+      <c r="D41" s="542"/>
+      <c r="E41" s="534"/>
+      <c r="F41" s="535"/>
+      <c r="G41" s="537"/>
+      <c r="H41" s="534"/>
+      <c r="I41" s="539"/>
+      <c r="J41" s="535"/>
     </row>
     <row r="42" spans="1:10" s="498" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="542">
+      <c r="A42" s="527">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B42" s="548" t="s">
+      <c r="B42" s="529" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="549"/>
-      <c r="D42" s="550"/>
-      <c r="E42" s="527">
+      <c r="C42" s="530"/>
+      <c r="D42" s="531"/>
+      <c r="E42" s="532">
         <f>Данные!C30</f>
         <v>0</v>
       </c>
-      <c r="F42" s="529"/>
-      <c r="G42" s="533">
+      <c r="F42" s="533"/>
+      <c r="G42" s="536">
         <f>Данные!B30</f>
         <v>18</v>
       </c>
-      <c r="H42" s="527"/>
-      <c r="I42" s="528"/>
-      <c r="J42" s="529"/>
+      <c r="H42" s="532"/>
+      <c r="I42" s="538"/>
+      <c r="J42" s="533"/>
     </row>
     <row r="43" spans="1:10" s="498" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="543"/>
-      <c r="B43" s="538" t="str">
+      <c r="A43" s="528"/>
+      <c r="B43" s="540" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
-      <c r="C43" s="539"/>
-      <c r="D43" s="540"/>
-      <c r="E43" s="530"/>
-      <c r="F43" s="532"/>
-      <c r="G43" s="534"/>
-      <c r="H43" s="530"/>
-      <c r="I43" s="531"/>
-      <c r="J43" s="532"/>
+      <c r="C43" s="541"/>
+      <c r="D43" s="542"/>
+      <c r="E43" s="534"/>
+      <c r="F43" s="535"/>
+      <c r="G43" s="537"/>
+      <c r="H43" s="534"/>
+      <c r="I43" s="539"/>
+      <c r="J43" s="535"/>
     </row>
     <row r="44" spans="1:10" s="498" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="542">
+      <c r="A44" s="527">
         <f t="shared" ref="A44" si="5">A42+1</f>
         <v>9</v>
       </c>
-      <c r="B44" s="548" t="s">
+      <c r="B44" s="529" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="549"/>
-      <c r="D44" s="550"/>
-      <c r="E44" s="527">
+      <c r="C44" s="530"/>
+      <c r="D44" s="531"/>
+      <c r="E44" s="532">
         <f>Данные!C31</f>
         <v>0</v>
       </c>
-      <c r="F44" s="529"/>
-      <c r="G44" s="533">
+      <c r="F44" s="533"/>
+      <c r="G44" s="536">
         <f>Данные!B31</f>
         <v>18</v>
       </c>
-      <c r="H44" s="527"/>
-      <c r="I44" s="528"/>
-      <c r="J44" s="529"/>
+      <c r="H44" s="532"/>
+      <c r="I44" s="538"/>
+      <c r="J44" s="533"/>
     </row>
     <row r="45" spans="1:10" s="498" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="543"/>
-      <c r="B45" s="538" t="str">
+      <c r="A45" s="528"/>
+      <c r="B45" s="540" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
-      <c r="C45" s="539"/>
-      <c r="D45" s="540"/>
-      <c r="E45" s="530"/>
-      <c r="F45" s="532"/>
-      <c r="G45" s="534"/>
-      <c r="H45" s="530"/>
-      <c r="I45" s="531"/>
-      <c r="J45" s="532"/>
+      <c r="C45" s="541"/>
+      <c r="D45" s="542"/>
+      <c r="E45" s="534"/>
+      <c r="F45" s="535"/>
+      <c r="G45" s="537"/>
+      <c r="H45" s="534"/>
+      <c r="I45" s="539"/>
+      <c r="J45" s="535"/>
     </row>
     <row r="46" spans="1:10" s="498" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="542">
+      <c r="A46" s="527">
         <f t="shared" ref="A46" si="6">A44+1</f>
         <v>10</v>
       </c>
-      <c r="B46" s="548" t="s">
+      <c r="B46" s="529" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="549"/>
-      <c r="D46" s="550"/>
-      <c r="E46" s="527">
+      <c r="C46" s="530"/>
+      <c r="D46" s="531"/>
+      <c r="E46" s="532">
         <f>Данные!C28</f>
         <v>0</v>
       </c>
-      <c r="F46" s="529"/>
-      <c r="G46" s="533">
+      <c r="F46" s="533"/>
+      <c r="G46" s="536">
         <f>Данные!B28</f>
         <v>8</v>
       </c>
-      <c r="H46" s="527"/>
-      <c r="I46" s="528"/>
-      <c r="J46" s="529"/>
+      <c r="H46" s="532"/>
+      <c r="I46" s="538"/>
+      <c r="J46" s="533"/>
     </row>
     <row r="47" spans="1:10" s="498" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="543"/>
-      <c r="B47" s="538" t="str">
+      <c r="A47" s="528"/>
+      <c r="B47" s="540" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
-      <c r="C47" s="539"/>
-      <c r="D47" s="540"/>
-      <c r="E47" s="530"/>
-      <c r="F47" s="532"/>
-      <c r="G47" s="534"/>
-      <c r="H47" s="530"/>
-      <c r="I47" s="531"/>
-      <c r="J47" s="532"/>
+      <c r="C47" s="541"/>
+      <c r="D47" s="542"/>
+      <c r="E47" s="534"/>
+      <c r="F47" s="535"/>
+      <c r="G47" s="537"/>
+      <c r="H47" s="534"/>
+      <c r="I47" s="539"/>
+      <c r="J47" s="535"/>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="304"/>
@@ -18571,63 +18571,13 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
     <mergeCell ref="E26:F27"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="A11:J11"/>
@@ -18644,13 +18594,63 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18706,47 +18706,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="565"/>
-      <c r="C2" s="566"/>
-      <c r="D2" s="567"/>
-      <c r="E2" s="574" t="s">
+      <c r="B2" s="555"/>
+      <c r="C2" s="556"/>
+      <c r="D2" s="557"/>
+      <c r="E2" s="564" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="575"/>
-      <c r="G2" s="575"/>
-      <c r="H2" s="576"/>
-      <c r="I2" s="581" t="s">
+      <c r="F2" s="565"/>
+      <c r="G2" s="565"/>
+      <c r="H2" s="566"/>
+      <c r="I2" s="571" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="582"/>
-      <c r="K2" s="585">
+      <c r="J2" s="572"/>
+      <c r="K2" s="575">
         <f>Данные!B16</f>
         <v>19</v>
       </c>
-      <c r="L2" s="586"/>
+      <c r="L2" s="576"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="577"/>
-      <c r="Q2" s="577"/>
+      <c r="P2" s="567"/>
+      <c r="Q2" s="567"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="568"/>
-      <c r="C3" s="569"/>
-      <c r="D3" s="570"/>
-      <c r="E3" s="578" t="s">
+      <c r="B3" s="558"/>
+      <c r="C3" s="559"/>
+      <c r="D3" s="560"/>
+      <c r="E3" s="568" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="579"/>
-      <c r="G3" s="579"/>
-      <c r="H3" s="580"/>
-      <c r="I3" s="583"/>
-      <c r="J3" s="584"/>
-      <c r="K3" s="587"/>
-      <c r="L3" s="588"/>
+      <c r="F3" s="569"/>
+      <c r="G3" s="569"/>
+      <c r="H3" s="570"/>
+      <c r="I3" s="573"/>
+      <c r="J3" s="574"/>
+      <c r="K3" s="577"/>
+      <c r="L3" s="578"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -18757,9 +18757,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="571"/>
-      <c r="C4" s="572"/>
-      <c r="D4" s="573"/>
+      <c r="B4" s="561"/>
+      <c r="C4" s="562"/>
+      <c r="D4" s="563"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -18778,22 +18778,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="592" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="593"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="583"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="554"/>
-      <c r="J5" s="555"/>
-      <c r="K5" s="510"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="584"/>
+      <c r="J5" s="585"/>
+      <c r="K5" s="512"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -18804,22 +18804,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="594"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="586"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="595"/>
-      <c r="F6" s="595"/>
-      <c r="G6" s="595"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="554"/>
-      <c r="J6" s="555"/>
-      <c r="K6" s="510"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="584"/>
+      <c r="J6" s="585"/>
+      <c r="K6" s="512"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -18830,27 +18830,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="557"/>
-      <c r="D7" s="512">
+      <c r="C7" s="593"/>
+      <c r="D7" s="514">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="556" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="592" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="560"/>
-      <c r="K7" s="500">
+      <c r="J7" s="596"/>
+      <c r="K7" s="502">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -19322,12 +19322,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="551" t="s">
+      <c r="B23" s="589" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="552"/>
-      <c r="D23" s="552"/>
-      <c r="E23" s="553"/>
+      <c r="C23" s="590"/>
+      <c r="D23" s="590"/>
+      <c r="E23" s="591"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -19349,12 +19349,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="589" t="s">
+      <c r="B24" s="579" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="590"/>
-      <c r="D24" s="590"/>
-      <c r="E24" s="591"/>
+      <c r="C24" s="580"/>
+      <c r="D24" s="580"/>
+      <c r="E24" s="581"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -19397,28 +19397,35 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K27" s="564" t="s">
+      <c r="K27" s="554" t="s">
         <v>136</v>
       </c>
-      <c r="L27" s="564"/>
-      <c r="M27" s="564"/>
+      <c r="L27" s="554"/>
+      <c r="M27" s="554"/>
       <c r="N27" s="475"/>
       <c r="O27" s="475"/>
       <c r="P27" s="491"/>
       <c r="Q27" s="491"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N28" s="561" t="s">
+      <c r="N28" s="551" t="s">
         <v>140</v>
       </c>
-      <c r="O28" s="561"/>
-      <c r="P28" s="562" t="s">
+      <c r="O28" s="551"/>
+      <c r="P28" s="552" t="s">
         <v>141</v>
       </c>
-      <c r="Q28" s="563"/>
+      <c r="Q28" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="K27:M27"/>
@@ -19435,13 +19442,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
@@ -19508,50 +19508,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="600">
+      <c r="B2" s="603">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="601"/>
-      <c r="D2" s="602"/>
-      <c r="E2" s="609" t="s">
+      <c r="C2" s="604"/>
+      <c r="D2" s="605"/>
+      <c r="E2" s="612" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="610"/>
-      <c r="G2" s="610"/>
-      <c r="H2" s="611"/>
-      <c r="I2" s="615" t="s">
+      <c r="F2" s="613"/>
+      <c r="G2" s="613"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="618" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="616"/>
-      <c r="K2" s="619">
+      <c r="J2" s="619"/>
+      <c r="K2" s="622">
         <f>Данные!B19</f>
         <v>19</v>
       </c>
-      <c r="L2" s="620"/>
+      <c r="L2" s="623"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="577"/>
-      <c r="Q2" s="577"/>
+      <c r="P2" s="567"/>
+      <c r="Q2" s="567"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="603"/>
-      <c r="C3" s="604"/>
-      <c r="D3" s="605"/>
-      <c r="E3" s="612" t="s">
+      <c r="B3" s="606"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
+      <c r="E3" s="615" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="613"/>
-      <c r="G3" s="613"/>
-      <c r="H3" s="614"/>
-      <c r="I3" s="617"/>
-      <c r="J3" s="618"/>
-      <c r="K3" s="621"/>
-      <c r="L3" s="622"/>
+      <c r="F3" s="616"/>
+      <c r="G3" s="616"/>
+      <c r="H3" s="617"/>
+      <c r="I3" s="620"/>
+      <c r="J3" s="621"/>
+      <c r="K3" s="624"/>
+      <c r="L3" s="625"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -19562,9 +19562,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="606"/>
-      <c r="C4" s="607"/>
-      <c r="D4" s="608"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="611"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -19583,22 +19583,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="592" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="623"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="624"/>
-      <c r="J5" s="625"/>
-      <c r="K5" s="626"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="598"/>
+      <c r="J5" s="599"/>
+      <c r="K5" s="600"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -19609,22 +19609,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="623"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="597"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="595"/>
-      <c r="F6" s="595"/>
-      <c r="G6" s="595"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="624"/>
-      <c r="J6" s="625"/>
-      <c r="K6" s="626"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="598"/>
+      <c r="J6" s="599"/>
+      <c r="K6" s="600"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -19635,27 +19635,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="627"/>
-      <c r="D7" s="512">
+      <c r="C7" s="601"/>
+      <c r="D7" s="514">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="628" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="627"/>
-      <c r="K7" s="500">
+      <c r="J7" s="601"/>
+      <c r="K7" s="502">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -19846,12 +19846,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="598" t="s">
+      <c r="B14" s="627" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="599"/>
-      <c r="D14" s="599"/>
-      <c r="E14" s="599"/>
+      <c r="C14" s="628"/>
+      <c r="D14" s="628"/>
+      <c r="E14" s="628"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -19873,13 +19873,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="551" t="s">
+      <c r="B15" s="589" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="552"/>
-      <c r="D15" s="552"/>
-      <c r="E15" s="552"/>
-      <c r="F15" s="597"/>
+      <c r="C15" s="590"/>
+      <c r="D15" s="590"/>
+      <c r="E15" s="590"/>
+      <c r="F15" s="626"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -19898,12 +19898,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="589" t="s">
+      <c r="B16" s="579" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="590"/>
-      <c r="D16" s="590"/>
-      <c r="E16" s="591"/>
+      <c r="C16" s="580"/>
+      <c r="D16" s="580"/>
+      <c r="E16" s="581"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -19950,28 +19950,39 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="121"/>
-      <c r="L19" s="564" t="s">
+      <c r="L19" s="554" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="564"/>
-      <c r="N19" s="564"/>
+      <c r="M19" s="554"/>
+      <c r="N19" s="554"/>
       <c r="O19" s="475"/>
       <c r="P19" s="475"/>
       <c r="Q19" s="491"/>
       <c r="R19" s="491"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="561" t="s">
+      <c r="O20" s="551" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="561"/>
-      <c r="Q20" s="562" t="s">
+      <c r="P20" s="551"/>
+      <c r="Q20" s="552" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="563"/>
+      <c r="R20" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -19985,17 +19996,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="notBetween">
@@ -20070,47 +20070,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="565"/>
-      <c r="C2" s="566"/>
-      <c r="D2" s="567"/>
-      <c r="E2" s="574" t="s">
+      <c r="B2" s="555"/>
+      <c r="C2" s="556"/>
+      <c r="D2" s="557"/>
+      <c r="E2" s="564" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="575"/>
-      <c r="G2" s="575"/>
-      <c r="H2" s="576"/>
-      <c r="I2" s="581" t="s">
+      <c r="F2" s="565"/>
+      <c r="G2" s="565"/>
+      <c r="H2" s="566"/>
+      <c r="I2" s="571" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="582"/>
-      <c r="K2" s="585">
+      <c r="J2" s="572"/>
+      <c r="K2" s="575">
         <f>Данные!B16</f>
         <v>19</v>
       </c>
-      <c r="L2" s="586"/>
+      <c r="L2" s="576"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="577"/>
-      <c r="Q2" s="577"/>
+      <c r="P2" s="567"/>
+      <c r="Q2" s="567"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="568"/>
-      <c r="C3" s="569"/>
-      <c r="D3" s="570"/>
-      <c r="E3" s="578" t="s">
+      <c r="B3" s="558"/>
+      <c r="C3" s="559"/>
+      <c r="D3" s="560"/>
+      <c r="E3" s="568" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="579"/>
-      <c r="G3" s="579"/>
-      <c r="H3" s="580"/>
-      <c r="I3" s="583"/>
-      <c r="J3" s="584"/>
-      <c r="K3" s="587"/>
-      <c r="L3" s="588"/>
+      <c r="F3" s="569"/>
+      <c r="G3" s="569"/>
+      <c r="H3" s="570"/>
+      <c r="I3" s="573"/>
+      <c r="J3" s="574"/>
+      <c r="K3" s="577"/>
+      <c r="L3" s="578"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -20121,9 +20121,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="571"/>
-      <c r="C4" s="572"/>
-      <c r="D4" s="573"/>
+      <c r="B4" s="561"/>
+      <c r="C4" s="562"/>
+      <c r="D4" s="563"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -20142,22 +20142,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="592" t="s">
+      <c r="B5" s="582" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="593"/>
-      <c r="D5" s="509" t="str">
+      <c r="C5" s="583"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
-      <c r="H5" s="511"/>
-      <c r="I5" s="554"/>
-      <c r="J5" s="555"/>
-      <c r="K5" s="510"/>
-      <c r="L5" s="511"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="584"/>
+      <c r="J5" s="585"/>
+      <c r="K5" s="512"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -20168,22 +20168,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="592" t="s">
+      <c r="B6" s="582" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="594"/>
-      <c r="D6" s="503" t="str">
+      <c r="C6" s="586"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="595"/>
-      <c r="F6" s="595"/>
-      <c r="G6" s="595"/>
-      <c r="H6" s="596"/>
-      <c r="I6" s="554"/>
-      <c r="J6" s="555"/>
-      <c r="K6" s="510"/>
-      <c r="L6" s="511"/>
+      <c r="E6" s="587"/>
+      <c r="F6" s="587"/>
+      <c r="G6" s="587"/>
+      <c r="H6" s="588"/>
+      <c r="I6" s="584"/>
+      <c r="J6" s="585"/>
+      <c r="K6" s="512"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -20194,27 +20194,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="592" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="557"/>
-      <c r="D7" s="512">
+      <c r="C7" s="593"/>
+      <c r="D7" s="514">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="556" t="s">
+      <c r="E7" s="594"/>
+      <c r="F7" s="594"/>
+      <c r="G7" s="594"/>
+      <c r="H7" s="595"/>
+      <c r="I7" s="592" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="560"/>
-      <c r="K7" s="500">
+      <c r="J7" s="596"/>
+      <c r="K7" s="502">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="501"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -20686,12 +20686,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="551" t="s">
+      <c r="B23" s="589" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="552"/>
-      <c r="D23" s="552"/>
-      <c r="E23" s="553"/>
+      <c r="C23" s="590"/>
+      <c r="D23" s="590"/>
+      <c r="E23" s="591"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -20713,12 +20713,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="589" t="s">
+      <c r="B24" s="579" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="590"/>
-      <c r="D24" s="590"/>
-      <c r="E24" s="591"/>
+      <c r="C24" s="580"/>
+      <c r="D24" s="580"/>
+      <c r="E24" s="581"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -20761,28 +20761,42 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K27" s="564" t="s">
+      <c r="K27" s="554" t="s">
         <v>136</v>
       </c>
-      <c r="L27" s="564"/>
-      <c r="M27" s="564"/>
+      <c r="L27" s="554"/>
+      <c r="M27" s="554"/>
       <c r="N27" s="475"/>
       <c r="O27" s="475"/>
       <c r="P27" s="491"/>
       <c r="Q27" s="491"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N28" s="561" t="s">
+      <c r="N28" s="551" t="s">
         <v>140</v>
       </c>
-      <c r="O28" s="561"/>
-      <c r="P28" s="562" t="s">
+      <c r="O28" s="551"/>
+      <c r="P28" s="552" t="s">
         <v>141</v>
       </c>
-      <c r="Q28" s="563"/>
+      <c r="Q28" s="553"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="K27:M27"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
@@ -20792,20 +20806,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Банка/Лампада_1_2_3.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Банка/Лампада_1_2_3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -3676,12 +3676,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3726,6 +3720,17 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3743,10 +3748,53 @@
     <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3754,6 +3802,15 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3763,62 +3820,35 @@
     <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -3919,40 +3949,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -3972,84 +4050,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -4080,34 +4080,34 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -7273,47 +7273,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="504" t="s">
+      <c r="A1" s="502" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="508"/>
-      <c r="C1" s="508"/>
-      <c r="D1" s="508"/>
-      <c r="E1" s="508"/>
+      <c r="B1" s="506"/>
+      <c r="C1" s="506"/>
+      <c r="D1" s="506"/>
+      <c r="E1" s="506"/>
       <c r="G1" s="363" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="505" t="s">
+      <c r="A2" s="503" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="506"/>
-      <c r="C2" s="506"/>
-      <c r="D2" s="506"/>
-      <c r="E2" s="507"/>
+      <c r="B2" s="504"/>
+      <c r="C2" s="504"/>
+      <c r="D2" s="504"/>
+      <c r="E2" s="505"/>
       <c r="G2" s="362" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="505" t="s">
+      <c r="A3" s="503" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="506"/>
-      <c r="C3" s="506"/>
-      <c r="D3" s="506"/>
-      <c r="E3" s="507"/>
+      <c r="B3" s="504"/>
+      <c r="C3" s="504"/>
+      <c r="D3" s="504"/>
+      <c r="E3" s="505"/>
       <c r="G3" s="362"/>
     </row>
     <row r="4" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="505" t="s">
+      <c r="A4" s="503" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="506"/>
-      <c r="C4" s="506"/>
-      <c r="D4" s="506"/>
-      <c r="E4" s="507"/>
+      <c r="B4" s="504"/>
+      <c r="C4" s="504"/>
+      <c r="D4" s="504"/>
+      <c r="E4" s="505"/>
       <c r="G4" s="362"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
@@ -7322,45 +7322,45 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="509" t="s">
+      <c r="A6" s="507" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="510"/>
-      <c r="C6" s="510"/>
-      <c r="D6" s="510"/>
-      <c r="E6" s="510"/>
+      <c r="B6" s="508"/>
+      <c r="C6" s="508"/>
+      <c r="D6" s="508"/>
+      <c r="E6" s="508"/>
     </row>
     <row r="7" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="511" t="s">
+      <c r="A7" s="509" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="512"/>
-      <c r="C7" s="512"/>
-      <c r="D7" s="512"/>
-      <c r="E7" s="513"/>
+      <c r="B7" s="510"/>
+      <c r="C7" s="510"/>
+      <c r="D7" s="510"/>
+      <c r="E7" s="511"/>
     </row>
     <row r="8" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="504" t="s">
+      <c r="A9" s="502" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="508"/>
-      <c r="C9" s="508"/>
-      <c r="D9" s="508"/>
-      <c r="E9" s="508"/>
+      <c r="B9" s="506"/>
+      <c r="C9" s="506"/>
+      <c r="D9" s="506"/>
+      <c r="E9" s="506"/>
     </row>
     <row r="10" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="514"/>
-      <c r="B10" s="515"/>
-      <c r="C10" s="515"/>
-      <c r="D10" s="515"/>
-      <c r="E10" s="516"/>
+      <c r="A10" s="512"/>
+      <c r="B10" s="513"/>
+      <c r="C10" s="513"/>
+      <c r="D10" s="513"/>
+      <c r="E10" s="514"/>
     </row>
     <row r="12" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="504" t="s">
+      <c r="A12" s="502" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="504"/>
+      <c r="B12" s="502"/>
       <c r="C12" s="364"/>
       <c r="D12" s="370" t="s">
         <v>93</v>
@@ -7371,33 +7371,33 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="502"/>
-      <c r="B13" s="503"/>
+      <c r="A13" s="500"/>
+      <c r="B13" s="501"/>
       <c r="D13" s="369">
         <v>43853</v>
       </c>
-      <c r="F13" s="499" t="s">
+      <c r="F13" s="515" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="499"/>
-      <c r="H13" s="499"/>
-      <c r="I13" s="499"/>
-      <c r="J13" s="500" t="s">
+      <c r="G13" s="515"/>
+      <c r="H13" s="515"/>
+      <c r="I13" s="515"/>
+      <c r="J13" s="516" t="s">
         <v>98</v>
       </c>
-      <c r="K13" s="500"/>
+      <c r="K13" s="516"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="499" t="s">
+      <c r="F14" s="515" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="499"/>
-      <c r="H14" s="499"/>
-      <c r="I14" s="499"/>
-      <c r="J14" s="500" t="s">
+      <c r="G14" s="515"/>
+      <c r="H14" s="515"/>
+      <c r="I14" s="515"/>
+      <c r="J14" s="516" t="s">
         <v>99</v>
       </c>
-      <c r="K14" s="500"/>
+      <c r="K14" s="516"/>
     </row>
     <row r="15" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="374" t="s">
@@ -7415,16 +7415,16 @@
       <c r="E15" s="474" t="s">
         <v>134</v>
       </c>
-      <c r="F15" s="499" t="s">
+      <c r="F15" s="515" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="499"/>
-      <c r="H15" s="499"/>
-      <c r="I15" s="499"/>
-      <c r="J15" s="500" t="s">
+      <c r="G15" s="515"/>
+      <c r="H15" s="515"/>
+      <c r="I15" s="515"/>
+      <c r="J15" s="516" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="500"/>
+      <c r="K15" s="516"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="365" t="s">
@@ -7685,11 +7685,11 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="501" t="s">
+      <c r="A33" s="499" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="501"/>
-      <c r="C33" s="501"/>
+      <c r="B33" s="499"/>
+      <c r="C33" s="499"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="363" t="s">
@@ -7757,6 +7757,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A12:B12"/>
@@ -7768,12 +7774,6 @@
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7828,50 +7828,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="603">
+      <c r="B2" s="600">
         <f>'Чист. форма (2)'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="C2" s="601"/>
+      <c r="D2" s="602"/>
+      <c r="E2" s="609" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="610"/>
+      <c r="G2" s="610"/>
+      <c r="H2" s="611"/>
+      <c r="I2" s="615" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="616"/>
+      <c r="K2" s="619">
         <f>Данные!B19</f>
         <v>19</v>
       </c>
-      <c r="L2" s="623"/>
+      <c r="L2" s="620"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="567"/>
-      <c r="Q2" s="567"/>
+      <c r="P2" s="577"/>
+      <c r="Q2" s="577"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="603"/>
+      <c r="C3" s="604"/>
+      <c r="D3" s="605"/>
+      <c r="E3" s="612" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="613"/>
+      <c r="G3" s="613"/>
+      <c r="H3" s="614"/>
+      <c r="I3" s="617"/>
+      <c r="J3" s="618"/>
+      <c r="K3" s="621"/>
+      <c r="L3" s="622"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -7882,9 +7882,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="606"/>
+      <c r="C4" s="607"/>
+      <c r="D4" s="608"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7903,22 +7903,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="582" t="s">
+      <c r="B5" s="592" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="623"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="600"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="624"/>
+      <c r="J5" s="625"/>
+      <c r="K5" s="626"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -7929,22 +7929,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="582" t="s">
+      <c r="B6" s="592" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="597"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="623"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="600"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="595"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="595"/>
+      <c r="H6" s="596"/>
+      <c r="I6" s="624"/>
+      <c r="J6" s="625"/>
+      <c r="K6" s="626"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -7955,27 +7955,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="514">
+      <c r="C7" s="627"/>
+      <c r="D7" s="512">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="594"/>
-      <c r="F7" s="594"/>
-      <c r="G7" s="594"/>
-      <c r="H7" s="595"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="628" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="502">
+      <c r="J7" s="627"/>
+      <c r="K7" s="500">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -8166,12 +8166,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="627" t="s">
+      <c r="B14" s="598" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="628"/>
-      <c r="D14" s="628"/>
-      <c r="E14" s="628"/>
+      <c r="C14" s="599"/>
+      <c r="D14" s="599"/>
+      <c r="E14" s="599"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -8193,13 +8193,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="589" t="s">
+      <c r="B15" s="551" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="590"/>
-      <c r="D15" s="590"/>
-      <c r="E15" s="590"/>
-      <c r="F15" s="626"/>
+      <c r="C15" s="552"/>
+      <c r="D15" s="552"/>
+      <c r="E15" s="552"/>
+      <c r="F15" s="597"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -8218,12 +8218,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="579" t="s">
+      <c r="B16" s="589" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="580"/>
-      <c r="D16" s="580"/>
-      <c r="E16" s="581"/>
+      <c r="C16" s="590"/>
+      <c r="D16" s="590"/>
+      <c r="E16" s="591"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -8270,42 +8270,28 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="121"/>
-      <c r="L19" s="554" t="s">
+      <c r="L19" s="564" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="554"/>
-      <c r="N19" s="554"/>
+      <c r="M19" s="564"/>
+      <c r="N19" s="564"/>
       <c r="O19" s="475"/>
       <c r="P19" s="475"/>
       <c r="Q19" s="491"/>
       <c r="R19" s="491"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="551" t="s">
+      <c r="O20" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="551"/>
-      <c r="Q20" s="552" t="s">
+      <c r="P20" s="561"/>
+      <c r="Q20" s="562" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="553"/>
+      <c r="R20" s="563"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="O20:P20"/>
@@ -8316,6 +8302,20 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="notBetween">
@@ -8390,47 +8390,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="555"/>
-      <c r="C2" s="556"/>
-      <c r="D2" s="557"/>
-      <c r="E2" s="564" t="s">
+      <c r="B2" s="565"/>
+      <c r="C2" s="566"/>
+      <c r="D2" s="567"/>
+      <c r="E2" s="574" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="565"/>
-      <c r="G2" s="565"/>
-      <c r="H2" s="566"/>
-      <c r="I2" s="571" t="s">
+      <c r="F2" s="575"/>
+      <c r="G2" s="575"/>
+      <c r="H2" s="576"/>
+      <c r="I2" s="581" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="572"/>
-      <c r="K2" s="575">
+      <c r="J2" s="582"/>
+      <c r="K2" s="585">
         <f>Данные!B16</f>
         <v>19</v>
       </c>
-      <c r="L2" s="576"/>
+      <c r="L2" s="586"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="567"/>
-      <c r="Q2" s="567"/>
+      <c r="P2" s="577"/>
+      <c r="Q2" s="577"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="558"/>
-      <c r="C3" s="559"/>
-      <c r="D3" s="560"/>
-      <c r="E3" s="568" t="s">
+      <c r="B3" s="568"/>
+      <c r="C3" s="569"/>
+      <c r="D3" s="570"/>
+      <c r="E3" s="578" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="569"/>
-      <c r="G3" s="569"/>
-      <c r="H3" s="570"/>
-      <c r="I3" s="573"/>
-      <c r="J3" s="574"/>
-      <c r="K3" s="577"/>
-      <c r="L3" s="578"/>
+      <c r="F3" s="579"/>
+      <c r="G3" s="579"/>
+      <c r="H3" s="580"/>
+      <c r="I3" s="583"/>
+      <c r="J3" s="584"/>
+      <c r="K3" s="587"/>
+      <c r="L3" s="588"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -8441,9 +8441,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="561"/>
-      <c r="C4" s="562"/>
-      <c r="D4" s="563"/>
+      <c r="B4" s="571"/>
+      <c r="C4" s="572"/>
+      <c r="D4" s="573"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -8462,22 +8462,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="582" t="s">
+      <c r="B5" s="592" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="583"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="593"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="584"/>
-      <c r="J5" s="585"/>
-      <c r="K5" s="512"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="554"/>
+      <c r="J5" s="555"/>
+      <c r="K5" s="510"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -8488,22 +8488,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="582" t="s">
+      <c r="B6" s="592" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="586"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="594"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="584"/>
-      <c r="J6" s="585"/>
-      <c r="K6" s="512"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="595"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="595"/>
+      <c r="H6" s="596"/>
+      <c r="I6" s="554"/>
+      <c r="J6" s="555"/>
+      <c r="K6" s="510"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -8514,27 +8514,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="593"/>
-      <c r="D7" s="514">
+      <c r="C7" s="557"/>
+      <c r="D7" s="512">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="594"/>
-      <c r="F7" s="594"/>
-      <c r="G7" s="594"/>
-      <c r="H7" s="595"/>
-      <c r="I7" s="592" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="596"/>
-      <c r="K7" s="502">
+      <c r="J7" s="560"/>
+      <c r="K7" s="500">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -9006,12 +9006,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="589" t="s">
+      <c r="B23" s="551" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="590"/>
-      <c r="D23" s="590"/>
-      <c r="E23" s="591"/>
+      <c r="C23" s="552"/>
+      <c r="D23" s="552"/>
+      <c r="E23" s="553"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -9033,12 +9033,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="579" t="s">
+      <c r="B24" s="589" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="580"/>
-      <c r="D24" s="580"/>
-      <c r="E24" s="581"/>
+      <c r="C24" s="590"/>
+      <c r="D24" s="590"/>
+      <c r="E24" s="591"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -9081,42 +9081,28 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K27" s="554" t="s">
+      <c r="K27" s="564" t="s">
         <v>136</v>
       </c>
-      <c r="L27" s="554"/>
-      <c r="M27" s="554"/>
+      <c r="L27" s="564"/>
+      <c r="M27" s="564"/>
       <c r="N27" s="475"/>
       <c r="O27" s="475"/>
       <c r="P27" s="491"/>
       <c r="Q27" s="491"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N28" s="551" t="s">
+      <c r="N28" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="O28" s="551"/>
-      <c r="P28" s="552" t="s">
+      <c r="O28" s="561"/>
+      <c r="P28" s="562" t="s">
         <v>141</v>
       </c>
-      <c r="Q28" s="553"/>
+      <c r="Q28" s="563"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="K27:M27"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
@@ -9126,6 +9112,20 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
@@ -9192,50 +9192,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="603">
+      <c r="B2" s="600">
         <f>'Чист. форма (3)'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="C2" s="601"/>
+      <c r="D2" s="602"/>
+      <c r="E2" s="609" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="610"/>
+      <c r="G2" s="610"/>
+      <c r="H2" s="611"/>
+      <c r="I2" s="615" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="616"/>
+      <c r="K2" s="619">
         <f>Данные!B19</f>
         <v>19</v>
       </c>
-      <c r="L2" s="623"/>
+      <c r="L2" s="620"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="567"/>
-      <c r="Q2" s="567"/>
+      <c r="P2" s="577"/>
+      <c r="Q2" s="577"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="603"/>
+      <c r="C3" s="604"/>
+      <c r="D3" s="605"/>
+      <c r="E3" s="612" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="613"/>
+      <c r="G3" s="613"/>
+      <c r="H3" s="614"/>
+      <c r="I3" s="617"/>
+      <c r="J3" s="618"/>
+      <c r="K3" s="621"/>
+      <c r="L3" s="622"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -9246,9 +9246,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="606"/>
+      <c r="C4" s="607"/>
+      <c r="D4" s="608"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9267,22 +9267,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="582" t="s">
+      <c r="B5" s="592" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="623"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="600"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="624"/>
+      <c r="J5" s="625"/>
+      <c r="K5" s="626"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -9293,22 +9293,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="582" t="s">
+      <c r="B6" s="592" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="597"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="623"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="600"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="595"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="595"/>
+      <c r="H6" s="596"/>
+      <c r="I6" s="624"/>
+      <c r="J6" s="625"/>
+      <c r="K6" s="626"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -9319,27 +9319,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="514">
+      <c r="C7" s="627"/>
+      <c r="D7" s="512">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="594"/>
-      <c r="F7" s="594"/>
-      <c r="G7" s="594"/>
-      <c r="H7" s="595"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="628" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="502">
+      <c r="J7" s="627"/>
+      <c r="K7" s="500">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -9530,12 +9530,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="627" t="s">
+      <c r="B14" s="598" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="628"/>
-      <c r="D14" s="628"/>
-      <c r="E14" s="628"/>
+      <c r="C14" s="599"/>
+      <c r="D14" s="599"/>
+      <c r="E14" s="599"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -9557,13 +9557,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="589" t="s">
+      <c r="B15" s="551" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="590"/>
-      <c r="D15" s="590"/>
-      <c r="E15" s="590"/>
-      <c r="F15" s="626"/>
+      <c r="C15" s="552"/>
+      <c r="D15" s="552"/>
+      <c r="E15" s="552"/>
+      <c r="F15" s="597"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -9582,12 +9582,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="579" t="s">
+      <c r="B16" s="589" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="580"/>
-      <c r="D16" s="580"/>
-      <c r="E16" s="581"/>
+      <c r="C16" s="590"/>
+      <c r="D16" s="590"/>
+      <c r="E16" s="591"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -9634,42 +9634,28 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="121"/>
-      <c r="L19" s="554" t="s">
+      <c r="L19" s="564" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="554"/>
-      <c r="N19" s="554"/>
+      <c r="M19" s="564"/>
+      <c r="N19" s="564"/>
       <c r="O19" s="475"/>
       <c r="P19" s="475"/>
       <c r="Q19" s="491"/>
       <c r="R19" s="491"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="551" t="s">
+      <c r="O20" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="551"/>
-      <c r="Q20" s="552" t="s">
+      <c r="P20" s="561"/>
+      <c r="Q20" s="562" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="553"/>
+      <c r="R20" s="563"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="O20:P20"/>
@@ -9680,6 +9666,20 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="notBetween">
@@ -9753,47 +9753,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="555"/>
-      <c r="C2" s="556"/>
-      <c r="D2" s="557"/>
-      <c r="E2" s="564" t="s">
+      <c r="B2" s="565"/>
+      <c r="C2" s="566"/>
+      <c r="D2" s="567"/>
+      <c r="E2" s="574" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="565"/>
-      <c r="G2" s="565"/>
-      <c r="H2" s="566"/>
-      <c r="I2" s="571" t="s">
+      <c r="F2" s="575"/>
+      <c r="G2" s="575"/>
+      <c r="H2" s="576"/>
+      <c r="I2" s="581" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="572"/>
-      <c r="K2" s="575">
+      <c r="J2" s="582"/>
+      <c r="K2" s="585">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="L2" s="576"/>
+      <c r="L2" s="586"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="567"/>
-      <c r="Q2" s="567"/>
+      <c r="P2" s="577"/>
+      <c r="Q2" s="577"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="558"/>
-      <c r="C3" s="559"/>
-      <c r="D3" s="560"/>
-      <c r="E3" s="568" t="s">
+      <c r="B3" s="568"/>
+      <c r="C3" s="569"/>
+      <c r="D3" s="570"/>
+      <c r="E3" s="578" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="569"/>
-      <c r="G3" s="569"/>
-      <c r="H3" s="570"/>
-      <c r="I3" s="573"/>
-      <c r="J3" s="574"/>
-      <c r="K3" s="577"/>
-      <c r="L3" s="578"/>
+      <c r="F3" s="579"/>
+      <c r="G3" s="579"/>
+      <c r="H3" s="580"/>
+      <c r="I3" s="583"/>
+      <c r="J3" s="584"/>
+      <c r="K3" s="587"/>
+      <c r="L3" s="588"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -9804,9 +9804,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="561"/>
-      <c r="C4" s="562"/>
-      <c r="D4" s="563"/>
+      <c r="B4" s="571"/>
+      <c r="C4" s="572"/>
+      <c r="D4" s="573"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -9825,22 +9825,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="582" t="s">
+      <c r="B5" s="592" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="583"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="593"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="584"/>
-      <c r="J5" s="585"/>
-      <c r="K5" s="512"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="554"/>
+      <c r="J5" s="555"/>
+      <c r="K5" s="510"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -9851,22 +9851,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="582" t="s">
+      <c r="B6" s="592" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="586"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="594"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="584"/>
-      <c r="J6" s="585"/>
-      <c r="K6" s="512"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="595"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="595"/>
+      <c r="H6" s="596"/>
+      <c r="I6" s="554"/>
+      <c r="J6" s="555"/>
+      <c r="K6" s="510"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -9877,27 +9877,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="593"/>
-      <c r="D7" s="514">
+      <c r="C7" s="557"/>
+      <c r="D7" s="512">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="594"/>
-      <c r="F7" s="594"/>
-      <c r="G7" s="594"/>
-      <c r="H7" s="595"/>
-      <c r="I7" s="592" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="596"/>
-      <c r="K7" s="502">
+      <c r="J7" s="560"/>
+      <c r="K7" s="500">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -10378,17 +10378,24 @@
       <c r="R23" s="491"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="O24" s="551" t="s">
+      <c r="O24" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="551"/>
-      <c r="Q24" s="552" t="s">
+      <c r="P24" s="561"/>
+      <c r="Q24" s="562" t="s">
         <v>141</v>
       </c>
-      <c r="R24" s="553"/>
+      <c r="R24" s="563"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -10403,13 +10410,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
@@ -10477,24 +10477,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="555"/>
-      <c r="C2" s="556"/>
-      <c r="D2" s="557"/>
-      <c r="E2" s="564" t="s">
+      <c r="B2" s="565"/>
+      <c r="C2" s="566"/>
+      <c r="D2" s="567"/>
+      <c r="E2" s="574" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="565"/>
-      <c r="G2" s="565"/>
-      <c r="H2" s="566"/>
-      <c r="I2" s="571" t="s">
+      <c r="F2" s="575"/>
+      <c r="G2" s="575"/>
+      <c r="H2" s="576"/>
+      <c r="I2" s="581" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="572"/>
-      <c r="K2" s="575">
+      <c r="J2" s="582"/>
+      <c r="K2" s="585">
         <f>Данные!B21</f>
         <v>60</v>
       </c>
-      <c r="L2" s="576"/>
+      <c r="L2" s="586"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -10505,19 +10505,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="558"/>
-      <c r="C3" s="559"/>
-      <c r="D3" s="560"/>
-      <c r="E3" s="568" t="s">
+      <c r="B3" s="568"/>
+      <c r="C3" s="569"/>
+      <c r="D3" s="570"/>
+      <c r="E3" s="578" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="569"/>
-      <c r="G3" s="569"/>
-      <c r="H3" s="570"/>
-      <c r="I3" s="573"/>
-      <c r="J3" s="574"/>
-      <c r="K3" s="577"/>
-      <c r="L3" s="578"/>
+      <c r="F3" s="579"/>
+      <c r="G3" s="579"/>
+      <c r="H3" s="580"/>
+      <c r="I3" s="583"/>
+      <c r="J3" s="584"/>
+      <c r="K3" s="587"/>
+      <c r="L3" s="588"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -10528,9 +10528,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="561"/>
-      <c r="C4" s="562"/>
-      <c r="D4" s="563"/>
+      <c r="B4" s="571"/>
+      <c r="C4" s="572"/>
+      <c r="D4" s="573"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10549,22 +10549,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="582" t="s">
+      <c r="B5" s="592" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="583"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="593"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="584"/>
-      <c r="J5" s="585"/>
-      <c r="K5" s="512"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="554"/>
+      <c r="J5" s="555"/>
+      <c r="K5" s="510"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -10575,22 +10575,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="582" t="s">
+      <c r="B6" s="592" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="586"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="594"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="584"/>
-      <c r="J6" s="585"/>
-      <c r="K6" s="512"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="595"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="595"/>
+      <c r="H6" s="596"/>
+      <c r="I6" s="554"/>
+      <c r="J6" s="555"/>
+      <c r="K6" s="510"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -10601,27 +10601,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="593"/>
-      <c r="D7" s="514">
+      <c r="C7" s="557"/>
+      <c r="D7" s="512">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="594"/>
-      <c r="F7" s="594"/>
-      <c r="G7" s="594"/>
-      <c r="H7" s="595"/>
-      <c r="I7" s="592" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="596"/>
-      <c r="K7" s="502">
+      <c r="J7" s="560"/>
+      <c r="K7" s="500">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -10912,17 +10912,23 @@
       <c r="R18" s="491"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="O19" s="551" t="s">
+      <c r="O19" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="551"/>
-      <c r="Q19" s="552" t="s">
+      <c r="P19" s="561"/>
+      <c r="Q19" s="562" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="553"/>
+      <c r="R19" s="563"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
@@ -10938,12 +10944,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -11015,24 +11015,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="600"/>
+      <c r="C2" s="601"/>
+      <c r="D2" s="602"/>
+      <c r="E2" s="609" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="610"/>
+      <c r="G2" s="610"/>
+      <c r="H2" s="611"/>
+      <c r="I2" s="615" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="616"/>
+      <c r="K2" s="619">
         <f>Данные!B22</f>
         <v>28</v>
       </c>
-      <c r="L2" s="623"/>
+      <c r="L2" s="620"/>
       <c r="M2" s="631"/>
       <c r="N2" s="632"/>
       <c r="O2" s="632"/>
@@ -11043,19 +11043,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="603"/>
+      <c r="C3" s="604"/>
+      <c r="D3" s="605"/>
+      <c r="E3" s="612" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="613"/>
+      <c r="G3" s="613"/>
+      <c r="H3" s="614"/>
+      <c r="I3" s="617"/>
+      <c r="J3" s="618"/>
+      <c r="K3" s="621"/>
+      <c r="L3" s="622"/>
       <c r="M3" s="634"/>
       <c r="N3" s="635"/>
       <c r="O3" s="635"/>
@@ -11066,9 +11066,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="606"/>
+      <c r="C4" s="607"/>
+      <c r="D4" s="608"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -11087,22 +11087,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="582" t="s">
+      <c r="B5" s="592" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="623"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="600"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="624"/>
+      <c r="J5" s="625"/>
+      <c r="K5" s="626"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="634"/>
       <c r="N5" s="635"/>
       <c r="O5" s="635"/>
@@ -11113,22 +11113,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="582" t="s">
+      <c r="B6" s="592" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="597"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="623"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="600"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="595"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="595"/>
+      <c r="H6" s="596"/>
+      <c r="I6" s="624"/>
+      <c r="J6" s="625"/>
+      <c r="K6" s="626"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="634"/>
       <c r="N6" s="635"/>
       <c r="O6" s="635"/>
@@ -11139,27 +11139,27 @@
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="514">
+      <c r="C7" s="627"/>
+      <c r="D7" s="512">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="594"/>
-      <c r="F7" s="594"/>
-      <c r="G7" s="594"/>
-      <c r="H7" s="595"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="628" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="502">
+      <c r="J7" s="627"/>
+      <c r="K7" s="500">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="634"/>
       <c r="N7" s="635"/>
       <c r="O7" s="635"/>
@@ -11542,12 +11542,12 @@
     </row>
     <row r="20" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
-      <c r="B20" s="579" t="s">
+      <c r="B20" s="589" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="580"/>
-      <c r="D20" s="580"/>
-      <c r="E20" s="581"/>
+      <c r="C20" s="590"/>
+      <c r="D20" s="590"/>
+      <c r="E20" s="591"/>
       <c r="F20" s="114" t="s">
         <v>16</v>
       </c>
@@ -11603,23 +11603,17 @@
       <c r="R23" s="491"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O24" s="551" t="s">
+      <c r="O24" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="P24" s="551"/>
-      <c r="Q24" s="552" t="s">
+      <c r="P24" s="561"/>
+      <c r="Q24" s="562" t="s">
         <v>141</v>
       </c>
-      <c r="R24" s="553"/>
+      <c r="R24" s="563"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B20:E20"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="B2:D4"/>
@@ -11636,6 +11630,12 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
@@ -11700,24 +11700,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="600"/>
+      <c r="C2" s="601"/>
+      <c r="D2" s="602"/>
+      <c r="E2" s="609" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="610"/>
+      <c r="G2" s="610"/>
+      <c r="H2" s="611"/>
+      <c r="I2" s="615" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="616"/>
+      <c r="K2" s="619">
         <f>Данные!B23</f>
         <v>28</v>
       </c>
-      <c r="L2" s="623"/>
+      <c r="L2" s="620"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -11728,19 +11728,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="603"/>
+      <c r="C3" s="604"/>
+      <c r="D3" s="605"/>
+      <c r="E3" s="612" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="613"/>
+      <c r="G3" s="613"/>
+      <c r="H3" s="614"/>
+      <c r="I3" s="617"/>
+      <c r="J3" s="618"/>
+      <c r="K3" s="621"/>
+      <c r="L3" s="622"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11751,9 +11751,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="606"/>
+      <c r="C4" s="607"/>
+      <c r="D4" s="608"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -11772,22 +11772,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="582" t="s">
+      <c r="B5" s="592" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="623"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="600"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="624"/>
+      <c r="J5" s="625"/>
+      <c r="K5" s="626"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11798,22 +11798,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="582" t="s">
+      <c r="B6" s="592" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="597"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="623"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="600"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="595"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="595"/>
+      <c r="H6" s="596"/>
+      <c r="I6" s="624"/>
+      <c r="J6" s="625"/>
+      <c r="K6" s="626"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11824,27 +11824,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="514">
+      <c r="C7" s="627"/>
+      <c r="D7" s="512">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="594"/>
-      <c r="F7" s="594"/>
-      <c r="G7" s="594"/>
-      <c r="H7" s="595"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="628" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="502">
+      <c r="J7" s="627"/>
+      <c r="K7" s="500">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12101,12 +12101,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="579" t="s">
+      <c r="B16" s="589" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="580"/>
-      <c r="D16" s="580"/>
-      <c r="E16" s="581"/>
+      <c r="C16" s="590"/>
+      <c r="D16" s="590"/>
+      <c r="E16" s="591"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -12162,27 +12162,17 @@
       <c r="R19" s="491"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="551" t="s">
+      <c r="O20" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="551"/>
-      <c r="Q20" s="552" t="s">
+      <c r="P20" s="561"/>
+      <c r="Q20" s="562" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="553"/>
+      <c r="R20" s="563"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -12195,6 +12185,16 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -12262,24 +12262,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="163"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="600"/>
+      <c r="C2" s="601"/>
+      <c r="D2" s="602"/>
+      <c r="E2" s="609" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="610"/>
+      <c r="G2" s="610"/>
+      <c r="H2" s="611"/>
+      <c r="I2" s="615" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="616"/>
+      <c r="K2" s="619">
         <f>Данные!B24</f>
         <v>78</v>
       </c>
-      <c r="L2" s="623"/>
+      <c r="L2" s="620"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
@@ -12290,19 +12290,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="163"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="603"/>
+      <c r="C3" s="604"/>
+      <c r="D3" s="605"/>
+      <c r="E3" s="612" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="613"/>
+      <c r="G3" s="613"/>
+      <c r="H3" s="614"/>
+      <c r="I3" s="617"/>
+      <c r="J3" s="618"/>
+      <c r="K3" s="621"/>
+      <c r="L3" s="622"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -12313,9 +12313,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="163"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="606"/>
+      <c r="C4" s="607"/>
+      <c r="D4" s="608"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12334,22 +12334,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="163"/>
-      <c r="B5" s="582" t="s">
+      <c r="B5" s="592" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="623"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="600"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="624"/>
+      <c r="J5" s="625"/>
+      <c r="K5" s="626"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -12360,22 +12360,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="163"/>
-      <c r="B6" s="582" t="s">
+      <c r="B6" s="592" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="597"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="623"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="600"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="595"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="595"/>
+      <c r="H6" s="596"/>
+      <c r="I6" s="624"/>
+      <c r="J6" s="625"/>
+      <c r="K6" s="626"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -12386,27 +12386,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="163"/>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="514">
+      <c r="C7" s="627"/>
+      <c r="D7" s="512">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="594"/>
-      <c r="F7" s="594"/>
-      <c r="G7" s="594"/>
-      <c r="H7" s="595"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="628" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="502">
+      <c r="J7" s="627"/>
+      <c r="K7" s="500">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -12796,22 +12796,17 @@
       <c r="R21" s="491"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O22" s="551" t="s">
+      <c r="O22" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="551"/>
-      <c r="Q22" s="552" t="s">
+      <c r="P22" s="561"/>
+      <c r="Q22" s="562" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="553"/>
+      <c r="R22" s="563"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="B2:D4"/>
@@ -12828,6 +12823,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -12893,47 +12893,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="202"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="600"/>
+      <c r="C2" s="601"/>
+      <c r="D2" s="602"/>
+      <c r="E2" s="609" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="610"/>
+      <c r="G2" s="610"/>
+      <c r="H2" s="611"/>
+      <c r="I2" s="615" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="616"/>
+      <c r="K2" s="619">
         <f>Данные!B29</f>
         <v>83</v>
       </c>
-      <c r="L2" s="623"/>
+      <c r="L2" s="620"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="639"/>
-      <c r="Q2" s="639"/>
+      <c r="P2" s="642"/>
+      <c r="Q2" s="642"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="202"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="603"/>
+      <c r="C3" s="604"/>
+      <c r="D3" s="605"/>
+      <c r="E3" s="612" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="613"/>
+      <c r="G3" s="613"/>
+      <c r="H3" s="614"/>
+      <c r="I3" s="617"/>
+      <c r="J3" s="618"/>
+      <c r="K3" s="621"/>
+      <c r="L3" s="622"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -12944,9 +12944,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="202"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="606"/>
+      <c r="C4" s="607"/>
+      <c r="D4" s="608"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12965,22 +12965,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="202"/>
-      <c r="B5" s="582" t="s">
+      <c r="B5" s="592" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="623"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="600"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="624"/>
+      <c r="J5" s="625"/>
+      <c r="K5" s="626"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -12991,22 +12991,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="202"/>
-      <c r="B6" s="582" t="s">
+      <c r="B6" s="592" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="597"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="623"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="600"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="595"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="595"/>
+      <c r="H6" s="596"/>
+      <c r="I6" s="624"/>
+      <c r="J6" s="625"/>
+      <c r="K6" s="626"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -13017,27 +13017,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="202"/>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="514">
+      <c r="C7" s="627"/>
+      <c r="D7" s="512">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="594"/>
-      <c r="F7" s="594"/>
-      <c r="G7" s="594"/>
-      <c r="H7" s="595"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="628" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="502">
+      <c r="J7" s="627"/>
+      <c r="K7" s="500">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -13350,12 +13350,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="212"/>
-      <c r="B18" s="640" t="s">
+      <c r="B18" s="639" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="641"/>
-      <c r="D18" s="641"/>
-      <c r="E18" s="642"/>
+      <c r="C18" s="640"/>
+      <c r="D18" s="640"/>
+      <c r="E18" s="641"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -13409,26 +13409,17 @@
       <c r="R21" s="491"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O22" s="551" t="s">
+      <c r="O22" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="551"/>
-      <c r="Q22" s="552" t="s">
+      <c r="P22" s="561"/>
+      <c r="Q22" s="562" t="s">
         <v>141</v>
       </c>
-      <c r="R22" s="553"/>
+      <c r="R22" s="563"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="P2:Q2"/>
@@ -13442,6 +13433,15 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="L21:N21"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -13516,24 +13516,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="130"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="600"/>
+      <c r="C2" s="601"/>
+      <c r="D2" s="602"/>
+      <c r="E2" s="609" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="610"/>
+      <c r="G2" s="610"/>
+      <c r="H2" s="611"/>
+      <c r="I2" s="615" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="616"/>
+      <c r="K2" s="619">
         <f>Данные!B30</f>
         <v>18</v>
       </c>
-      <c r="L2" s="623"/>
+      <c r="L2" s="620"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
@@ -13544,19 +13544,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="130"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="603"/>
+      <c r="C3" s="604"/>
+      <c r="D3" s="605"/>
+      <c r="E3" s="612" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="613"/>
+      <c r="G3" s="613"/>
+      <c r="H3" s="614"/>
+      <c r="I3" s="617"/>
+      <c r="J3" s="618"/>
+      <c r="K3" s="621"/>
+      <c r="L3" s="622"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -13567,9 +13567,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="130"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="606"/>
+      <c r="C4" s="607"/>
+      <c r="D4" s="608"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -13588,22 +13588,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="130"/>
-      <c r="B5" s="582" t="s">
+      <c r="B5" s="592" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="623"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="600"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="624"/>
+      <c r="J5" s="625"/>
+      <c r="K5" s="626"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -13614,22 +13614,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="130"/>
-      <c r="B6" s="582" t="s">
+      <c r="B6" s="592" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="597"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="623"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="600"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="595"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="595"/>
+      <c r="H6" s="596"/>
+      <c r="I6" s="624"/>
+      <c r="J6" s="625"/>
+      <c r="K6" s="626"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -13640,27 +13640,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="130"/>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="514">
+      <c r="C7" s="627"/>
+      <c r="D7" s="512">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="594"/>
-      <c r="F7" s="594"/>
-      <c r="G7" s="594"/>
-      <c r="H7" s="595"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="628" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="502">
+      <c r="J7" s="627"/>
+      <c r="K7" s="500">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -13982,22 +13982,17 @@
       <c r="R19" s="491"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="551" t="s">
+      <c r="O20" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="551"/>
-      <c r="Q20" s="552" t="s">
+      <c r="P20" s="561"/>
+      <c r="Q20" s="562" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="553"/>
+      <c r="R20" s="563"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B2:D4"/>
@@ -14014,6 +14009,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
@@ -14083,17 +14083,17 @@
       <c r="L2" s="381"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="519" t="s">
+      <c r="A3" s="522" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="519"/>
-      <c r="C3" s="519"/>
-      <c r="D3" s="519"/>
-      <c r="E3" s="519"/>
-      <c r="F3" s="519"/>
-      <c r="G3" s="519"/>
-      <c r="H3" s="519"/>
-      <c r="I3" s="519"/>
+      <c r="B3" s="522"/>
+      <c r="C3" s="522"/>
+      <c r="D3" s="522"/>
+      <c r="E3" s="522"/>
+      <c r="F3" s="522"/>
+      <c r="G3" s="522"/>
+      <c r="H3" s="522"/>
+      <c r="I3" s="522"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
@@ -14459,12 +14459,12 @@
       <c r="J24" s="383"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="520" t="s">
+      <c r="A25" s="523" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="520"/>
-      <c r="C25" s="520"/>
-      <c r="D25" s="520"/>
+      <c r="B25" s="523"/>
+      <c r="C25" s="523"/>
+      <c r="D25" s="523"/>
       <c r="E25" s="383"/>
       <c r="F25" s="383"/>
       <c r="G25" s="383"/>
@@ -14473,10 +14473,10 @@
       <c r="J25" s="383"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="521" t="s">
+      <c r="A26" s="524" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="521"/>
+      <c r="B26" s="524"/>
       <c r="C26" s="493" t="s">
         <v>130</v>
       </c>
@@ -14491,11 +14491,11 @@
       <c r="J26" s="383"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="522">
+      <c r="A27" s="525">
         <f>A10-F21</f>
         <v>12268085</v>
       </c>
-      <c r="B27" s="523"/>
+      <c r="B27" s="526"/>
       <c r="C27" s="463">
         <f>1-G21</f>
         <v>0.9224124060150376</v>
@@ -14557,8 +14557,8 @@
       <c r="F31" s="467"/>
       <c r="G31" s="467"/>
       <c r="H31" s="467"/>
-      <c r="I31" s="524"/>
-      <c r="J31" s="525"/>
+      <c r="I31" s="517"/>
+      <c r="J31" s="518"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="468"/>
@@ -14652,9 +14652,9 @@
     </row>
     <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="383"/>
-      <c r="B41" s="517"/>
-      <c r="C41" s="517"/>
-      <c r="D41" s="518"/>
+      <c r="B41" s="520"/>
+      <c r="C41" s="520"/>
+      <c r="D41" s="521"/>
       <c r="E41" s="492"/>
       <c r="F41" s="383"/>
       <c r="G41" s="383"/>
@@ -14671,8 +14671,8 @@
       <c r="F42" s="467"/>
       <c r="G42" s="467"/>
       <c r="H42" s="467"/>
-      <c r="I42" s="524"/>
-      <c r="J42" s="525"/>
+      <c r="I42" s="517"/>
+      <c r="J42" s="518"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="468"/>
@@ -14683,8 +14683,8 @@
       <c r="F43" s="413"/>
       <c r="G43" s="413"/>
       <c r="H43" s="469"/>
-      <c r="I43" s="526"/>
-      <c r="J43" s="526"/>
+      <c r="I43" s="519"/>
+      <c r="J43" s="519"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="468"/>
@@ -14695,8 +14695,8 @@
       <c r="F44" s="403"/>
       <c r="G44" s="403"/>
       <c r="H44" s="403"/>
-      <c r="I44" s="526"/>
-      <c r="J44" s="526"/>
+      <c r="I44" s="519"/>
+      <c r="J44" s="519"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="383"/>
@@ -14709,26 +14709,26 @@
       <c r="H45" s="383"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="524"/>
-      <c r="C50" s="525"/>
+      <c r="B50" s="517"/>
+      <c r="C50" s="518"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="524"/>
-      <c r="C57" s="525"/>
+      <c r="B57" s="517"/>
+      <c r="C57" s="518"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B57:C57"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B57:C57"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14786,47 +14786,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="259"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="B2" s="600"/>
+      <c r="C2" s="601"/>
+      <c r="D2" s="602"/>
+      <c r="E2" s="609" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="610"/>
+      <c r="G2" s="610"/>
+      <c r="H2" s="611"/>
+      <c r="I2" s="615" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="645">
+      <c r="J2" s="616"/>
+      <c r="K2" s="644">
         <f>Данные!B27</f>
         <v>0</v>
       </c>
-      <c r="L2" s="646"/>
+      <c r="L2" s="645"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="644"/>
-      <c r="Q2" s="644"/>
+      <c r="P2" s="648"/>
+      <c r="Q2" s="648"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="259"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="603"/>
+      <c r="C3" s="604"/>
+      <c r="D3" s="605"/>
+      <c r="E3" s="612" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="647"/>
-      <c r="L3" s="648"/>
+      <c r="F3" s="613"/>
+      <c r="G3" s="613"/>
+      <c r="H3" s="614"/>
+      <c r="I3" s="617"/>
+      <c r="J3" s="618"/>
+      <c r="K3" s="646"/>
+      <c r="L3" s="647"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -14837,9 +14837,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="259"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="606"/>
+      <c r="C4" s="607"/>
+      <c r="D4" s="608"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14858,22 +14858,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="259"/>
-      <c r="B5" s="582" t="s">
+      <c r="B5" s="592" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="623"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="600"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="624"/>
+      <c r="J5" s="625"/>
+      <c r="K5" s="626"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -14884,22 +14884,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="259"/>
-      <c r="B6" s="582" t="s">
+      <c r="B6" s="592" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="597"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="623"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="600"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="595"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="595"/>
+      <c r="H6" s="596"/>
+      <c r="I6" s="624"/>
+      <c r="J6" s="625"/>
+      <c r="K6" s="626"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -14910,27 +14910,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="259"/>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="514">
+      <c r="C7" s="627"/>
+      <c r="D7" s="512">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="594"/>
-      <c r="F7" s="594"/>
-      <c r="G7" s="594"/>
-      <c r="H7" s="595"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="628" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="502">
+      <c r="J7" s="627"/>
+      <c r="K7" s="500">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -15205,22 +15205,17 @@
       <c r="R18" s="491"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.25">
-      <c r="O19" s="551" t="s">
+      <c r="O19" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="551"/>
-      <c r="Q19" s="552" t="s">
+      <c r="P19" s="561"/>
+      <c r="Q19" s="562" t="s">
         <v>141</v>
       </c>
-      <c r="R19" s="553"/>
+      <c r="R19" s="563"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
@@ -15237,6 +15232,11 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -15321,17 +15321,17 @@
       <c r="L2" s="381"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="519" t="s">
+      <c r="A3" s="522" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="519"/>
-      <c r="C3" s="519"/>
-      <c r="D3" s="519"/>
-      <c r="E3" s="519"/>
-      <c r="F3" s="519"/>
-      <c r="G3" s="519"/>
-      <c r="H3" s="519"/>
-      <c r="I3" s="519"/>
+      <c r="B3" s="522"/>
+      <c r="C3" s="522"/>
+      <c r="D3" s="522"/>
+      <c r="E3" s="522"/>
+      <c r="F3" s="522"/>
+      <c r="G3" s="522"/>
+      <c r="H3" s="522"/>
+      <c r="I3" s="522"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
@@ -15697,12 +15697,12 @@
       <c r="J24" s="383"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="520" t="s">
+      <c r="A25" s="523" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="520"/>
-      <c r="C25" s="520"/>
-      <c r="D25" s="520"/>
+      <c r="B25" s="523"/>
+      <c r="C25" s="523"/>
+      <c r="D25" s="523"/>
       <c r="E25" s="383"/>
       <c r="F25" s="383"/>
       <c r="G25" s="383"/>
@@ -15711,10 +15711,10 @@
       <c r="J25" s="383"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="521" t="s">
+      <c r="A26" s="524" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="521"/>
+      <c r="B26" s="524"/>
       <c r="C26" s="493" t="s">
         <v>130</v>
       </c>
@@ -15729,11 +15729,11 @@
       <c r="J26" s="383"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="522">
+      <c r="A27" s="525">
         <f>A10-F21</f>
         <v>11700556</v>
       </c>
-      <c r="B27" s="523"/>
+      <c r="B27" s="526"/>
       <c r="C27" s="463">
         <f>1-G21</f>
         <v>0.92861555555555553</v>
@@ -15795,8 +15795,8 @@
       <c r="F31" s="467"/>
       <c r="G31" s="467"/>
       <c r="H31" s="467"/>
-      <c r="I31" s="524"/>
-      <c r="J31" s="525"/>
+      <c r="I31" s="517"/>
+      <c r="J31" s="518"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="468"/>
@@ -15890,9 +15890,9 @@
     </row>
     <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="383"/>
-      <c r="B41" s="517"/>
-      <c r="C41" s="517"/>
-      <c r="D41" s="518"/>
+      <c r="B41" s="520"/>
+      <c r="C41" s="520"/>
+      <c r="D41" s="521"/>
       <c r="E41" s="492"/>
       <c r="F41" s="383"/>
       <c r="G41" s="383"/>
@@ -15909,8 +15909,8 @@
       <c r="F42" s="467"/>
       <c r="G42" s="467"/>
       <c r="H42" s="467"/>
-      <c r="I42" s="524"/>
-      <c r="J42" s="525"/>
+      <c r="I42" s="517"/>
+      <c r="J42" s="518"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="468"/>
@@ -15921,8 +15921,8 @@
       <c r="F43" s="413"/>
       <c r="G43" s="413"/>
       <c r="H43" s="469"/>
-      <c r="I43" s="526"/>
-      <c r="J43" s="526"/>
+      <c r="I43" s="519"/>
+      <c r="J43" s="519"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="468"/>
@@ -15933,8 +15933,8 @@
       <c r="F44" s="403"/>
       <c r="G44" s="403"/>
       <c r="H44" s="403"/>
-      <c r="I44" s="526"/>
-      <c r="J44" s="526"/>
+      <c r="I44" s="519"/>
+      <c r="J44" s="519"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="383"/>
@@ -15947,26 +15947,26 @@
       <c r="H45" s="383"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="524"/>
-      <c r="C50" s="525"/>
+      <c r="B50" s="517"/>
+      <c r="C50" s="518"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="524"/>
-      <c r="C57" s="525"/>
+      <c r="B57" s="517"/>
+      <c r="C57" s="518"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B57:C57"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B57:C57"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -15979,9 +15979,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -16037,17 +16040,17 @@
       <c r="L2" s="381"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="519" t="s">
+      <c r="A3" s="522" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="519"/>
-      <c r="C3" s="519"/>
-      <c r="D3" s="519"/>
-      <c r="E3" s="519"/>
-      <c r="F3" s="519"/>
-      <c r="G3" s="519"/>
-      <c r="H3" s="519"/>
-      <c r="I3" s="519"/>
+      <c r="B3" s="522"/>
+      <c r="C3" s="522"/>
+      <c r="D3" s="522"/>
+      <c r="E3" s="522"/>
+      <c r="F3" s="522"/>
+      <c r="G3" s="522"/>
+      <c r="H3" s="522"/>
+      <c r="I3" s="522"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
@@ -16413,12 +16416,12 @@
       <c r="J24" s="383"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="520" t="s">
+      <c r="A25" s="523" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="520"/>
-      <c r="C25" s="520"/>
-      <c r="D25" s="520"/>
+      <c r="B25" s="523"/>
+      <c r="C25" s="523"/>
+      <c r="D25" s="523"/>
       <c r="E25" s="383"/>
       <c r="F25" s="383"/>
       <c r="G25" s="383"/>
@@ -16427,10 +16430,10 @@
       <c r="J25" s="383"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="521" t="s">
+      <c r="A26" s="524" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="521"/>
+      <c r="B26" s="524"/>
       <c r="C26" s="493" t="s">
         <v>130</v>
       </c>
@@ -16445,11 +16448,11 @@
       <c r="J26" s="383"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="522">
+      <c r="A27" s="525">
         <f>A10-F21</f>
         <v>12192752</v>
       </c>
-      <c r="B27" s="523"/>
+      <c r="B27" s="526"/>
       <c r="C27" s="463">
         <f>1-G21</f>
         <v>0.96767873015873018</v>
@@ -16511,8 +16514,8 @@
       <c r="F31" s="467"/>
       <c r="G31" s="467"/>
       <c r="H31" s="467"/>
-      <c r="I31" s="524"/>
-      <c r="J31" s="525"/>
+      <c r="I31" s="517"/>
+      <c r="J31" s="518"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="468"/>
@@ -16606,9 +16609,9 @@
     </row>
     <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="383"/>
-      <c r="B41" s="517"/>
-      <c r="C41" s="517"/>
-      <c r="D41" s="518"/>
+      <c r="B41" s="520"/>
+      <c r="C41" s="520"/>
+      <c r="D41" s="521"/>
       <c r="E41" s="492"/>
       <c r="F41" s="383"/>
       <c r="G41" s="383"/>
@@ -16625,8 +16628,8 @@
       <c r="F42" s="467"/>
       <c r="G42" s="467"/>
       <c r="H42" s="467"/>
-      <c r="I42" s="524"/>
-      <c r="J42" s="525"/>
+      <c r="I42" s="517"/>
+      <c r="J42" s="518"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="468"/>
@@ -16637,8 +16640,8 @@
       <c r="F43" s="413"/>
       <c r="G43" s="413"/>
       <c r="H43" s="469"/>
-      <c r="I43" s="526"/>
-      <c r="J43" s="526"/>
+      <c r="I43" s="519"/>
+      <c r="J43" s="519"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="468"/>
@@ -16649,8 +16652,8 @@
       <c r="F44" s="403"/>
       <c r="G44" s="403"/>
       <c r="H44" s="403"/>
-      <c r="I44" s="526"/>
-      <c r="J44" s="526"/>
+      <c r="I44" s="519"/>
+      <c r="J44" s="519"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="383"/>
@@ -16663,30 +16666,30 @@
       <c r="H45" s="383"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="524"/>
-      <c r="C50" s="525"/>
+      <c r="B50" s="517"/>
+      <c r="C50" s="518"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="524"/>
-      <c r="C57" s="525"/>
+      <c r="B57" s="517"/>
+      <c r="C57" s="518"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B57:C57"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B57:C57"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="27" max="16383" man="1"/>
   </rowBreaks>
@@ -16697,7 +16700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -16752,17 +16755,17 @@
       <c r="L2" s="381"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="519" t="s">
+      <c r="A3" s="522" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="519"/>
-      <c r="C3" s="519"/>
-      <c r="D3" s="519"/>
-      <c r="E3" s="519"/>
-      <c r="F3" s="519"/>
-      <c r="G3" s="519"/>
-      <c r="H3" s="519"/>
-      <c r="I3" s="519"/>
+      <c r="B3" s="522"/>
+      <c r="C3" s="522"/>
+      <c r="D3" s="522"/>
+      <c r="E3" s="522"/>
+      <c r="F3" s="522"/>
+      <c r="G3" s="522"/>
+      <c r="H3" s="522"/>
+      <c r="I3" s="522"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
@@ -17441,12 +17444,12 @@
       <c r="J34" s="383"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="520" t="s">
+      <c r="A35" s="523" t="s">
         <v>128</v>
       </c>
-      <c r="B35" s="520"/>
-      <c r="C35" s="520"/>
-      <c r="D35" s="520"/>
+      <c r="B35" s="523"/>
+      <c r="C35" s="523"/>
+      <c r="D35" s="523"/>
       <c r="E35" s="383"/>
       <c r="F35" s="383"/>
       <c r="G35" s="383"/>
@@ -17455,10 +17458,10 @@
       <c r="J35" s="383"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="521" t="s">
+      <c r="A36" s="524" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="521"/>
+      <c r="B36" s="524"/>
       <c r="C36" s="462" t="s">
         <v>130</v>
       </c>
@@ -17473,11 +17476,11 @@
       <c r="J36" s="383"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="522">
+      <c r="A37" s="525">
         <f>A20-F31</f>
         <v>34693308</v>
       </c>
-      <c r="B37" s="523"/>
+      <c r="B37" s="526"/>
       <c r="C37" s="463">
         <f>1-G31</f>
         <v>0.96370299999999998</v>
@@ -17539,8 +17542,8 @@
       <c r="F41" s="467"/>
       <c r="G41" s="467"/>
       <c r="H41" s="467"/>
-      <c r="I41" s="524"/>
-      <c r="J41" s="525"/>
+      <c r="I41" s="517"/>
+      <c r="J41" s="518"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="468"/>
@@ -17634,9 +17637,9 @@
     </row>
     <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="383"/>
-      <c r="B51" s="517"/>
-      <c r="C51" s="517"/>
-      <c r="D51" s="518"/>
+      <c r="B51" s="520"/>
+      <c r="C51" s="520"/>
+      <c r="D51" s="521"/>
       <c r="E51" s="465"/>
       <c r="F51" s="383"/>
       <c r="G51" s="383"/>
@@ -17653,8 +17656,8 @@
       <c r="F52" s="467"/>
       <c r="G52" s="467"/>
       <c r="H52" s="467"/>
-      <c r="I52" s="524"/>
-      <c r="J52" s="525"/>
+      <c r="I52" s="517"/>
+      <c r="J52" s="518"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="468"/>
@@ -17665,8 +17668,8 @@
       <c r="F53" s="413"/>
       <c r="G53" s="413"/>
       <c r="H53" s="469"/>
-      <c r="I53" s="526"/>
-      <c r="J53" s="526"/>
+      <c r="I53" s="519"/>
+      <c r="J53" s="519"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="468"/>
@@ -17677,8 +17680,8 @@
       <c r="F54" s="403"/>
       <c r="G54" s="403"/>
       <c r="H54" s="403"/>
-      <c r="I54" s="526"/>
-      <c r="J54" s="526"/>
+      <c r="I54" s="519"/>
+      <c r="J54" s="519"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="383"/>
@@ -17691,26 +17694,26 @@
       <c r="H55" s="383"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="524"/>
-      <c r="C60" s="525"/>
+      <c r="B60" s="517"/>
+      <c r="C60" s="518"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="524"/>
-      <c r="C67" s="525"/>
+      <c r="B67" s="517"/>
+      <c r="C67" s="518"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B67:C67"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A35:D35"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B67:C67"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17793,47 +17796,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="546" t="s">
+      <c r="A11" s="538" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="546"/>
-      <c r="C11" s="546"/>
-      <c r="D11" s="546"/>
-      <c r="E11" s="546"/>
-      <c r="F11" s="546"/>
-      <c r="G11" s="546"/>
-      <c r="H11" s="546"/>
-      <c r="I11" s="546"/>
-      <c r="J11" s="546"/>
+      <c r="B11" s="538"/>
+      <c r="C11" s="538"/>
+      <c r="D11" s="538"/>
+      <c r="E11" s="538"/>
+      <c r="F11" s="538"/>
+      <c r="G11" s="538"/>
+      <c r="H11" s="538"/>
+      <c r="I11" s="538"/>
+      <c r="J11" s="538"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="550" t="s">
+      <c r="A12" s="527" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="550"/>
-      <c r="C12" s="550"/>
-      <c r="D12" s="550"/>
-      <c r="E12" s="550"/>
-      <c r="F12" s="550"/>
-      <c r="G12" s="550"/>
-      <c r="H12" s="550"/>
-      <c r="I12" s="550"/>
-      <c r="J12" s="550"/>
+      <c r="B12" s="527"/>
+      <c r="C12" s="527"/>
+      <c r="D12" s="527"/>
+      <c r="E12" s="527"/>
+      <c r="F12" s="527"/>
+      <c r="G12" s="527"/>
+      <c r="H12" s="527"/>
+      <c r="I12" s="527"/>
+      <c r="J12" s="527"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="547" t="str">
+      <c r="A13" s="539" t="str">
         <f>Данные!A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="B13" s="546"/>
-      <c r="C13" s="546"/>
-      <c r="D13" s="546"/>
-      <c r="E13" s="546"/>
-      <c r="F13" s="546"/>
-      <c r="G13" s="546"/>
-      <c r="H13" s="546"/>
-      <c r="I13" s="546"/>
-      <c r="J13" s="546"/>
+      <c r="B13" s="538"/>
+      <c r="C13" s="538"/>
+      <c r="D13" s="538"/>
+      <c r="E13" s="538"/>
+      <c r="F13" s="538"/>
+      <c r="G13" s="538"/>
+      <c r="H13" s="538"/>
+      <c r="I13" s="538"/>
+      <c r="J13" s="538"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="304" t="s">
@@ -17958,490 +17961,490 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="548" t="s">
+      <c r="A22" s="528" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="548" t="s">
+      <c r="B22" s="528" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="548"/>
-      <c r="D22" s="548"/>
-      <c r="E22" s="548" t="s">
+      <c r="C22" s="528"/>
+      <c r="D22" s="528"/>
+      <c r="E22" s="528" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="548"/>
-      <c r="G22" s="549" t="s">
+      <c r="F22" s="528"/>
+      <c r="G22" s="529" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="548" t="s">
+      <c r="H22" s="528" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="548"/>
-      <c r="J22" s="548"/>
+      <c r="I22" s="528"/>
+      <c r="J22" s="528"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="548"/>
-      <c r="B23" s="548"/>
-      <c r="C23" s="548"/>
-      <c r="D23" s="548"/>
-      <c r="E23" s="548"/>
-      <c r="F23" s="548"/>
-      <c r="G23" s="549"/>
-      <c r="H23" s="548"/>
-      <c r="I23" s="548"/>
-      <c r="J23" s="548"/>
+      <c r="A23" s="528"/>
+      <c r="B23" s="528"/>
+      <c r="C23" s="528"/>
+      <c r="D23" s="528"/>
+      <c r="E23" s="528"/>
+      <c r="F23" s="528"/>
+      <c r="G23" s="529"/>
+      <c r="H23" s="528"/>
+      <c r="I23" s="528"/>
+      <c r="J23" s="528"/>
     </row>
     <row r="24" spans="1:10" s="498" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="527">
+      <c r="A24" s="543">
         <v>1</v>
       </c>
-      <c r="B24" s="543" t="s">
+      <c r="B24" s="545" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="544"/>
-      <c r="D24" s="545"/>
-      <c r="E24" s="532">
+      <c r="C24" s="546"/>
+      <c r="D24" s="547"/>
+      <c r="E24" s="530">
         <f>Данные!C16</f>
         <v>19067</v>
       </c>
-      <c r="F24" s="533"/>
+      <c r="F24" s="532"/>
       <c r="G24" s="536">
         <f>Данные!B16</f>
         <v>19</v>
       </c>
-      <c r="H24" s="532"/>
-      <c r="I24" s="538"/>
-      <c r="J24" s="533"/>
+      <c r="H24" s="530"/>
+      <c r="I24" s="531"/>
+      <c r="J24" s="532"/>
     </row>
     <row r="25" spans="1:10" s="498" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="528"/>
+      <c r="A25" s="544"/>
       <c r="B25" s="540" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
       <c r="C25" s="541"/>
       <c r="D25" s="542"/>
-      <c r="E25" s="539"/>
+      <c r="E25" s="534"/>
       <c r="F25" s="535"/>
       <c r="G25" s="537"/>
-      <c r="H25" s="534"/>
-      <c r="I25" s="539"/>
+      <c r="H25" s="533"/>
+      <c r="I25" s="534"/>
       <c r="J25" s="535"/>
     </row>
     <row r="26" spans="1:10" s="498" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="527">
+      <c r="A26" s="543">
         <v>1</v>
       </c>
-      <c r="B26" s="543" t="s">
+      <c r="B26" s="545" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="544"/>
-      <c r="D26" s="545"/>
-      <c r="E26" s="532">
+      <c r="C26" s="546"/>
+      <c r="D26" s="547"/>
+      <c r="E26" s="530">
         <f>Данные!C17</f>
         <v>19068</v>
       </c>
-      <c r="F26" s="533"/>
+      <c r="F26" s="532"/>
       <c r="G26" s="536">
         <f>Данные!B17</f>
         <v>18</v>
       </c>
-      <c r="H26" s="532"/>
-      <c r="I26" s="538"/>
-      <c r="J26" s="533"/>
+      <c r="H26" s="530"/>
+      <c r="I26" s="531"/>
+      <c r="J26" s="532"/>
     </row>
     <row r="27" spans="1:10" s="498" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="528"/>
+      <c r="A27" s="544"/>
       <c r="B27" s="540" t="str">
         <f>Данные!$C$34</f>
         <v>(к серийному формокомплекту Лампада 2)</v>
       </c>
       <c r="C27" s="541"/>
       <c r="D27" s="542"/>
-      <c r="E27" s="539"/>
+      <c r="E27" s="534"/>
       <c r="F27" s="535"/>
       <c r="G27" s="537"/>
-      <c r="H27" s="534"/>
-      <c r="I27" s="539"/>
+      <c r="H27" s="533"/>
+      <c r="I27" s="534"/>
       <c r="J27" s="535"/>
     </row>
     <row r="28" spans="1:10" s="498" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="527">
+      <c r="A28" s="543">
         <v>1</v>
       </c>
-      <c r="B28" s="543" t="s">
+      <c r="B28" s="545" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="544"/>
-      <c r="D28" s="545"/>
-      <c r="E28" s="532">
+      <c r="C28" s="546"/>
+      <c r="D28" s="547"/>
+      <c r="E28" s="530">
         <f>Данные!C18</f>
         <v>19069</v>
       </c>
-      <c r="F28" s="533"/>
+      <c r="F28" s="532"/>
       <c r="G28" s="536">
         <f>Данные!B18</f>
         <v>18</v>
       </c>
-      <c r="H28" s="532"/>
-      <c r="I28" s="538"/>
-      <c r="J28" s="533"/>
+      <c r="H28" s="530"/>
+      <c r="I28" s="531"/>
+      <c r="J28" s="532"/>
     </row>
     <row r="29" spans="1:10" s="498" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="528"/>
+      <c r="A29" s="544"/>
       <c r="B29" s="540" t="str">
         <f>Данные!$F$34</f>
         <v>(к серийному формокомплекту Лампада 3)</v>
       </c>
       <c r="C29" s="541"/>
       <c r="D29" s="542"/>
-      <c r="E29" s="539"/>
+      <c r="E29" s="534"/>
       <c r="F29" s="535"/>
       <c r="G29" s="537"/>
-      <c r="H29" s="534"/>
-      <c r="I29" s="539"/>
+      <c r="H29" s="533"/>
+      <c r="I29" s="534"/>
       <c r="J29" s="535"/>
     </row>
     <row r="30" spans="1:10" s="498" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="527">
+      <c r="A30" s="543">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B30" s="529" t="s">
+      <c r="B30" s="548" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="530"/>
-      <c r="D30" s="531"/>
-      <c r="E30" s="532">
+      <c r="C30" s="549"/>
+      <c r="D30" s="550"/>
+      <c r="E30" s="530">
         <f>Данные!C19</f>
         <v>0</v>
       </c>
-      <c r="F30" s="533"/>
+      <c r="F30" s="532"/>
       <c r="G30" s="536">
         <f>Данные!B19</f>
         <v>19</v>
       </c>
-      <c r="H30" s="532"/>
-      <c r="I30" s="538"/>
-      <c r="J30" s="533"/>
+      <c r="H30" s="530"/>
+      <c r="I30" s="531"/>
+      <c r="J30" s="532"/>
     </row>
     <row r="31" spans="1:10" s="498" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="528"/>
+      <c r="A31" s="544"/>
       <c r="B31" s="540" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
       <c r="C31" s="541"/>
       <c r="D31" s="542"/>
-      <c r="E31" s="539"/>
+      <c r="E31" s="534"/>
       <c r="F31" s="535"/>
       <c r="G31" s="537"/>
-      <c r="H31" s="534"/>
-      <c r="I31" s="539"/>
+      <c r="H31" s="533"/>
+      <c r="I31" s="534"/>
       <c r="J31" s="535"/>
     </row>
     <row r="32" spans="1:10" s="498" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="527">
+      <c r="A32" s="543">
         <f t="shared" ref="A32" si="0">A30+1</f>
         <v>3</v>
       </c>
-      <c r="B32" s="529" t="s">
+      <c r="B32" s="548" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="530"/>
-      <c r="D32" s="531"/>
-      <c r="E32" s="532">
+      <c r="C32" s="549"/>
+      <c r="D32" s="550"/>
+      <c r="E32" s="530">
         <f>Данные!C20</f>
         <v>0</v>
       </c>
-      <c r="F32" s="533"/>
+      <c r="F32" s="532"/>
       <c r="G32" s="536">
         <f>Данные!B20</f>
         <v>60</v>
       </c>
-      <c r="H32" s="532"/>
-      <c r="I32" s="538"/>
-      <c r="J32" s="533"/>
+      <c r="H32" s="530"/>
+      <c r="I32" s="531"/>
+      <c r="J32" s="532"/>
     </row>
     <row r="33" spans="1:10" s="498" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="528"/>
+      <c r="A33" s="544"/>
       <c r="B33" s="540" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
       <c r="C33" s="541"/>
       <c r="D33" s="542"/>
-      <c r="E33" s="539"/>
+      <c r="E33" s="534"/>
       <c r="F33" s="535"/>
       <c r="G33" s="537"/>
-      <c r="H33" s="534"/>
-      <c r="I33" s="539"/>
+      <c r="H33" s="533"/>
+      <c r="I33" s="534"/>
       <c r="J33" s="535"/>
     </row>
     <row r="34" spans="1:10" s="498" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="527">
+      <c r="A34" s="543">
         <f t="shared" ref="A34" si="1">A32+1</f>
         <v>4</v>
       </c>
-      <c r="B34" s="529" t="s">
+      <c r="B34" s="548" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="530"/>
-      <c r="D34" s="531"/>
-      <c r="E34" s="532">
+      <c r="C34" s="549"/>
+      <c r="D34" s="550"/>
+      <c r="E34" s="530">
         <f>Данные!C21</f>
         <v>0</v>
       </c>
-      <c r="F34" s="533"/>
+      <c r="F34" s="532"/>
       <c r="G34" s="536">
         <f>Данные!B21</f>
         <v>60</v>
       </c>
-      <c r="H34" s="532"/>
-      <c r="I34" s="538"/>
-      <c r="J34" s="533"/>
+      <c r="H34" s="530"/>
+      <c r="I34" s="531"/>
+      <c r="J34" s="532"/>
     </row>
     <row r="35" spans="1:10" s="498" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="528"/>
+      <c r="A35" s="544"/>
       <c r="B35" s="540" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
       <c r="C35" s="541"/>
       <c r="D35" s="542"/>
-      <c r="E35" s="534"/>
+      <c r="E35" s="533"/>
       <c r="F35" s="535"/>
       <c r="G35" s="537"/>
-      <c r="H35" s="534"/>
-      <c r="I35" s="539"/>
+      <c r="H35" s="533"/>
+      <c r="I35" s="534"/>
       <c r="J35" s="535"/>
     </row>
     <row r="36" spans="1:10" s="498" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="527">
+      <c r="A36" s="543">
         <f t="shared" ref="A36" si="2">A34+1</f>
         <v>5</v>
       </c>
-      <c r="B36" s="529" t="s">
+      <c r="B36" s="548" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="530"/>
-      <c r="D36" s="531"/>
-      <c r="E36" s="532">
+      <c r="C36" s="549"/>
+      <c r="D36" s="550"/>
+      <c r="E36" s="530">
         <f>Данные!C22</f>
         <v>0</v>
       </c>
-      <c r="F36" s="533"/>
+      <c r="F36" s="532"/>
       <c r="G36" s="536">
         <f>Данные!B22</f>
         <v>28</v>
       </c>
-      <c r="H36" s="532"/>
-      <c r="I36" s="538"/>
-      <c r="J36" s="533"/>
+      <c r="H36" s="530"/>
+      <c r="I36" s="531"/>
+      <c r="J36" s="532"/>
     </row>
     <row r="37" spans="1:10" s="498" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="528"/>
+      <c r="A37" s="544"/>
       <c r="B37" s="540" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
       <c r="C37" s="541"/>
       <c r="D37" s="542"/>
-      <c r="E37" s="534"/>
+      <c r="E37" s="533"/>
       <c r="F37" s="535"/>
       <c r="G37" s="537"/>
-      <c r="H37" s="534"/>
-      <c r="I37" s="539"/>
+      <c r="H37" s="533"/>
+      <c r="I37" s="534"/>
       <c r="J37" s="535"/>
     </row>
     <row r="38" spans="1:10" s="498" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="527">
+      <c r="A38" s="543">
         <f t="shared" ref="A38" si="3">A36+1</f>
         <v>6</v>
       </c>
-      <c r="B38" s="529" t="s">
+      <c r="B38" s="548" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="530"/>
-      <c r="D38" s="531"/>
-      <c r="E38" s="532">
+      <c r="C38" s="549"/>
+      <c r="D38" s="550"/>
+      <c r="E38" s="530">
         <f>Данные!C23</f>
         <v>0</v>
       </c>
-      <c r="F38" s="533"/>
+      <c r="F38" s="532"/>
       <c r="G38" s="536">
         <f>Данные!B23</f>
         <v>28</v>
       </c>
-      <c r="H38" s="532"/>
-      <c r="I38" s="538"/>
-      <c r="J38" s="533"/>
+      <c r="H38" s="530"/>
+      <c r="I38" s="531"/>
+      <c r="J38" s="532"/>
     </row>
     <row r="39" spans="1:10" s="498" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="528"/>
+      <c r="A39" s="544"/>
       <c r="B39" s="540" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
       <c r="C39" s="541"/>
       <c r="D39" s="542"/>
-      <c r="E39" s="534"/>
+      <c r="E39" s="533"/>
       <c r="F39" s="535"/>
       <c r="G39" s="537"/>
-      <c r="H39" s="534"/>
-      <c r="I39" s="539"/>
+      <c r="H39" s="533"/>
+      <c r="I39" s="534"/>
       <c r="J39" s="535"/>
     </row>
     <row r="40" spans="1:10" s="498" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="527">
+      <c r="A40" s="543">
         <f t="shared" ref="A40:A42" si="4">A38+1</f>
         <v>7</v>
       </c>
-      <c r="B40" s="529" t="s">
+      <c r="B40" s="548" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="530"/>
-      <c r="D40" s="531"/>
-      <c r="E40" s="532">
+      <c r="C40" s="549"/>
+      <c r="D40" s="550"/>
+      <c r="E40" s="530">
         <f>Данные!C24</f>
         <v>0</v>
       </c>
-      <c r="F40" s="533"/>
+      <c r="F40" s="532"/>
       <c r="G40" s="536">
         <f>Данные!B24</f>
         <v>78</v>
       </c>
-      <c r="H40" s="532"/>
-      <c r="I40" s="538"/>
-      <c r="J40" s="533"/>
+      <c r="H40" s="530"/>
+      <c r="I40" s="531"/>
+      <c r="J40" s="532"/>
     </row>
     <row r="41" spans="1:10" s="498" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="528"/>
+      <c r="A41" s="544"/>
       <c r="B41" s="540" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
       <c r="C41" s="541"/>
       <c r="D41" s="542"/>
-      <c r="E41" s="534"/>
+      <c r="E41" s="533"/>
       <c r="F41" s="535"/>
       <c r="G41" s="537"/>
-      <c r="H41" s="534"/>
-      <c r="I41" s="539"/>
+      <c r="H41" s="533"/>
+      <c r="I41" s="534"/>
       <c r="J41" s="535"/>
     </row>
     <row r="42" spans="1:10" s="498" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="527">
+      <c r="A42" s="543">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B42" s="529" t="s">
+      <c r="B42" s="548" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="530"/>
-      <c r="D42" s="531"/>
-      <c r="E42" s="532">
+      <c r="C42" s="549"/>
+      <c r="D42" s="550"/>
+      <c r="E42" s="530">
         <f>Данные!C30</f>
         <v>0</v>
       </c>
-      <c r="F42" s="533"/>
+      <c r="F42" s="532"/>
       <c r="G42" s="536">
         <f>Данные!B30</f>
         <v>18</v>
       </c>
-      <c r="H42" s="532"/>
-      <c r="I42" s="538"/>
-      <c r="J42" s="533"/>
+      <c r="H42" s="530"/>
+      <c r="I42" s="531"/>
+      <c r="J42" s="532"/>
     </row>
     <row r="43" spans="1:10" s="498" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="528"/>
+      <c r="A43" s="544"/>
       <c r="B43" s="540" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
       <c r="C43" s="541"/>
       <c r="D43" s="542"/>
-      <c r="E43" s="534"/>
+      <c r="E43" s="533"/>
       <c r="F43" s="535"/>
       <c r="G43" s="537"/>
-      <c r="H43" s="534"/>
-      <c r="I43" s="539"/>
+      <c r="H43" s="533"/>
+      <c r="I43" s="534"/>
       <c r="J43" s="535"/>
     </row>
     <row r="44" spans="1:10" s="498" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="527">
+      <c r="A44" s="543">
         <f t="shared" ref="A44" si="5">A42+1</f>
         <v>9</v>
       </c>
-      <c r="B44" s="529" t="s">
+      <c r="B44" s="548" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="530"/>
-      <c r="D44" s="531"/>
-      <c r="E44" s="532">
+      <c r="C44" s="549"/>
+      <c r="D44" s="550"/>
+      <c r="E44" s="530">
         <f>Данные!C31</f>
         <v>0</v>
       </c>
-      <c r="F44" s="533"/>
+      <c r="F44" s="532"/>
       <c r="G44" s="536">
         <f>Данные!B31</f>
         <v>18</v>
       </c>
-      <c r="H44" s="532"/>
-      <c r="I44" s="538"/>
-      <c r="J44" s="533"/>
+      <c r="H44" s="530"/>
+      <c r="I44" s="531"/>
+      <c r="J44" s="532"/>
     </row>
     <row r="45" spans="1:10" s="498" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="528"/>
+      <c r="A45" s="544"/>
       <c r="B45" s="540" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
       <c r="C45" s="541"/>
       <c r="D45" s="542"/>
-      <c r="E45" s="534"/>
+      <c r="E45" s="533"/>
       <c r="F45" s="535"/>
       <c r="G45" s="537"/>
-      <c r="H45" s="534"/>
-      <c r="I45" s="539"/>
+      <c r="H45" s="533"/>
+      <c r="I45" s="534"/>
       <c r="J45" s="535"/>
     </row>
     <row r="46" spans="1:10" s="498" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="527">
+      <c r="A46" s="543">
         <f t="shared" ref="A46" si="6">A44+1</f>
         <v>10</v>
       </c>
-      <c r="B46" s="529" t="s">
+      <c r="B46" s="548" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="530"/>
-      <c r="D46" s="531"/>
-      <c r="E46" s="532">
+      <c r="C46" s="549"/>
+      <c r="D46" s="550"/>
+      <c r="E46" s="530">
         <f>Данные!C28</f>
         <v>0</v>
       </c>
-      <c r="F46" s="533"/>
+      <c r="F46" s="532"/>
       <c r="G46" s="536">
         <f>Данные!B28</f>
         <v>8</v>
       </c>
-      <c r="H46" s="532"/>
-      <c r="I46" s="538"/>
-      <c r="J46" s="533"/>
+      <c r="H46" s="530"/>
+      <c r="I46" s="531"/>
+      <c r="J46" s="532"/>
     </row>
     <row r="47" spans="1:10" s="498" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="528"/>
+      <c r="A47" s="544"/>
       <c r="B47" s="540" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
       <c r="C47" s="541"/>
       <c r="D47" s="542"/>
-      <c r="E47" s="534"/>
+      <c r="E47" s="533"/>
       <c r="F47" s="535"/>
       <c r="G47" s="537"/>
-      <c r="H47" s="534"/>
-      <c r="I47" s="539"/>
+      <c r="H47" s="533"/>
+      <c r="I47" s="534"/>
       <c r="J47" s="535"/>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -18571,15 +18574,57 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="B43:D43"/>
@@ -18596,61 +18641,19 @@
     <mergeCell ref="B22:D23"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18706,47 +18709,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="555"/>
-      <c r="C2" s="556"/>
-      <c r="D2" s="557"/>
-      <c r="E2" s="564" t="s">
+      <c r="B2" s="565"/>
+      <c r="C2" s="566"/>
+      <c r="D2" s="567"/>
+      <c r="E2" s="574" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="565"/>
-      <c r="G2" s="565"/>
-      <c r="H2" s="566"/>
-      <c r="I2" s="571" t="s">
+      <c r="F2" s="575"/>
+      <c r="G2" s="575"/>
+      <c r="H2" s="576"/>
+      <c r="I2" s="581" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="572"/>
-      <c r="K2" s="575">
+      <c r="J2" s="582"/>
+      <c r="K2" s="585">
         <f>Данные!B16</f>
         <v>19</v>
       </c>
-      <c r="L2" s="576"/>
+      <c r="L2" s="586"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="567"/>
-      <c r="Q2" s="567"/>
+      <c r="P2" s="577"/>
+      <c r="Q2" s="577"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="558"/>
-      <c r="C3" s="559"/>
-      <c r="D3" s="560"/>
-      <c r="E3" s="568" t="s">
+      <c r="B3" s="568"/>
+      <c r="C3" s="569"/>
+      <c r="D3" s="570"/>
+      <c r="E3" s="578" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="569"/>
-      <c r="G3" s="569"/>
-      <c r="H3" s="570"/>
-      <c r="I3" s="573"/>
-      <c r="J3" s="574"/>
-      <c r="K3" s="577"/>
-      <c r="L3" s="578"/>
+      <c r="F3" s="579"/>
+      <c r="G3" s="579"/>
+      <c r="H3" s="580"/>
+      <c r="I3" s="583"/>
+      <c r="J3" s="584"/>
+      <c r="K3" s="587"/>
+      <c r="L3" s="588"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -18757,9 +18760,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="561"/>
-      <c r="C4" s="562"/>
-      <c r="D4" s="563"/>
+      <c r="B4" s="571"/>
+      <c r="C4" s="572"/>
+      <c r="D4" s="573"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -18778,22 +18781,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="582" t="s">
+      <c r="B5" s="592" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="583"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="593"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="584"/>
-      <c r="J5" s="585"/>
-      <c r="K5" s="512"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="554"/>
+      <c r="J5" s="555"/>
+      <c r="K5" s="510"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -18804,22 +18807,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="582" t="s">
+      <c r="B6" s="592" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="586"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="594"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="584"/>
-      <c r="J6" s="585"/>
-      <c r="K6" s="512"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="595"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="595"/>
+      <c r="H6" s="596"/>
+      <c r="I6" s="554"/>
+      <c r="J6" s="555"/>
+      <c r="K6" s="510"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -18830,27 +18833,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="593"/>
-      <c r="D7" s="514">
+      <c r="C7" s="557"/>
+      <c r="D7" s="512">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="594"/>
-      <c r="F7" s="594"/>
-      <c r="G7" s="594"/>
-      <c r="H7" s="595"/>
-      <c r="I7" s="592" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="596"/>
-      <c r="K7" s="502">
+      <c r="J7" s="560"/>
+      <c r="K7" s="500">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -19322,12 +19325,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="589" t="s">
+      <c r="B23" s="551" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="590"/>
-      <c r="D23" s="590"/>
-      <c r="E23" s="591"/>
+      <c r="C23" s="552"/>
+      <c r="D23" s="552"/>
+      <c r="E23" s="553"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -19349,12 +19352,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="579" t="s">
+      <c r="B24" s="589" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="580"/>
-      <c r="D24" s="580"/>
-      <c r="E24" s="581"/>
+      <c r="C24" s="590"/>
+      <c r="D24" s="590"/>
+      <c r="E24" s="591"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -19397,35 +19400,28 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K27" s="554" t="s">
+      <c r="K27" s="564" t="s">
         <v>136</v>
       </c>
-      <c r="L27" s="554"/>
-      <c r="M27" s="554"/>
+      <c r="L27" s="564"/>
+      <c r="M27" s="564"/>
       <c r="N27" s="475"/>
       <c r="O27" s="475"/>
       <c r="P27" s="491"/>
       <c r="Q27" s="491"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N28" s="551" t="s">
+      <c r="N28" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="O28" s="551"/>
-      <c r="P28" s="552" t="s">
+      <c r="O28" s="561"/>
+      <c r="P28" s="562" t="s">
         <v>141</v>
       </c>
-      <c r="Q28" s="553"/>
+      <c r="Q28" s="563"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="K27:M27"/>
@@ -19442,6 +19438,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="27" priority="1" stopIfTrue="1" operator="equal">
@@ -19508,50 +19511,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="603">
+      <c r="B2" s="600">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="604"/>
-      <c r="D2" s="605"/>
-      <c r="E2" s="612" t="s">
+      <c r="C2" s="601"/>
+      <c r="D2" s="602"/>
+      <c r="E2" s="609" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="613"/>
-      <c r="G2" s="613"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="618" t="s">
+      <c r="F2" s="610"/>
+      <c r="G2" s="610"/>
+      <c r="H2" s="611"/>
+      <c r="I2" s="615" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="619"/>
-      <c r="K2" s="622">
+      <c r="J2" s="616"/>
+      <c r="K2" s="619">
         <f>Данные!B19</f>
         <v>19</v>
       </c>
-      <c r="L2" s="623"/>
+      <c r="L2" s="620"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="567"/>
-      <c r="Q2" s="567"/>
+      <c r="P2" s="577"/>
+      <c r="Q2" s="577"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="606"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
-      <c r="E3" s="615" t="s">
+      <c r="B3" s="603"/>
+      <c r="C3" s="604"/>
+      <c r="D3" s="605"/>
+      <c r="E3" s="612" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="616"/>
-      <c r="G3" s="616"/>
-      <c r="H3" s="617"/>
-      <c r="I3" s="620"/>
-      <c r="J3" s="621"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="625"/>
+      <c r="F3" s="613"/>
+      <c r="G3" s="613"/>
+      <c r="H3" s="614"/>
+      <c r="I3" s="617"/>
+      <c r="J3" s="618"/>
+      <c r="K3" s="621"/>
+      <c r="L3" s="622"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -19562,9 +19565,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="609"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="611"/>
+      <c r="B4" s="606"/>
+      <c r="C4" s="607"/>
+      <c r="D4" s="608"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -19583,22 +19586,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="582" t="s">
+      <c r="B5" s="592" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="623"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="598"/>
-      <c r="J5" s="599"/>
-      <c r="K5" s="600"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="624"/>
+      <c r="J5" s="625"/>
+      <c r="K5" s="626"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -19609,22 +19612,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="582" t="s">
+      <c r="B6" s="592" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="597"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="623"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="598"/>
-      <c r="J6" s="599"/>
-      <c r="K6" s="600"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="595"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="595"/>
+      <c r="H6" s="596"/>
+      <c r="I6" s="624"/>
+      <c r="J6" s="625"/>
+      <c r="K6" s="626"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -19635,27 +19638,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="601"/>
-      <c r="D7" s="514">
+      <c r="C7" s="627"/>
+      <c r="D7" s="512">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="594"/>
-      <c r="F7" s="594"/>
-      <c r="G7" s="594"/>
-      <c r="H7" s="595"/>
-      <c r="I7" s="602" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="628" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="502">
+      <c r="J7" s="627"/>
+      <c r="K7" s="500">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -19846,12 +19849,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="627" t="s">
+      <c r="B14" s="598" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="628"/>
-      <c r="D14" s="628"/>
-      <c r="E14" s="628"/>
+      <c r="C14" s="599"/>
+      <c r="D14" s="599"/>
+      <c r="E14" s="599"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -19873,13 +19876,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="589" t="s">
+      <c r="B15" s="551" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="590"/>
-      <c r="D15" s="590"/>
-      <c r="E15" s="590"/>
-      <c r="F15" s="626"/>
+      <c r="C15" s="552"/>
+      <c r="D15" s="552"/>
+      <c r="E15" s="552"/>
+      <c r="F15" s="597"/>
       <c r="G15" s="56" t="s">
         <v>77</v>
       </c>
@@ -19898,12 +19901,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="579" t="s">
+      <c r="B16" s="589" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="580"/>
-      <c r="D16" s="580"/>
-      <c r="E16" s="581"/>
+      <c r="C16" s="590"/>
+      <c r="D16" s="590"/>
+      <c r="E16" s="591"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -19950,39 +19953,28 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="121"/>
-      <c r="L19" s="554" t="s">
+      <c r="L19" s="564" t="s">
         <v>136</v>
       </c>
-      <c r="M19" s="554"/>
-      <c r="N19" s="554"/>
+      <c r="M19" s="564"/>
+      <c r="N19" s="564"/>
       <c r="O19" s="475"/>
       <c r="P19" s="475"/>
       <c r="Q19" s="491"/>
       <c r="R19" s="491"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="O20" s="551" t="s">
+      <c r="O20" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="551"/>
-      <c r="Q20" s="552" t="s">
+      <c r="P20" s="561"/>
+      <c r="Q20" s="562" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="553"/>
+      <c r="R20" s="563"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -19996,6 +19988,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="25" priority="3" stopIfTrue="1" operator="notBetween">
@@ -20070,47 +20073,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="555"/>
-      <c r="C2" s="556"/>
-      <c r="D2" s="557"/>
-      <c r="E2" s="564" t="s">
+      <c r="B2" s="565"/>
+      <c r="C2" s="566"/>
+      <c r="D2" s="567"/>
+      <c r="E2" s="574" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="565"/>
-      <c r="G2" s="565"/>
-      <c r="H2" s="566"/>
-      <c r="I2" s="571" t="s">
+      <c r="F2" s="575"/>
+      <c r="G2" s="575"/>
+      <c r="H2" s="576"/>
+      <c r="I2" s="581" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="572"/>
-      <c r="K2" s="575">
+      <c r="J2" s="582"/>
+      <c r="K2" s="585">
         <f>Данные!B16</f>
         <v>19</v>
       </c>
-      <c r="L2" s="576"/>
+      <c r="L2" s="586"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="567"/>
-      <c r="Q2" s="567"/>
+      <c r="P2" s="577"/>
+      <c r="Q2" s="577"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="558"/>
-      <c r="C3" s="559"/>
-      <c r="D3" s="560"/>
-      <c r="E3" s="568" t="s">
+      <c r="B3" s="568"/>
+      <c r="C3" s="569"/>
+      <c r="D3" s="570"/>
+      <c r="E3" s="578" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="569"/>
-      <c r="G3" s="569"/>
-      <c r="H3" s="570"/>
-      <c r="I3" s="573"/>
-      <c r="J3" s="574"/>
-      <c r="K3" s="577"/>
-      <c r="L3" s="578"/>
+      <c r="F3" s="579"/>
+      <c r="G3" s="579"/>
+      <c r="H3" s="580"/>
+      <c r="I3" s="583"/>
+      <c r="J3" s="584"/>
+      <c r="K3" s="587"/>
+      <c r="L3" s="588"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -20121,9 +20124,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="561"/>
-      <c r="C4" s="562"/>
-      <c r="D4" s="563"/>
+      <c r="B4" s="571"/>
+      <c r="C4" s="572"/>
+      <c r="D4" s="573"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -20142,22 +20145,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="582" t="s">
+      <c r="B5" s="592" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="583"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="593"/>
+      <c r="D5" s="509" t="str">
         <f>Данные!$A7</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="584"/>
-      <c r="J5" s="585"/>
-      <c r="K5" s="512"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
+      <c r="H5" s="511"/>
+      <c r="I5" s="554"/>
+      <c r="J5" s="555"/>
+      <c r="K5" s="510"/>
+      <c r="L5" s="511"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -20168,22 +20171,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="582" t="s">
+      <c r="B6" s="592" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="586"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="594"/>
+      <c r="D6" s="503" t="str">
         <f>Данные!$A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="E6" s="587"/>
-      <c r="F6" s="587"/>
-      <c r="G6" s="587"/>
-      <c r="H6" s="588"/>
-      <c r="I6" s="584"/>
-      <c r="J6" s="585"/>
-      <c r="K6" s="512"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="595"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="595"/>
+      <c r="H6" s="596"/>
+      <c r="I6" s="554"/>
+      <c r="J6" s="555"/>
+      <c r="K6" s="510"/>
+      <c r="L6" s="511"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -20194,27 +20197,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="592" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="593"/>
-      <c r="D7" s="514">
+      <c r="C7" s="557"/>
+      <c r="D7" s="512">
         <f>Данные!$A10</f>
         <v>0</v>
       </c>
-      <c r="E7" s="594"/>
-      <c r="F7" s="594"/>
-      <c r="G7" s="594"/>
-      <c r="H7" s="595"/>
-      <c r="I7" s="592" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="596"/>
-      <c r="K7" s="502">
+      <c r="J7" s="560"/>
+      <c r="K7" s="500">
         <f>Данные!$A13</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="501"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -20686,12 +20689,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="589" t="s">
+      <c r="B23" s="551" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="590"/>
-      <c r="D23" s="590"/>
-      <c r="E23" s="591"/>
+      <c r="C23" s="552"/>
+      <c r="D23" s="552"/>
+      <c r="E23" s="553"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -20713,12 +20716,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="579" t="s">
+      <c r="B24" s="589" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="580"/>
-      <c r="D24" s="580"/>
-      <c r="E24" s="581"/>
+      <c r="C24" s="590"/>
+      <c r="D24" s="590"/>
+      <c r="E24" s="591"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -20761,42 +20764,28 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K27" s="554" t="s">
+      <c r="K27" s="564" t="s">
         <v>136</v>
       </c>
-      <c r="L27" s="554"/>
-      <c r="M27" s="554"/>
+      <c r="L27" s="564"/>
+      <c r="M27" s="564"/>
       <c r="N27" s="475"/>
       <c r="O27" s="475"/>
       <c r="P27" s="491"/>
       <c r="Q27" s="491"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="N28" s="551" t="s">
+      <c r="N28" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="O28" s="551"/>
-      <c r="P28" s="552" t="s">
+      <c r="O28" s="561"/>
+      <c r="P28" s="562" t="s">
         <v>141</v>
       </c>
-      <c r="Q28" s="553"/>
+      <c r="Q28" s="563"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="K27:M27"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
@@ -20806,6 +20795,20 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Банка/Лампада_1_2_3.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Банка/Лампада_1_2_3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Банка\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769BC615-2332-4B71-B57A-DAA1DFDCDDFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -54,12 +55,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Чист. форма (2)'!$A$1:$S$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'Чист. форма (3)'!$A$1:$S$28</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="156">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -555,13 +563,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="59" x14ac:knownFonts="1">
     <font>
@@ -2246,7 +2254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="649">
@@ -3423,7 +3431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3438,7 +3446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3500,25 +3508,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3530,11 +3538,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3544,7 +3552,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3558,11 +3566,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
@@ -3574,13 +3582,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3593,7 +3601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3742,10 +3750,10 @@
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -3781,35 +3789,35 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -4113,8 +4121,8 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Процентный" xfId="4" builtinId="5"/>
     <cellStyle name="Финансовый" xfId="3" builtinId="3"/>
   </cellStyles>
@@ -4477,7 +4485,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4523,7 +4537,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4568,7 +4588,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Прямая соединительная линия 9"/>
+        <xdr:cNvPr id="10" name="Прямая соединительная линия 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4612,7 +4638,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4661,7 +4693,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)"/>
+        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4707,7 +4745,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4751,7 +4795,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
+        <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4795,7 +4845,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4844,7 +4900,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif"/>
+        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -4890,7 +4952,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4934,7 +5002,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4978,7 +5052,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5027,7 +5107,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5071,7 +5157,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5115,7 +5207,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5164,7 +5262,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD"/>
+        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5210,7 +5314,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5254,7 +5364,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5298,7 +5414,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5347,7 +5469,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5391,7 +5519,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5435,7 +5569,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5484,7 +5624,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5530,7 +5676,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5574,7 +5726,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5618,7 +5776,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5667,7 +5831,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5713,7 +5883,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Прямая соединительная линия 2"/>
+        <xdr:cNvPr id="3" name="Прямая соединительная линия 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5758,7 +5934,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
+        <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5802,7 +5984,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5851,7 +6039,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr="BOT-1_HR.jpg"/>
+        <xdr:cNvPr id="2" name="Picture 4" descr="BOT-1_HR.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5897,7 +6091,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Прямая соединительная линия 2"/>
+        <xdr:cNvPr id="3" name="Прямая соединительная линия 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5941,7 +6141,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
+        <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5985,7 +6191,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6034,7 +6246,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6080,7 +6298,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Прямая соединительная линия 2"/>
+        <xdr:cNvPr id="3" name="Прямая соединительная линия 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6125,7 +6349,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
+        <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6169,7 +6399,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6218,7 +6454,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr="BOT-1_HR.jpg"/>
+        <xdr:cNvPr id="2" name="Picture 4" descr="BOT-1_HR.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6264,7 +6506,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Прямая соединительная линия 2"/>
+        <xdr:cNvPr id="3" name="Прямая соединительная линия 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6308,7 +6556,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
+        <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6352,7 +6606,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6401,7 +6661,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6447,7 +6713,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6491,7 +6763,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6535,7 +6813,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6584,7 +6868,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG"/>
+        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000036040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6630,7 +6920,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6674,7 +6970,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6718,7 +7020,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6767,7 +7075,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -6813,7 +7127,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6857,7 +7177,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
+        <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6901,7 +7227,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6945,7 +7277,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7047,6 +7385,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7082,6 +7437,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -7257,22 +7629,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="502" t="s">
         <v>82</v>
       </c>
@@ -7284,7 +7656,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="503" t="s">
         <v>145</v>
       </c>
@@ -7296,7 +7668,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="503" t="s">
         <v>146</v>
       </c>
@@ -7306,7 +7678,7 @@
       <c r="E3" s="505"/>
       <c r="G3" s="362"/>
     </row>
-    <row r="4" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="503" t="s">
         <v>147</v>
       </c>
@@ -7316,12 +7688,12 @@
       <c r="E4" s="505"/>
       <c r="G4" s="362"/>
     </row>
-    <row r="5" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="G5" s="362" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="507" t="s">
         <v>83</v>
       </c>
@@ -7330,7 +7702,7 @@
       <c r="D6" s="508"/>
       <c r="E6" s="508"/>
     </row>
-    <row r="7" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="509" t="s">
         <v>87</v>
       </c>
@@ -7339,8 +7711,8 @@
       <c r="D7" s="510"/>
       <c r="E7" s="511"/>
     </row>
-    <row r="8" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="502" t="s">
         <v>84</v>
       </c>
@@ -7349,14 +7721,14 @@
       <c r="D9" s="506"/>
       <c r="E9" s="506"/>
     </row>
-    <row r="10" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="512"/>
       <c r="B10" s="513"/>
       <c r="C10" s="513"/>
       <c r="D10" s="513"/>
       <c r="E10" s="514"/>
     </row>
-    <row r="12" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="502" t="s">
         <v>85</v>
       </c>
@@ -7370,7 +7742,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="500"/>
       <c r="B13" s="501"/>
       <c r="D13" s="369">
@@ -7387,7 +7759,7 @@
       </c>
       <c r="K13" s="516"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F14" s="515" t="s">
         <v>86</v>
       </c>
@@ -7399,7 +7771,7 @@
       </c>
       <c r="K14" s="516"/>
     </row>
-    <row r="15" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="374" t="s">
         <v>88</v>
       </c>
@@ -7426,7 +7798,7 @@
       </c>
       <c r="K15" s="516"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="365" t="s">
         <v>150</v>
       </c>
@@ -7444,7 +7816,7 @@
         <v>617.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="365" t="s">
         <v>151</v>
       </c>
@@ -7457,7 +7829,7 @@
       <c r="D17" s="366"/>
       <c r="E17" s="366"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="365" t="s">
         <v>152</v>
       </c>
@@ -7470,7 +7842,7 @@
       <c r="D18" s="366"/>
       <c r="E18" s="366"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="365" t="s">
         <v>44</v>
       </c>
@@ -7486,7 +7858,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="365" t="s">
         <v>38</v>
       </c>
@@ -7502,12 +7874,12 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="365" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="366">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C21" s="372"/>
       <c r="D21" s="366">
@@ -7515,10 +7887,10 @@
       </c>
       <c r="E21" s="366">
         <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="365" t="s">
         <v>47</v>
       </c>
@@ -7534,7 +7906,7 @@
         <v>36.120000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="365" t="s">
         <v>90</v>
       </c>
@@ -7550,7 +7922,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="365" t="s">
         <v>51</v>
       </c>
@@ -7566,7 +7938,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="365" t="s">
         <v>53</v>
       </c>
@@ -7582,7 +7954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="365" t="s">
         <v>91</v>
       </c>
@@ -7596,7 +7968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="365" t="s">
         <v>56</v>
       </c>
@@ -7612,7 +7984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="365" t="s">
         <v>70</v>
       </c>
@@ -7628,7 +8000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="365" t="s">
         <v>92</v>
       </c>
@@ -7642,7 +8014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="367" t="s">
         <v>55</v>
       </c>
@@ -7658,7 +8030,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="367" t="s">
         <v>105</v>
       </c>
@@ -7669,29 +8041,29 @@
       <c r="D31" s="366"/>
       <c r="E31" s="366"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="371"/>
       <c r="D32" s="370"/>
       <c r="E32" s="370">
         <f>SUM(E16:E31)</f>
-        <v>2939.02</v>
+        <v>2887.02</v>
       </c>
       <c r="F32">
         <v>2400</v>
       </c>
       <c r="G32">
         <f>F32-E32</f>
-        <v>-539.02</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-487.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="499" t="s">
         <v>106</v>
       </c>
       <c r="B33" s="499"/>
       <c r="C33" s="499"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="363" t="s">
         <v>153</v>
       </c>
@@ -7702,7 +8074,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A36" s="374" t="s">
         <v>88</v>
       </c>
@@ -7719,7 +8091,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="365" t="s">
         <v>43</v>
       </c>
@@ -7737,7 +8109,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="365" t="s">
         <v>44</v>
       </c>
@@ -7781,7 +8153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -7792,20 +8164,20 @@
       <selection pane="bottomRight" activeCell="N27" sqref="N27:Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
     <col min="4" max="5" width="6" style="64" customWidth="1"/>
     <col min="6" max="6" width="7" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -7826,7 +8198,7 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
       <c r="B2" s="600">
         <f>'Чист. форма (2)'!B2:D4</f>
@@ -7857,7 +8229,7 @@
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
       <c r="B3" s="603"/>
       <c r="C3" s="604"/>
@@ -7880,7 +8252,7 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
       <c r="B4" s="606"/>
       <c r="C4" s="607"/>
@@ -7901,7 +8273,7 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="592" t="s">
         <v>13</v>
@@ -7927,7 +8299,7 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="592" t="s">
         <v>12</v>
@@ -7953,7 +8325,7 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="556" t="s">
         <v>14</v>
@@ -7984,7 +8356,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -8005,7 +8377,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -8038,7 +8410,7 @@
       <c r="R9" s="318"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -8069,7 +8441,7 @@
       <c r="R10" s="320"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>28</v>
@@ -8102,7 +8474,7 @@
       <c r="R11" s="322"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>4</v>
@@ -8133,7 +8505,7 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>5</v>
@@ -8164,7 +8536,7 @@
       <c r="R13" s="322"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="598" t="s">
         <v>135</v>
@@ -8191,7 +8563,7 @@
       <c r="R14" s="324"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="551" t="s">
         <v>144</v>
@@ -8216,7 +8588,7 @@
       <c r="R15" s="324"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
       <c r="B16" s="589" t="s">
         <v>45</v>
@@ -8243,7 +8615,7 @@
       <c r="R16" s="326"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="108"/>
       <c r="B17" s="109"/>
       <c r="C17" s="109"/>
@@ -8264,11 +8636,11 @@
       <c r="R17" s="111"/>
       <c r="S17" s="112"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="121"/>
       <c r="P18" s="122"/>
     </row>
-    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
       <c r="L19" s="564" t="s">
         <v>136</v>
@@ -8280,7 +8652,7 @@
       <c r="Q19" s="491"/>
       <c r="R19" s="491"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O20" s="561" t="s">
         <v>140</v>
       </c>
@@ -8343,7 +8715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8354,20 +8726,20 @@
       <selection pane="bottomRight" activeCell="N27" sqref="N27:Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
     <col min="2" max="2" width="5" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.85546875" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -8388,7 +8760,7 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
       <c r="B2" s="565"/>
       <c r="C2" s="566"/>
@@ -8416,7 +8788,7 @@
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
       <c r="B3" s="568"/>
       <c r="C3" s="569"/>
@@ -8439,7 +8811,7 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
       <c r="B4" s="571"/>
       <c r="C4" s="572"/>
@@ -8460,7 +8832,7 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="592" t="s">
         <v>13</v>
@@ -8486,7 +8858,7 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="592" t="s">
         <v>12</v>
@@ -8512,7 +8884,7 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="556" t="s">
         <v>14</v>
@@ -8543,7 +8915,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -8564,7 +8936,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -8597,7 +8969,7 @@
       <c r="R9" s="318"/>
       <c r="S9" s="190"/>
     </row>
-    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -8628,7 +9000,7 @@
       <c r="R10" s="320"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>26</v>
@@ -8659,7 +9031,7 @@
       <c r="R11" s="322"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>2</v>
@@ -8690,7 +9062,7 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>3</v>
@@ -8723,7 +9095,7 @@
       <c r="R13" s="322"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>27</v>
@@ -8756,7 +9128,7 @@
       <c r="R14" s="322"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>9</v>
@@ -8787,7 +9159,7 @@
       <c r="R15" s="322"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>5</v>
@@ -8818,7 +9190,7 @@
       <c r="R16" s="322"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="96" t="s">
         <v>30</v>
@@ -8849,7 +9221,7 @@
       <c r="R17" s="322"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="103" t="s">
         <v>32</v>
@@ -8880,7 +9252,7 @@
       <c r="R18" s="324"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="103" t="s">
         <v>33</v>
@@ -8911,7 +9283,7 @@
       <c r="R19" s="324"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="103" t="s">
         <v>35</v>
@@ -8942,7 +9314,7 @@
       <c r="R20" s="324"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
       <c r="B21" s="103" t="s">
         <v>40</v>
@@ -8973,7 +9345,7 @@
       <c r="R21" s="324"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
       <c r="B22" s="103" t="s">
         <v>41</v>
@@ -9004,7 +9376,7 @@
       <c r="R22" s="324"/>
       <c r="S22" s="86"/>
     </row>
-    <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
       <c r="B23" s="551" t="s">
         <v>57</v>
@@ -9031,7 +9403,7 @@
       <c r="R23" s="324"/>
       <c r="S23" s="86"/>
     </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
       <c r="B24" s="589" t="s">
         <v>45</v>
@@ -9058,7 +9430,7 @@
       <c r="R24" s="326"/>
       <c r="S24" s="86"/>
     </row>
-    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="108"/>
       <c r="B25" s="109"/>
       <c r="C25" s="109"/>
@@ -9079,8 +9451,8 @@
       <c r="R25" s="111"/>
       <c r="S25" s="112"/>
     </row>
-    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="K27" s="564" t="s">
         <v>136</v>
       </c>
@@ -9091,7 +9463,7 @@
       <c r="P27" s="491"/>
       <c r="Q27" s="491"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="N28" s="561" t="s">
         <v>140</v>
       </c>
@@ -9145,7 +9517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -9156,20 +9528,20 @@
       <selection pane="bottomRight" activeCell="N27" sqref="N27:Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
     <col min="4" max="5" width="6" style="64" customWidth="1"/>
     <col min="6" max="6" width="7" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -9190,7 +9562,7 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
       <c r="B2" s="600">
         <f>'Чист. форма (3)'!B2:D4</f>
@@ -9221,7 +9593,7 @@
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
       <c r="B3" s="603"/>
       <c r="C3" s="604"/>
@@ -9244,7 +9616,7 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
       <c r="B4" s="606"/>
       <c r="C4" s="607"/>
@@ -9265,7 +9637,7 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="592" t="s">
         <v>13</v>
@@ -9291,7 +9663,7 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="592" t="s">
         <v>12</v>
@@ -9317,7 +9689,7 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="556" t="s">
         <v>14</v>
@@ -9348,7 +9720,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -9369,7 +9741,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -9402,7 +9774,7 @@
       <c r="R9" s="318"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -9433,7 +9805,7 @@
       <c r="R10" s="320"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>28</v>
@@ -9466,7 +9838,7 @@
       <c r="R11" s="322"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>4</v>
@@ -9497,7 +9869,7 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>5</v>
@@ -9528,7 +9900,7 @@
       <c r="R13" s="322"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="598" t="s">
         <v>135</v>
@@ -9555,7 +9927,7 @@
       <c r="R14" s="324"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="551" t="s">
         <v>144</v>
@@ -9580,7 +9952,7 @@
       <c r="R15" s="324"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
       <c r="B16" s="589" t="s">
         <v>45</v>
@@ -9607,7 +9979,7 @@
       <c r="R16" s="326"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="108"/>
       <c r="B17" s="109"/>
       <c r="C17" s="109"/>
@@ -9628,11 +10000,11 @@
       <c r="R17" s="111"/>
       <c r="S17" s="112"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="121"/>
       <c r="P18" s="122"/>
     </row>
-    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
       <c r="L19" s="564" t="s">
         <v>136</v>
@@ -9644,7 +10016,7 @@
       <c r="Q19" s="491"/>
       <c r="R19" s="491"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O20" s="561" t="s">
         <v>140</v>
       </c>
@@ -9707,7 +10079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -9717,20 +10089,20 @@
       <selection pane="bottomRight" activeCell="C17" sqref="C17:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.5546875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.5703125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -9751,7 +10123,7 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
       <c r="B2" s="565"/>
       <c r="C2" s="566"/>
@@ -9779,7 +10151,7 @@
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
       <c r="B3" s="568"/>
       <c r="C3" s="569"/>
@@ -9802,7 +10174,7 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
       <c r="B4" s="571"/>
       <c r="C4" s="572"/>
@@ -9823,7 +10195,7 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="592" t="s">
         <v>13</v>
@@ -9849,7 +10221,7 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="592" t="s">
         <v>12</v>
@@ -9875,7 +10247,7 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="556" t="s">
         <v>14</v>
@@ -9906,7 +10278,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -9927,7 +10299,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -9963,7 +10335,7 @@
       <c r="W9" s="91"/>
       <c r="X9" s="91"/>
     </row>
-    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -9997,7 +10369,7 @@
       <c r="W10" s="91"/>
       <c r="X10" s="91"/>
     </row>
-    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>3</v>
@@ -10033,7 +10405,7 @@
       <c r="W11" s="100"/>
       <c r="X11" s="91"/>
     </row>
-    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>27</v>
@@ -10069,7 +10441,7 @@
       <c r="W12" s="101"/>
       <c r="X12" s="91"/>
     </row>
-    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>4</v>
@@ -10103,7 +10475,7 @@
       <c r="W13" s="101"/>
       <c r="X13" s="91"/>
     </row>
-    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>5</v>
@@ -10137,7 +10509,7 @@
       <c r="W14" s="101"/>
       <c r="X14" s="91"/>
     </row>
-    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>30</v>
@@ -10173,7 +10545,7 @@
       <c r="W15" s="100"/>
       <c r="X15" s="91"/>
     </row>
-    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>31</v>
@@ -10209,7 +10581,7 @@
       <c r="W16" s="101"/>
       <c r="X16" s="91"/>
     </row>
-    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="103" t="s">
         <v>32</v>
@@ -10243,7 +10615,7 @@
       <c r="W17" s="100"/>
       <c r="X17" s="91"/>
     </row>
-    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="103" t="s">
         <v>33</v>
@@ -10277,7 +10649,7 @@
       <c r="W18" s="100"/>
       <c r="X18" s="91"/>
     </row>
-    <row r="19" spans="1:24" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="103" t="s">
         <v>34</v>
@@ -10311,7 +10683,7 @@
       <c r="W19" s="100"/>
       <c r="X19" s="91"/>
     </row>
-    <row r="20" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="103" t="s">
         <v>35</v>
@@ -10344,7 +10716,7 @@
       <c r="R20" s="326"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="108"/>
       <c r="B21" s="109"/>
       <c r="C21" s="109"/>
@@ -10365,8 +10737,8 @@
       <c r="R21" s="111"/>
       <c r="S21" s="112"/>
     </row>
-    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L23" s="629" t="s">
         <v>136</v>
       </c>
@@ -10377,7 +10749,7 @@
       <c r="Q23" s="491"/>
       <c r="R23" s="491"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="O24" s="561" t="s">
         <v>140</v>
       </c>
@@ -10431,7 +10803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -10441,20 +10813,20 @@
       <selection pane="bottomRight" activeCell="O18" sqref="O18:R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="5" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="5" customWidth="1"/>
     <col min="8" max="18" width="9" style="5" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="5"/>
+    <col min="19" max="19" width="0.85546875" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -10475,7 +10847,7 @@
       <c r="R1" s="3"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="565"/>
       <c r="C2" s="566"/>
@@ -10492,7 +10864,7 @@
       <c r="J2" s="582"/>
       <c r="K2" s="585">
         <f>Данные!B21</f>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="L2" s="586"/>
       <c r="M2" s="7"/>
@@ -10503,7 +10875,7 @@
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="568"/>
       <c r="C3" s="569"/>
@@ -10526,7 +10898,7 @@
       <c r="R3" s="15"/>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="571"/>
       <c r="C4" s="572"/>
@@ -10547,7 +10919,7 @@
       <c r="R4" s="15"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="592" t="s">
         <v>13</v>
@@ -10573,7 +10945,7 @@
       <c r="R5" s="15"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="592" t="s">
         <v>12</v>
@@ -10599,7 +10971,7 @@
       <c r="R6" s="15"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="556" t="s">
         <v>14</v>
@@ -10630,7 +11002,7 @@
       <c r="R7" s="23"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
@@ -10651,7 +11023,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="32"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -10684,7 +11056,7 @@
       <c r="R9" s="328"/>
       <c r="S9" s="38"/>
     </row>
-    <row r="10" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="50" t="s">
         <v>6</v>
@@ -10715,7 +11087,7 @@
       <c r="R10" s="330"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="50" t="s">
         <v>2</v>
@@ -10746,7 +11118,7 @@
       <c r="R11" s="330"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="50" t="s">
         <v>3</v>
@@ -10779,7 +11151,7 @@
       <c r="R12" s="330"/>
       <c r="S12" s="32"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="50" t="s">
         <v>7</v>
@@ -10812,7 +11184,7 @@
       <c r="R13" s="330"/>
       <c r="S13" s="32"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="50" t="s">
         <v>8</v>
@@ -10845,7 +11217,7 @@
       <c r="R14" s="330"/>
       <c r="S14" s="32"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="57" t="s">
         <v>4</v>
@@ -10878,7 +11250,7 @@
       <c r="R15" s="332"/>
       <c r="S15" s="32"/>
     </row>
-    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -10899,8 +11271,8 @@
       <c r="R16" s="46"/>
       <c r="S16" s="43"/>
     </row>
-    <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L18" s="629" t="s">
         <v>136</v>
       </c>
@@ -10911,7 +11283,7 @@
       <c r="Q18" s="491"/>
       <c r="R18" s="491"/>
     </row>
-    <row r="19" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="12:18" x14ac:dyDescent="0.2">
       <c r="O19" s="561" t="s">
         <v>140</v>
       </c>
@@ -10966,7 +11338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10979,20 +11351,20 @@
       <selection pane="bottomRight" activeCell="O23" sqref="O23:R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
-    <col min="8" max="18" width="8.88671875" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
+    <col min="8" max="18" width="8.85546875" style="64" customWidth="1"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11013,7 +11385,7 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
       <c r="B2" s="600"/>
       <c r="C2" s="601"/>
@@ -11041,7 +11413,7 @@
       <c r="R2" s="633"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
       <c r="B3" s="603"/>
       <c r="C3" s="604"/>
@@ -11064,7 +11436,7 @@
       <c r="R3" s="636"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
       <c r="B4" s="606"/>
       <c r="C4" s="607"/>
@@ -11085,7 +11457,7 @@
       <c r="R4" s="636"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="592" t="s">
         <v>13</v>
@@ -11111,7 +11483,7 @@
       <c r="R5" s="636"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="592" t="s">
         <v>12</v>
@@ -11137,7 +11509,7 @@
       <c r="R6" s="636"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="556" t="s">
         <v>14</v>
@@ -11168,7 +11540,7 @@
       <c r="R7" s="636"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -11189,7 +11561,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -11222,7 +11594,7 @@
       <c r="R9" s="318"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -11255,7 +11627,7 @@
       <c r="R10" s="320"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="193" t="s">
         <v>26</v>
@@ -11286,7 +11658,7 @@
       <c r="R11" s="322"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="193" t="s">
         <v>2</v>
@@ -11317,7 +11689,7 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" s="486" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="486" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="476"/>
       <c r="B13" s="477" t="s">
         <v>3</v>
@@ -11350,7 +11722,7 @@
       <c r="R13" s="484"/>
       <c r="S13" s="485"/>
     </row>
-    <row r="14" spans="1:19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>27</v>
@@ -11383,7 +11755,7 @@
       <c r="R14" s="322"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>28</v>
@@ -11414,7 +11786,7 @@
       <c r="R15" s="322"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>9</v>
@@ -11445,7 +11817,7 @@
       <c r="R16" s="322"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="96" t="s">
         <v>29</v>
@@ -11476,7 +11848,7 @@
       <c r="R17" s="322"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="96" t="s">
         <v>30</v>
@@ -11509,7 +11881,7 @@
       <c r="R18" s="322"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="96" t="s">
         <v>35</v>
@@ -11540,7 +11912,7 @@
       <c r="R19" s="322"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="589" t="s">
         <v>48</v>
@@ -11567,7 +11939,7 @@
       <c r="R20" s="326"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="108"/>
       <c r="B21" s="109"/>
       <c r="C21" s="109"/>
@@ -11588,10 +11960,10 @@
       <c r="R21" s="111"/>
       <c r="S21" s="112"/>
     </row>
-    <row r="22" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B22" s="121"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L23" s="629" t="s">
         <v>136</v>
       </c>
@@ -11602,7 +11974,7 @@
       <c r="Q23" s="491"/>
       <c r="R23" s="491"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O24" s="561" t="s">
         <v>140</v>
       </c>
@@ -11655,7 +12027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -11665,19 +12037,19 @@
       <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.109375" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.140625" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11698,7 +12070,7 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
       <c r="B2" s="600"/>
       <c r="C2" s="601"/>
@@ -11726,7 +12098,7 @@
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
       <c r="B3" s="603"/>
       <c r="C3" s="604"/>
@@ -11749,7 +12121,7 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
       <c r="B4" s="606"/>
       <c r="C4" s="607"/>
@@ -11770,7 +12142,7 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="592" t="s">
         <v>13</v>
@@ -11796,7 +12168,7 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="592" t="s">
         <v>12</v>
@@ -11822,7 +12194,7 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="556" t="s">
         <v>14</v>
@@ -11853,7 +12225,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -11874,7 +12246,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -11907,7 +12279,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="127" t="s">
         <v>26</v>
@@ -11938,7 +12310,7 @@
       <c r="R10" s="99"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="127" t="s">
         <v>2</v>
@@ -11969,7 +12341,7 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" s="486" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="486" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="476"/>
       <c r="B12" s="487" t="s">
         <v>3</v>
@@ -12002,7 +12374,7 @@
       <c r="R12" s="490"/>
       <c r="S12" s="485"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="127" t="s">
         <v>27</v>
@@ -12035,7 +12407,7 @@
       <c r="R13" s="99"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="127" t="s">
         <v>9</v>
@@ -12066,7 +12438,7 @@
       <c r="R14" s="99"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="127" t="s">
         <v>5</v>
@@ -12099,7 +12471,7 @@
       <c r="R15" s="99"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
       <c r="B16" s="589" t="s">
         <v>50</v>
@@ -12126,7 +12498,7 @@
       <c r="R16" s="120"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="108"/>
       <c r="B17" s="126"/>
       <c r="C17" s="125"/>
@@ -12147,10 +12519,10 @@
       <c r="R17" s="111"/>
       <c r="S17" s="112"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="121"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L19" s="629" t="s">
         <v>136</v>
       </c>
@@ -12161,7 +12533,7 @@
       <c r="Q19" s="491"/>
       <c r="R19" s="491"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O20" s="561" t="s">
         <v>140</v>
       </c>
@@ -12216,7 +12588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12226,20 +12598,20 @@
       <selection pane="bottomRight" activeCell="O21" sqref="O21:R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="162" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="162" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="162" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="162" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="162" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="162" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="162" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="162" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="162" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="162" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="162" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="162" customWidth="1"/>
     <col min="8" max="18" width="9" style="162" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="162" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="162"/>
+    <col min="19" max="19" width="1.42578125" style="162" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="162"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="158"/>
       <c r="B1" s="159"/>
       <c r="C1" s="160"/>
@@ -12260,7 +12632,7 @@
       <c r="R1" s="160"/>
       <c r="S1" s="161"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
       <c r="B2" s="600"/>
       <c r="C2" s="601"/>
@@ -12288,7 +12660,7 @@
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
       <c r="B3" s="603"/>
       <c r="C3" s="604"/>
@@ -12311,7 +12683,7 @@
       <c r="R3" s="171"/>
       <c r="S3" s="168"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
       <c r="B4" s="606"/>
       <c r="C4" s="607"/>
@@ -12332,7 +12704,7 @@
       <c r="R4" s="171"/>
       <c r="S4" s="168"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
       <c r="B5" s="592" t="s">
         <v>13</v>
@@ -12358,7 +12730,7 @@
       <c r="R5" s="171"/>
       <c r="S5" s="168"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
       <c r="B6" s="592" t="s">
         <v>12</v>
@@ -12384,7 +12756,7 @@
       <c r="R6" s="171"/>
       <c r="S6" s="168"/>
     </row>
-    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
       <c r="B7" s="556" t="s">
         <v>14</v>
@@ -12415,7 +12787,7 @@
       <c r="R7" s="171"/>
       <c r="S7" s="168"/>
     </row>
-    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="173"/>
       <c r="B8" s="174"/>
       <c r="C8" s="175"/>
@@ -12436,7 +12808,7 @@
       <c r="R8" s="178"/>
       <c r="S8" s="179"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="180"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -12469,7 +12841,7 @@
       <c r="R9" s="338"/>
       <c r="S9" s="195"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="173"/>
       <c r="B10" s="182" t="s">
         <v>25</v>
@@ -12502,7 +12874,7 @@
       <c r="R10" s="340"/>
       <c r="S10" s="179"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="173"/>
       <c r="B11" s="184" t="s">
         <v>26</v>
@@ -12533,7 +12905,7 @@
       <c r="R11" s="342"/>
       <c r="S11" s="179"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="173"/>
       <c r="B12" s="184" t="s">
         <v>2</v>
@@ -12566,7 +12938,7 @@
       <c r="R12" s="342"/>
       <c r="S12" s="179"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="173"/>
       <c r="B13" s="184" t="s">
         <v>3</v>
@@ -12599,7 +12971,7 @@
       <c r="R13" s="342"/>
       <c r="S13" s="179"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="173"/>
       <c r="B14" s="184" t="s">
         <v>27</v>
@@ -12632,7 +13004,7 @@
       <c r="R14" s="342"/>
       <c r="S14" s="179"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="173"/>
       <c r="B15" s="184" t="s">
         <v>28</v>
@@ -12665,7 +13037,7 @@
       <c r="R15" s="342"/>
       <c r="S15" s="179"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="173"/>
       <c r="B16" s="184" t="s">
         <v>4</v>
@@ -12698,7 +13070,7 @@
       <c r="R16" s="342"/>
       <c r="S16" s="179"/>
     </row>
-    <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="173"/>
       <c r="B17" s="184" t="s">
         <v>9</v>
@@ -12729,7 +13101,7 @@
       <c r="R17" s="342"/>
       <c r="S17" s="179"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="173"/>
       <c r="B18" s="184" t="s">
         <v>5</v>
@@ -12762,7 +13134,7 @@
       <c r="R18" s="342"/>
       <c r="S18" s="179"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="186"/>
       <c r="B19" s="187"/>
       <c r="C19" s="187"/>
@@ -12783,8 +13155,8 @@
       <c r="R19" s="187"/>
       <c r="S19" s="189"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L21" s="629" t="s">
         <v>136</v>
       </c>
@@ -12795,7 +13167,7 @@
       <c r="Q21" s="491"/>
       <c r="R21" s="491"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O22" s="561" t="s">
         <v>140</v>
       </c>
@@ -12847,7 +13219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12857,20 +13229,20 @@
       <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="201" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="201" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="201" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="201" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="201" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="201" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="201" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="201" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="201" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="201" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="201" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="201" customWidth="1"/>
     <col min="8" max="18" width="9" style="201" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="201" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="201"/>
+    <col min="19" max="19" width="1.42578125" style="201" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="201"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="197"/>
       <c r="B1" s="198"/>
       <c r="C1" s="199"/>
@@ -12891,7 +13263,7 @@
       <c r="R1" s="199"/>
       <c r="S1" s="200"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
       <c r="B2" s="600"/>
       <c r="C2" s="601"/>
@@ -12919,7 +13291,7 @@
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
       <c r="B3" s="603"/>
       <c r="C3" s="604"/>
@@ -12942,7 +13314,7 @@
       <c r="R3" s="210"/>
       <c r="S3" s="207"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
       <c r="B4" s="606"/>
       <c r="C4" s="607"/>
@@ -12963,7 +13335,7 @@
       <c r="R4" s="210"/>
       <c r="S4" s="207"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
       <c r="B5" s="592" t="s">
         <v>13</v>
@@ -12989,7 +13361,7 @@
       <c r="R5" s="210"/>
       <c r="S5" s="207"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
       <c r="B6" s="592" t="s">
         <v>12</v>
@@ -13015,7 +13387,7 @@
       <c r="R6" s="210"/>
       <c r="S6" s="207"/>
     </row>
-    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
       <c r="B7" s="556" t="s">
         <v>14</v>
@@ -13046,7 +13418,7 @@
       <c r="R7" s="210"/>
       <c r="S7" s="207"/>
     </row>
-    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="212"/>
       <c r="B8" s="213"/>
       <c r="C8" s="214"/>
@@ -13067,7 +13439,7 @@
       <c r="R8" s="217"/>
       <c r="S8" s="218"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="219"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -13100,7 +13472,7 @@
       <c r="R9" s="221"/>
       <c r="S9" s="222"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="212"/>
       <c r="B10" s="223" t="s">
         <v>25</v>
@@ -13131,7 +13503,7 @@
       <c r="R10" s="227"/>
       <c r="S10" s="218"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="212"/>
       <c r="B11" s="228" t="s">
         <v>26</v>
@@ -13162,7 +13534,7 @@
       <c r="R11" s="232"/>
       <c r="S11" s="218"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="212"/>
       <c r="B12" s="228" t="s">
         <v>2</v>
@@ -13193,7 +13565,7 @@
       <c r="R12" s="232"/>
       <c r="S12" s="218"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="212"/>
       <c r="B13" s="228" t="s">
         <v>3</v>
@@ -13224,7 +13596,7 @@
       <c r="R13" s="232"/>
       <c r="S13" s="218"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="212"/>
       <c r="B14" s="228" t="s">
         <v>27</v>
@@ -13255,7 +13627,7 @@
       <c r="R14" s="232"/>
       <c r="S14" s="218"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="212"/>
       <c r="B15" s="228" t="s">
         <v>28</v>
@@ -13286,7 +13658,7 @@
       <c r="R15" s="232"/>
       <c r="S15" s="218"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="212"/>
       <c r="B16" s="228" t="s">
         <v>9</v>
@@ -13317,7 +13689,7 @@
       <c r="R16" s="232"/>
       <c r="S16" s="218"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="212"/>
       <c r="B17" s="228" t="s">
         <v>5</v>
@@ -13348,7 +13720,7 @@
       <c r="R17" s="232"/>
       <c r="S17" s="218"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
       <c r="B18" s="639" t="s">
         <v>54</v>
@@ -13375,7 +13747,7 @@
       <c r="R18" s="236"/>
       <c r="S18" s="218"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="237"/>
       <c r="B19" s="238"/>
       <c r="C19" s="238"/>
@@ -13396,8 +13768,8 @@
       <c r="R19" s="238"/>
       <c r="S19" s="240"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L21" s="629" t="s">
         <v>136</v>
       </c>
@@ -13408,7 +13780,7 @@
       <c r="Q21" s="491"/>
       <c r="R21" s="491"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O22" s="561" t="s">
         <v>140</v>
       </c>
@@ -13470,7 +13842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -13480,20 +13852,20 @@
       <selection pane="bottomRight" activeCell="O19" sqref="O19:R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -13514,7 +13886,7 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
       <c r="B2" s="600"/>
       <c r="C2" s="601"/>
@@ -13542,7 +13914,7 @@
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
       <c r="B3" s="603"/>
       <c r="C3" s="604"/>
@@ -13565,7 +13937,7 @@
       <c r="R3" s="138"/>
       <c r="S3" s="135"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
       <c r="B4" s="606"/>
       <c r="C4" s="607"/>
@@ -13586,7 +13958,7 @@
       <c r="R4" s="138"/>
       <c r="S4" s="135"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
       <c r="B5" s="592" t="s">
         <v>13</v>
@@ -13612,7 +13984,7 @@
       <c r="R5" s="138"/>
       <c r="S5" s="135"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
       <c r="B6" s="592" t="s">
         <v>12</v>
@@ -13638,7 +14010,7 @@
       <c r="R6" s="138"/>
       <c r="S6" s="135"/>
     </row>
-    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
       <c r="B7" s="556" t="s">
         <v>14</v>
@@ -13669,7 +14041,7 @@
       <c r="R7" s="138"/>
       <c r="S7" s="135"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="140"/>
       <c r="C8" s="141"/>
@@ -13690,7 +14062,7 @@
       <c r="R8" s="144"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="145"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -13723,7 +14095,7 @@
       <c r="R9" s="148"/>
       <c r="S9" s="149"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="150"/>
       <c r="B10" s="151" t="s">
         <v>25</v>
@@ -13754,7 +14126,7 @@
       <c r="R10" s="153"/>
       <c r="S10" s="154"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="150"/>
       <c r="B11" s="151" t="s">
         <v>26</v>
@@ -13785,7 +14157,7 @@
       <c r="R11" s="153"/>
       <c r="S11" s="154"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="150"/>
       <c r="B12" s="151" t="s">
         <v>2</v>
@@ -13818,7 +14190,7 @@
       <c r="R12" s="153"/>
       <c r="S12" s="154"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="150"/>
       <c r="B13" s="151" t="s">
         <v>3</v>
@@ -13849,7 +14221,7 @@
       <c r="R13" s="153"/>
       <c r="S13" s="154"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="150"/>
       <c r="B14" s="151" t="s">
         <v>27</v>
@@ -13882,7 +14254,7 @@
       <c r="R14" s="153"/>
       <c r="S14" s="154"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="150"/>
       <c r="B15" s="151" t="s">
         <v>28</v>
@@ -13915,7 +14287,7 @@
       <c r="R15" s="153"/>
       <c r="S15" s="154"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="150"/>
       <c r="B16" s="151" t="s">
         <v>4</v>
@@ -13948,7 +14320,7 @@
       <c r="R16" s="153"/>
       <c r="S16" s="154"/>
     </row>
-    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="108"/>
       <c r="B17" s="109"/>
       <c r="C17" s="109"/>
@@ -13969,8 +14341,8 @@
       <c r="R17" s="111"/>
       <c r="S17" s="112"/>
     </row>
-    <row r="18" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="L19" s="629" t="s">
         <v>136</v>
       </c>
@@ -13981,7 +14353,7 @@
       <c r="Q19" s="491"/>
       <c r="R19" s="491"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O20" s="561" t="s">
         <v>140</v>
       </c>
@@ -14024,30 +14396,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="380"/>
       <c r="B1" s="473" t="s">
         <v>109</v>
@@ -14066,7 +14438,7 @@
       <c r="K1" s="380"/>
       <c r="L1" s="380"/>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="380"/>
       <c r="B2" s="380" t="s">
         <v>149</v>
@@ -14082,7 +14454,7 @@
       <c r="K2" s="381"/>
       <c r="L2" s="381"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="522" t="s">
         <v>143</v>
       </c>
@@ -14098,7 +14470,7 @@
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
     </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="383"/>
       <c r="B4" s="384"/>
       <c r="C4" s="384"/>
@@ -14110,7 +14482,7 @@
       <c r="K4" s="382"/>
       <c r="M4" s="494"/>
     </row>
-    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="387" t="s">
         <v>110</v>
       </c>
@@ -14140,7 +14512,7 @@
       <c r="K5" s="391"/>
       <c r="L5" s="391"/>
     </row>
-    <row r="6" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="392">
         <v>1</v>
       </c>
@@ -14170,7 +14542,7 @@
       <c r="K6" s="383"/>
       <c r="L6" s="397"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="414"/>
       <c r="B7" s="496"/>
       <c r="C7" s="383"/>
@@ -14182,7 +14554,7 @@
       <c r="I7" s="383"/>
       <c r="J7" s="383"/>
     </row>
-    <row r="8" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="383"/>
       <c r="B8" s="417" t="s">
         <v>117</v>
@@ -14198,7 +14570,7 @@
       <c r="K8" s="418"/>
       <c r="L8" s="418"/>
     </row>
-    <row r="9" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="387" t="s">
         <v>118</v>
       </c>
@@ -14230,80 +14602,84 @@
       <c r="K9" s="391"/>
       <c r="L9" s="391"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="422">
         <f>D6*700000</f>
         <v>13300000</v>
       </c>
-      <c r="B10" s="423">
-        <v>43759</v>
-      </c>
-      <c r="C10" s="424">
-        <v>43765</v>
-      </c>
-      <c r="D10" s="423">
-        <v>43769</v>
-      </c>
+      <c r="B10" s="423"/>
+      <c r="C10" s="424"/>
+      <c r="D10" s="423"/>
       <c r="E10" s="425">
-        <v>948096</v>
+        <v>400000</v>
       </c>
       <c r="F10" s="425">
-        <v>1031915</v>
+        <v>480000</v>
       </c>
       <c r="G10" s="426">
         <f>F10/A$10</f>
-        <v>7.75875939849624E-2</v>
+        <v>3.6090225563909777E-2</v>
       </c>
       <c r="H10" s="427">
         <f>A10-F10</f>
-        <v>12268085</v>
+        <v>12820000</v>
       </c>
       <c r="I10" s="428">
         <f>1-G10</f>
-        <v>0.9224124060150376</v>
+        <v>0.96390977443609027</v>
       </c>
       <c r="J10" s="429"/>
       <c r="K10" s="403"/>
       <c r="L10" s="403"/>
     </row>
-    <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="430"/>
-      <c r="B11" s="431"/>
-      <c r="C11" s="431"/>
-      <c r="D11" s="431"/>
-      <c r="E11" s="432"/>
-      <c r="F11" s="432"/>
+      <c r="B11" s="436">
+        <v>44082</v>
+      </c>
+      <c r="C11" s="436">
+        <v>44083</v>
+      </c>
+      <c r="D11" s="436">
+        <v>44091</v>
+      </c>
+      <c r="E11" s="437">
+        <v>428400</v>
+      </c>
+      <c r="F11" s="437">
+        <v>454196</v>
+      </c>
       <c r="G11" s="426">
         <f>F11/A$10</f>
-        <v>0</v>
+        <v>3.4150075187969926E-2</v>
       </c>
       <c r="H11" s="433">
         <f>H10-F11</f>
-        <v>12268085</v>
+        <v>12365804</v>
       </c>
       <c r="I11" s="434">
         <f>I10-G11</f>
-        <v>0.9224124060150376</v>
+        <v>0.9297596992481203</v>
       </c>
       <c r="J11" s="383"/>
       <c r="K11" s="383"/>
       <c r="L11" s="383"/>
     </row>
-    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="435"/>
       <c r="B12" s="436"/>
       <c r="C12" s="436"/>
       <c r="D12" s="436"/>
       <c r="E12" s="437"/>
       <c r="F12" s="437"/>
-      <c r="G12" s="438"/>
-      <c r="H12" s="439"/>
-      <c r="I12" s="440"/>
+      <c r="G12" s="426"/>
+      <c r="H12" s="433"/>
+      <c r="I12" s="434"/>
       <c r="J12" s="429"/>
       <c r="K12" s="403"/>
       <c r="L12" s="403"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="435"/>
       <c r="B13" s="375"/>
       <c r="C13" s="375"/>
@@ -14317,7 +14693,7 @@
       <c r="K13" s="429"/>
       <c r="L13" s="383"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="435"/>
       <c r="B14" s="436"/>
       <c r="C14" s="436"/>
@@ -14331,7 +14707,7 @@
       <c r="K14" s="443"/>
       <c r="L14" s="383"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="435"/>
       <c r="B15" s="436"/>
       <c r="C15" s="436"/>
@@ -14345,7 +14721,7 @@
       <c r="K15" s="429"/>
       <c r="L15" s="383"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="435"/>
       <c r="B16" s="436"/>
       <c r="C16" s="436"/>
@@ -14359,7 +14735,7 @@
       <c r="K16" s="429"/>
       <c r="L16" s="383"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="435"/>
       <c r="B17" s="436"/>
       <c r="C17" s="436"/>
@@ -14373,7 +14749,7 @@
       <c r="K17" s="429"/>
       <c r="L17" s="383"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="435"/>
       <c r="B18" s="436"/>
       <c r="C18" s="436"/>
@@ -14387,7 +14763,7 @@
       <c r="K18" s="429"/>
       <c r="L18" s="383"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="435"/>
       <c r="B19" s="436"/>
       <c r="C19" s="436"/>
@@ -14401,7 +14777,7 @@
       <c r="K19" s="429"/>
       <c r="L19" s="383"/>
     </row>
-    <row r="20" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="446"/>
       <c r="B20" s="447"/>
       <c r="C20" s="447"/>
@@ -14415,7 +14791,7 @@
       <c r="K20" s="383"/>
       <c r="L20" s="383"/>
     </row>
-    <row r="21" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="453" t="s">
         <v>127</v>
       </c>
@@ -14424,29 +14800,29 @@
       <c r="D21" s="455"/>
       <c r="E21" s="456">
         <f>SUM(E10:E20)</f>
-        <v>948096</v>
+        <v>828400</v>
       </c>
       <c r="F21" s="457">
         <f>SUM(F10:F20)</f>
-        <v>1031915</v>
+        <v>934196</v>
       </c>
       <c r="G21" s="458">
         <f>SUM(G10:G20)</f>
-        <v>7.75875939849624E-2</v>
+        <v>7.0240300751879703E-2</v>
       </c>
       <c r="H21" s="459">
         <f>A10-F21</f>
-        <v>12268085</v>
+        <v>12365804</v>
       </c>
       <c r="I21" s="460">
         <f>1-G21</f>
-        <v>0.9224124060150376</v>
+        <v>0.9297596992481203</v>
       </c>
       <c r="J21" s="461"/>
       <c r="K21" s="461"/>
       <c r="L21" s="461"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="383"/>
       <c r="B24" s="383"/>
       <c r="C24" s="383"/>
@@ -14458,7 +14834,7 @@
       <c r="I24" s="383"/>
       <c r="J24" s="383"/>
     </row>
-    <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="523" t="s">
         <v>128</v>
       </c>
@@ -14472,7 +14848,7 @@
       <c r="I25" s="383"/>
       <c r="J25" s="383"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="524" t="s">
         <v>129</v>
       </c>
@@ -14490,19 +14866,19 @@
       <c r="I26" s="383"/>
       <c r="J26" s="383"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="525">
         <f>A10-F21</f>
-        <v>12268085</v>
+        <v>12365804</v>
       </c>
       <c r="B27" s="526"/>
       <c r="C27" s="463">
         <f>1-G21</f>
-        <v>0.9224124060150376</v>
+        <v>0.9297596992481203</v>
       </c>
       <c r="D27" s="464">
         <f>(C27/0.8)*100</f>
-        <v>115.30155075187969</v>
+        <v>116.21996240601501</v>
       </c>
       <c r="E27" s="492" t="s">
         <v>132</v>
@@ -14513,7 +14889,7 @@
       <c r="I27" s="492"/>
       <c r="J27" s="492"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="383"/>
       <c r="B28" s="383"/>
       <c r="C28" s="383"/>
@@ -14521,7 +14897,7 @@
       <c r="E28" s="383"/>
       <c r="F28" s="383"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="383"/>
       <c r="B29" s="383"/>
       <c r="C29" s="383"/>
@@ -14536,7 +14912,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="383"/>
       <c r="B30" s="466"/>
       <c r="C30" s="466"/>
@@ -14548,7 +14924,7 @@
       <c r="I30" s="383"/>
       <c r="J30" s="383"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="467"/>
       <c r="B31" s="467"/>
       <c r="C31" s="467"/>
@@ -14560,7 +14936,7 @@
       <c r="I31" s="517"/>
       <c r="J31" s="518"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="468"/>
       <c r="B32" s="469"/>
       <c r="C32" s="469"/>
@@ -14570,7 +14946,7 @@
       <c r="G32" s="413"/>
       <c r="H32" s="469"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="468"/>
       <c r="B33" s="469"/>
       <c r="C33" s="469"/>
@@ -14580,7 +14956,7 @@
       <c r="G33" s="413"/>
       <c r="H33" s="469"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="468"/>
       <c r="B34" s="469"/>
       <c r="C34" s="469"/>
@@ -14590,7 +14966,7 @@
       <c r="G34" s="413"/>
       <c r="H34" s="469"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="468"/>
       <c r="B35" s="469"/>
       <c r="C35" s="469"/>
@@ -14600,7 +14976,7 @@
       <c r="G35" s="413"/>
       <c r="H35" s="469"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="468"/>
       <c r="B36" s="469"/>
       <c r="C36" s="469"/>
@@ -14610,7 +14986,7 @@
       <c r="G36" s="413"/>
       <c r="H36" s="469"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="468"/>
       <c r="B37" s="469"/>
       <c r="C37" s="403"/>
@@ -14620,7 +14996,7 @@
       <c r="G37" s="403"/>
       <c r="H37" s="403"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="468"/>
       <c r="B38" s="469"/>
       <c r="C38" s="469"/>
@@ -14630,7 +15006,7 @@
       <c r="G38" s="413"/>
       <c r="H38" s="469"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="468"/>
       <c r="B39" s="469"/>
       <c r="C39" s="469"/>
@@ -14640,7 +15016,7 @@
       <c r="G39" s="413"/>
       <c r="H39" s="469"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="468"/>
       <c r="B40" s="469"/>
       <c r="C40" s="469"/>
@@ -14650,7 +15026,7 @@
       <c r="G40" s="413"/>
       <c r="H40" s="469"/>
     </row>
-    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="383"/>
       <c r="B41" s="520"/>
       <c r="C41" s="520"/>
@@ -14662,7 +15038,7 @@
       <c r="I41" s="383"/>
       <c r="J41" s="383"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="467"/>
       <c r="B42" s="467"/>
       <c r="C42" s="467"/>
@@ -14674,7 +15050,7 @@
       <c r="I42" s="517"/>
       <c r="J42" s="518"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="468"/>
       <c r="B43" s="383"/>
       <c r="C43" s="383"/>
@@ -14686,7 +15062,7 @@
       <c r="I43" s="519"/>
       <c r="J43" s="519"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="468"/>
       <c r="B44" s="383"/>
       <c r="C44" s="383"/>
@@ -14698,7 +15074,7 @@
       <c r="I44" s="519"/>
       <c r="J44" s="519"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="383"/>
       <c r="B45" s="383"/>
       <c r="C45" s="383"/>
@@ -14708,11 +15084,11 @@
       <c r="G45" s="383"/>
       <c r="H45" s="383"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="517"/>
       <c r="C50" s="518"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" s="517"/>
       <c r="C57" s="518"/>
     </row>
@@ -14732,7 +15108,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="27" max="16383" man="1"/>
   </rowBreaks>
@@ -14740,7 +15116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -14750,20 +15126,20 @@
       <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="258" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="258" customWidth="1"/>
     <col min="2" max="2" width="5" style="258" customWidth="1"/>
     <col min="3" max="3" width="11" style="258" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="258" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="258" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="258" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="258" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="258" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="258" customWidth="1"/>
     <col min="8" max="18" width="9" style="258" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="258" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="258"/>
+    <col min="19" max="19" width="1.42578125" style="258" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="258"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="254"/>
       <c r="B1" s="255"/>
       <c r="C1" s="256"/>
@@ -14784,7 +15160,7 @@
       <c r="R1" s="256"/>
       <c r="S1" s="257"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
       <c r="B2" s="600"/>
       <c r="C2" s="601"/>
@@ -14812,7 +15188,7 @@
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
       <c r="B3" s="603"/>
       <c r="C3" s="604"/>
@@ -14835,7 +15211,7 @@
       <c r="R3" s="267"/>
       <c r="S3" s="264"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
       <c r="B4" s="606"/>
       <c r="C4" s="607"/>
@@ -14856,7 +15232,7 @@
       <c r="R4" s="267"/>
       <c r="S4" s="264"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
       <c r="B5" s="592" t="s">
         <v>13</v>
@@ -14882,7 +15258,7 @@
       <c r="R5" s="267"/>
       <c r="S5" s="264"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
       <c r="B6" s="592" t="s">
         <v>12</v>
@@ -14908,7 +15284,7 @@
       <c r="R6" s="267"/>
       <c r="S6" s="264"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
       <c r="B7" s="556" t="s">
         <v>14</v>
@@ -14939,7 +15315,7 @@
       <c r="R7" s="267"/>
       <c r="S7" s="264"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="269"/>
       <c r="B8" s="270"/>
       <c r="C8" s="271"/>
@@ -14960,7 +15336,7 @@
       <c r="R8" s="274"/>
       <c r="S8" s="275"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="276"/>
       <c r="B9" s="247" t="s">
         <v>17</v>
@@ -14993,7 +15369,7 @@
       <c r="R9" s="344"/>
       <c r="S9" s="278"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="269"/>
       <c r="B10" s="279" t="s">
         <v>25</v>
@@ -15024,7 +15400,7 @@
       <c r="R10" s="346"/>
       <c r="S10" s="275"/>
     </row>
-    <row r="11" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="269"/>
       <c r="B11" s="283" t="s">
         <v>26</v>
@@ -15055,7 +15431,7 @@
       <c r="R11" s="347"/>
       <c r="S11" s="275"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="269"/>
       <c r="B12" s="283" t="s">
         <v>2</v>
@@ -15086,7 +15462,7 @@
       <c r="R12" s="349"/>
       <c r="S12" s="275"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="269"/>
       <c r="B13" s="283" t="s">
         <v>28</v>
@@ -15119,7 +15495,7 @@
       <c r="R13" s="349"/>
       <c r="S13" s="275"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="269"/>
       <c r="B14" s="283" t="s">
         <v>4</v>
@@ -15150,7 +15526,7 @@
       <c r="R14" s="349"/>
       <c r="S14" s="275"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="269"/>
       <c r="B15" s="289"/>
       <c r="C15" s="290"/>
@@ -15171,7 +15547,7 @@
       <c r="R15" s="332"/>
       <c r="S15" s="275"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="292"/>
       <c r="B16" s="293"/>
       <c r="C16" s="293"/>
@@ -15192,8 +15568,8 @@
       <c r="R16" s="293"/>
       <c r="S16" s="295"/>
     </row>
-    <row r="17" spans="12:18" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L18" s="629" t="s">
         <v>136</v>
       </c>
@@ -15204,7 +15580,7 @@
       <c r="Q18" s="491"/>
       <c r="R18" s="491"/>
     </row>
-    <row r="19" spans="12:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="12:18" x14ac:dyDescent="0.2">
       <c r="O19" s="561" t="s">
         <v>140</v>
       </c>
@@ -15262,30 +15638,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="380"/>
       <c r="B1" s="473" t="s">
         <v>109</v>
@@ -15304,7 +15680,7 @@
       <c r="K1" s="380"/>
       <c r="L1" s="380"/>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="380"/>
       <c r="B2" s="380" t="s">
         <v>149</v>
@@ -15320,7 +15696,7 @@
       <c r="K2" s="381"/>
       <c r="L2" s="381"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="522" t="s">
         <v>143</v>
       </c>
@@ -15336,7 +15712,7 @@
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
     </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="383"/>
       <c r="B4" s="384"/>
       <c r="C4" s="384"/>
@@ -15348,7 +15724,7 @@
       <c r="K4" s="382"/>
       <c r="M4" s="494"/>
     </row>
-    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="387" t="s">
         <v>110</v>
       </c>
@@ -15378,7 +15754,7 @@
       <c r="K5" s="391"/>
       <c r="L5" s="391"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="392">
         <v>1</v>
       </c>
@@ -15408,7 +15784,7 @@
       <c r="K6" s="383"/>
       <c r="L6" s="397"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="414"/>
       <c r="B7" s="496"/>
       <c r="C7" s="383"/>
@@ -15420,7 +15796,7 @@
       <c r="I7" s="383"/>
       <c r="J7" s="383"/>
     </row>
-    <row r="8" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="383"/>
       <c r="B8" s="417" t="s">
         <v>117</v>
@@ -15436,7 +15812,7 @@
       <c r="K8" s="418"/>
       <c r="L8" s="418"/>
     </row>
-    <row r="9" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="387" t="s">
         <v>118</v>
       </c>
@@ -15468,80 +15844,103 @@
       <c r="K9" s="391"/>
       <c r="L9" s="391"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="422">
         <f>D6*700000</f>
         <v>12600000</v>
       </c>
-      <c r="B10" s="423">
-        <v>43881</v>
-      </c>
-      <c r="C10" s="424">
-        <v>43884</v>
-      </c>
-      <c r="D10" s="423">
-        <v>43885</v>
-      </c>
+      <c r="B10" s="423"/>
+      <c r="C10" s="424"/>
+      <c r="D10" s="423"/>
       <c r="E10" s="425">
-        <v>874640</v>
+        <v>400000</v>
       </c>
       <c r="F10" s="425">
-        <v>899444</v>
+        <v>450000</v>
       </c>
       <c r="G10" s="426">
         <f>F10/A$10</f>
-        <v>7.1384444444444445E-2</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="H10" s="427">
         <f>A10-F10</f>
-        <v>11700556</v>
+        <v>12150000</v>
       </c>
       <c r="I10" s="428">
         <f>1-G10</f>
-        <v>0.92861555555555553</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J10" s="429"/>
       <c r="K10" s="403"/>
       <c r="L10" s="403"/>
     </row>
-    <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="430"/>
-      <c r="B11" s="431"/>
-      <c r="C11" s="431"/>
-      <c r="D11" s="431"/>
-      <c r="E11" s="432"/>
-      <c r="F11" s="432"/>
+      <c r="B11" s="423">
+        <v>43881</v>
+      </c>
+      <c r="C11" s="424">
+        <v>43884</v>
+      </c>
+      <c r="D11" s="423">
+        <v>43885</v>
+      </c>
+      <c r="E11" s="425">
+        <v>874640</v>
+      </c>
+      <c r="F11" s="425">
+        <v>899444</v>
+      </c>
       <c r="G11" s="426">
         <f>F11/A$10</f>
-        <v>0</v>
+        <v>7.1384444444444445E-2</v>
       </c>
       <c r="H11" s="433">
         <f>H10-F11</f>
-        <v>11700556</v>
+        <v>11250556</v>
       </c>
       <c r="I11" s="434">
         <f>I10-G11</f>
-        <v>0.92861555555555553</v>
+        <v>0.89290126984126983</v>
       </c>
       <c r="J11" s="383"/>
       <c r="K11" s="383"/>
       <c r="L11" s="383"/>
     </row>
-    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="435"/>
-      <c r="B12" s="436"/>
-      <c r="C12" s="436"/>
-      <c r="D12" s="436"/>
-      <c r="E12" s="437"/>
-      <c r="F12" s="437"/>
-      <c r="G12" s="438"/>
-      <c r="H12" s="439"/>
-      <c r="I12" s="440"/>
+      <c r="B12" s="431">
+        <v>44078</v>
+      </c>
+      <c r="C12" s="431">
+        <v>44081</v>
+      </c>
+      <c r="D12" s="431">
+        <v>44091</v>
+      </c>
+      <c r="E12" s="432">
+        <v>842688</v>
+      </c>
+      <c r="F12" s="432">
+        <v>883198</v>
+      </c>
+      <c r="G12" s="426">
+        <f>F12/A$10</f>
+        <v>7.009507936507936E-2</v>
+      </c>
+      <c r="H12" s="433">
+        <f>H11-F12</f>
+        <v>10367358</v>
+      </c>
+      <c r="I12" s="434">
+        <f>I11-G12</f>
+        <v>0.82280619047619052</v>
+      </c>
       <c r="J12" s="429"/>
       <c r="K12" s="403"/>
       <c r="L12" s="403"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="435"/>
       <c r="B13" s="375"/>
       <c r="C13" s="375"/>
@@ -15555,7 +15954,7 @@
       <c r="K13" s="429"/>
       <c r="L13" s="383"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="435"/>
       <c r="B14" s="436"/>
       <c r="C14" s="436"/>
@@ -15569,7 +15968,7 @@
       <c r="K14" s="443"/>
       <c r="L14" s="383"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="435"/>
       <c r="B15" s="436"/>
       <c r="C15" s="436"/>
@@ -15583,7 +15982,7 @@
       <c r="K15" s="429"/>
       <c r="L15" s="383"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="435"/>
       <c r="B16" s="436"/>
       <c r="C16" s="436"/>
@@ -15597,7 +15996,7 @@
       <c r="K16" s="429"/>
       <c r="L16" s="383"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="435"/>
       <c r="B17" s="436"/>
       <c r="C17" s="436"/>
@@ -15611,7 +16010,7 @@
       <c r="K17" s="429"/>
       <c r="L17" s="383"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="435"/>
       <c r="B18" s="436"/>
       <c r="C18" s="436"/>
@@ -15625,7 +16024,7 @@
       <c r="K18" s="429"/>
       <c r="L18" s="383"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="435"/>
       <c r="B19" s="436"/>
       <c r="C19" s="436"/>
@@ -15639,7 +16038,7 @@
       <c r="K19" s="429"/>
       <c r="L19" s="383"/>
     </row>
-    <row r="20" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="446"/>
       <c r="B20" s="447"/>
       <c r="C20" s="447"/>
@@ -15653,7 +16052,7 @@
       <c r="K20" s="383"/>
       <c r="L20" s="383"/>
     </row>
-    <row r="21" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="453" t="s">
         <v>127</v>
       </c>
@@ -15662,29 +16061,29 @@
       <c r="D21" s="455"/>
       <c r="E21" s="456">
         <f>SUM(E10:E20)</f>
-        <v>874640</v>
+        <v>2117328</v>
       </c>
       <c r="F21" s="457">
         <f>SUM(F10:F20)</f>
-        <v>899444</v>
+        <v>2232642</v>
       </c>
       <c r="G21" s="458">
         <f>SUM(G10:G20)</f>
-        <v>7.1384444444444445E-2</v>
+        <v>0.17719380952380953</v>
       </c>
       <c r="H21" s="459">
         <f>A10-F21</f>
-        <v>11700556</v>
+        <v>10367358</v>
       </c>
       <c r="I21" s="460">
         <f>1-G21</f>
-        <v>0.92861555555555553</v>
+        <v>0.82280619047619052</v>
       </c>
       <c r="J21" s="461"/>
       <c r="K21" s="461"/>
       <c r="L21" s="461"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="383"/>
       <c r="B24" s="383"/>
       <c r="C24" s="383"/>
@@ -15696,7 +16095,7 @@
       <c r="I24" s="383"/>
       <c r="J24" s="383"/>
     </row>
-    <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="523" t="s">
         <v>128</v>
       </c>
@@ -15710,7 +16109,7 @@
       <c r="I25" s="383"/>
       <c r="J25" s="383"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="524" t="s">
         <v>129</v>
       </c>
@@ -15728,19 +16127,19 @@
       <c r="I26" s="383"/>
       <c r="J26" s="383"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="525">
         <f>A10-F21</f>
-        <v>11700556</v>
+        <v>10367358</v>
       </c>
       <c r="B27" s="526"/>
       <c r="C27" s="463">
         <f>1-G21</f>
-        <v>0.92861555555555553</v>
+        <v>0.82280619047619052</v>
       </c>
       <c r="D27" s="464">
         <f>(C27/0.8)*100</f>
-        <v>116.07694444444444</v>
+        <v>102.85077380952382</v>
       </c>
       <c r="E27" s="492" t="s">
         <v>132</v>
@@ -15751,7 +16150,7 @@
       <c r="I27" s="492"/>
       <c r="J27" s="492"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="383"/>
       <c r="B28" s="383"/>
       <c r="C28" s="383"/>
@@ -15759,7 +16158,7 @@
       <c r="E28" s="383"/>
       <c r="F28" s="383"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="383"/>
       <c r="B29" s="383"/>
       <c r="C29" s="383"/>
@@ -15774,7 +16173,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="383"/>
       <c r="B30" s="466"/>
       <c r="C30" s="466"/>
@@ -15786,7 +16185,7 @@
       <c r="I30" s="383"/>
       <c r="J30" s="383"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="467"/>
       <c r="B31" s="467"/>
       <c r="C31" s="467"/>
@@ -15798,7 +16197,7 @@
       <c r="I31" s="517"/>
       <c r="J31" s="518"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="468"/>
       <c r="B32" s="469"/>
       <c r="C32" s="469"/>
@@ -15808,7 +16207,7 @@
       <c r="G32" s="413"/>
       <c r="H32" s="469"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="468"/>
       <c r="B33" s="469"/>
       <c r="C33" s="469"/>
@@ -15818,7 +16217,7 @@
       <c r="G33" s="413"/>
       <c r="H33" s="469"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="468"/>
       <c r="B34" s="469"/>
       <c r="C34" s="469"/>
@@ -15828,7 +16227,7 @@
       <c r="G34" s="413"/>
       <c r="H34" s="469"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="468"/>
       <c r="B35" s="469"/>
       <c r="C35" s="469"/>
@@ -15838,7 +16237,7 @@
       <c r="G35" s="413"/>
       <c r="H35" s="469"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="468"/>
       <c r="B36" s="469"/>
       <c r="C36" s="469"/>
@@ -15848,7 +16247,7 @@
       <c r="G36" s="413"/>
       <c r="H36" s="469"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="468"/>
       <c r="B37" s="469"/>
       <c r="C37" s="403"/>
@@ -15858,7 +16257,7 @@
       <c r="G37" s="403"/>
       <c r="H37" s="403"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="468"/>
       <c r="B38" s="469"/>
       <c r="C38" s="469"/>
@@ -15868,7 +16267,7 @@
       <c r="G38" s="413"/>
       <c r="H38" s="469"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="468"/>
       <c r="B39" s="469"/>
       <c r="C39" s="469"/>
@@ -15878,7 +16277,7 @@
       <c r="G39" s="413"/>
       <c r="H39" s="469"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="468"/>
       <c r="B40" s="469"/>
       <c r="C40" s="469"/>
@@ -15888,7 +16287,7 @@
       <c r="G40" s="413"/>
       <c r="H40" s="469"/>
     </row>
-    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="383"/>
       <c r="B41" s="520"/>
       <c r="C41" s="520"/>
@@ -15900,7 +16299,7 @@
       <c r="I41" s="383"/>
       <c r="J41" s="383"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="467"/>
       <c r="B42" s="467"/>
       <c r="C42" s="467"/>
@@ -15912,7 +16311,7 @@
       <c r="I42" s="517"/>
       <c r="J42" s="518"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="468"/>
       <c r="B43" s="383"/>
       <c r="C43" s="383"/>
@@ -15924,7 +16323,7 @@
       <c r="I43" s="519"/>
       <c r="J43" s="519"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="468"/>
       <c r="B44" s="383"/>
       <c r="C44" s="383"/>
@@ -15936,7 +16335,7 @@
       <c r="I44" s="519"/>
       <c r="J44" s="519"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="383"/>
       <c r="B45" s="383"/>
       <c r="C45" s="383"/>
@@ -15946,11 +16345,11 @@
       <c r="G45" s="383"/>
       <c r="H45" s="383"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="517"/>
       <c r="C50" s="518"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" s="517"/>
       <c r="C57" s="518"/>
     </row>
@@ -15970,7 +16369,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="27" max="16383" man="1"/>
   </rowBreaks>
@@ -15978,33 +16377,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="380"/>
       <c r="B1" s="473" t="s">
         <v>109</v>
@@ -16023,11 +16422,9 @@
       <c r="K1" s="380"/>
       <c r="L1" s="380"/>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="380"/>
-      <c r="B2" s="380" t="s">
-        <v>149</v>
-      </c>
+      <c r="B2" s="380"/>
       <c r="C2" s="380"/>
       <c r="D2" s="380"/>
       <c r="E2" s="380"/>
@@ -16039,7 +16436,7 @@
       <c r="K2" s="381"/>
       <c r="L2" s="381"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="522" t="s">
         <v>143</v>
       </c>
@@ -16055,7 +16452,7 @@
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
     </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="383"/>
       <c r="B4" s="384"/>
       <c r="C4" s="384"/>
@@ -16067,7 +16464,7 @@
       <c r="K4" s="382"/>
       <c r="M4" s="494"/>
     </row>
-    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="387" t="s">
         <v>110</v>
       </c>
@@ -16097,7 +16494,7 @@
       <c r="K5" s="391"/>
       <c r="L5" s="391"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="392">
         <v>1</v>
       </c>
@@ -16127,7 +16524,7 @@
       <c r="K6" s="383"/>
       <c r="L6" s="397"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="414"/>
       <c r="B7" s="495"/>
       <c r="C7" s="383"/>
@@ -16139,7 +16536,7 @@
       <c r="I7" s="383"/>
       <c r="J7" s="383"/>
     </row>
-    <row r="8" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="383"/>
       <c r="B8" s="417" t="s">
         <v>117</v>
@@ -16155,7 +16552,7 @@
       <c r="K8" s="418"/>
       <c r="L8" s="418"/>
     </row>
-    <row r="9" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="387" t="s">
         <v>118</v>
       </c>
@@ -16187,66 +16584,70 @@
       <c r="K9" s="391"/>
       <c r="L9" s="391"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="422">
         <f>D6*700000</f>
         <v>12600000</v>
       </c>
-      <c r="B10" s="423">
-        <v>43879</v>
-      </c>
-      <c r="C10" s="424">
-        <v>43880</v>
-      </c>
-      <c r="D10" s="423">
-        <v>43885</v>
-      </c>
+      <c r="B10" s="423"/>
+      <c r="C10" s="424"/>
+      <c r="D10" s="423"/>
       <c r="E10" s="425">
-        <v>349440</v>
+        <v>400000</v>
       </c>
       <c r="F10" s="425">
-        <v>407248</v>
+        <v>450000</v>
       </c>
       <c r="G10" s="426">
         <f>F10/A$10</f>
-        <v>3.2321269841269838E-2</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="H10" s="427">
         <f>A10-F10</f>
-        <v>12192752</v>
+        <v>12150000</v>
       </c>
       <c r="I10" s="428">
         <f>1-G10</f>
-        <v>0.96767873015873018</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J10" s="429"/>
       <c r="K10" s="403"/>
       <c r="L10" s="403"/>
     </row>
-    <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="430"/>
-      <c r="B11" s="431"/>
-      <c r="C11" s="431"/>
-      <c r="D11" s="431"/>
-      <c r="E11" s="432"/>
-      <c r="F11" s="432"/>
+      <c r="B11" s="423">
+        <v>43879</v>
+      </c>
+      <c r="C11" s="424">
+        <v>43880</v>
+      </c>
+      <c r="D11" s="423">
+        <v>43885</v>
+      </c>
+      <c r="E11" s="425">
+        <v>349440</v>
+      </c>
+      <c r="F11" s="425">
+        <v>407248</v>
+      </c>
       <c r="G11" s="426">
         <f>F11/A$10</f>
-        <v>0</v>
+        <v>3.2321269841269838E-2</v>
       </c>
       <c r="H11" s="433">
         <f>H10-F11</f>
-        <v>12192752</v>
+        <v>11742752</v>
       </c>
       <c r="I11" s="434">
         <f>I10-G11</f>
-        <v>0.96767873015873018</v>
+        <v>0.93196444444444448</v>
       </c>
       <c r="J11" s="383"/>
       <c r="K11" s="383"/>
       <c r="L11" s="383"/>
     </row>
-    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="435"/>
       <c r="B12" s="436"/>
       <c r="C12" s="436"/>
@@ -16260,7 +16661,7 @@
       <c r="K12" s="403"/>
       <c r="L12" s="403"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="435"/>
       <c r="B13" s="375"/>
       <c r="C13" s="375"/>
@@ -16274,7 +16675,7 @@
       <c r="K13" s="429"/>
       <c r="L13" s="383"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="435"/>
       <c r="B14" s="436"/>
       <c r="C14" s="436"/>
@@ -16288,7 +16689,7 @@
       <c r="K14" s="443"/>
       <c r="L14" s="383"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="435"/>
       <c r="B15" s="436"/>
       <c r="C15" s="436"/>
@@ -16302,7 +16703,7 @@
       <c r="K15" s="429"/>
       <c r="L15" s="383"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="435"/>
       <c r="B16" s="436"/>
       <c r="C16" s="436"/>
@@ -16316,7 +16717,7 @@
       <c r="K16" s="429"/>
       <c r="L16" s="383"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="435"/>
       <c r="B17" s="436"/>
       <c r="C17" s="436"/>
@@ -16330,7 +16731,7 @@
       <c r="K17" s="429"/>
       <c r="L17" s="383"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="435"/>
       <c r="B18" s="436"/>
       <c r="C18" s="436"/>
@@ -16344,7 +16745,7 @@
       <c r="K18" s="429"/>
       <c r="L18" s="383"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="435"/>
       <c r="B19" s="436"/>
       <c r="C19" s="436"/>
@@ -16358,7 +16759,7 @@
       <c r="K19" s="429"/>
       <c r="L19" s="383"/>
     </row>
-    <row r="20" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="446"/>
       <c r="B20" s="447"/>
       <c r="C20" s="447"/>
@@ -16372,7 +16773,7 @@
       <c r="K20" s="383"/>
       <c r="L20" s="383"/>
     </row>
-    <row r="21" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="453" t="s">
         <v>127</v>
       </c>
@@ -16381,29 +16782,29 @@
       <c r="D21" s="455"/>
       <c r="E21" s="456">
         <f>SUM(E10:E20)</f>
-        <v>349440</v>
+        <v>749440</v>
       </c>
       <c r="F21" s="457">
         <f>SUM(F10:F20)</f>
-        <v>407248</v>
+        <v>857248</v>
       </c>
       <c r="G21" s="458">
         <f>SUM(G10:G20)</f>
-        <v>3.2321269841269838E-2</v>
+        <v>6.8035555555555544E-2</v>
       </c>
       <c r="H21" s="459">
         <f>A10-F21</f>
-        <v>12192752</v>
+        <v>11742752</v>
       </c>
       <c r="I21" s="460">
         <f>1-G21</f>
-        <v>0.96767873015873018</v>
+        <v>0.93196444444444448</v>
       </c>
       <c r="J21" s="461"/>
       <c r="K21" s="461"/>
       <c r="L21" s="461"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="383"/>
       <c r="B24" s="383"/>
       <c r="C24" s="383"/>
@@ -16415,7 +16816,7 @@
       <c r="I24" s="383"/>
       <c r="J24" s="383"/>
     </row>
-    <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="523" t="s">
         <v>128</v>
       </c>
@@ -16429,7 +16830,7 @@
       <c r="I25" s="383"/>
       <c r="J25" s="383"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="524" t="s">
         <v>129</v>
       </c>
@@ -16447,19 +16848,19 @@
       <c r="I26" s="383"/>
       <c r="J26" s="383"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="525">
         <f>A10-F21</f>
-        <v>12192752</v>
+        <v>11742752</v>
       </c>
       <c r="B27" s="526"/>
       <c r="C27" s="463">
         <f>1-G21</f>
-        <v>0.96767873015873018</v>
+        <v>0.93196444444444448</v>
       </c>
       <c r="D27" s="464">
         <f>(C27/0.8)*100</f>
-        <v>120.95984126984128</v>
+        <v>116.49555555555555</v>
       </c>
       <c r="E27" s="492" t="s">
         <v>132</v>
@@ -16470,7 +16871,7 @@
       <c r="I27" s="492"/>
       <c r="J27" s="492"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="383"/>
       <c r="B28" s="383"/>
       <c r="C28" s="383"/>
@@ -16478,7 +16879,7 @@
       <c r="E28" s="383"/>
       <c r="F28" s="383"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="383"/>
       <c r="B29" s="383"/>
       <c r="C29" s="383"/>
@@ -16493,7 +16894,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="383"/>
       <c r="B30" s="466"/>
       <c r="C30" s="466"/>
@@ -16505,7 +16906,7 @@
       <c r="I30" s="383"/>
       <c r="J30" s="383"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="467"/>
       <c r="B31" s="467"/>
       <c r="C31" s="467"/>
@@ -16517,7 +16918,7 @@
       <c r="I31" s="517"/>
       <c r="J31" s="518"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="468"/>
       <c r="B32" s="469"/>
       <c r="C32" s="469"/>
@@ -16527,7 +16928,7 @@
       <c r="G32" s="413"/>
       <c r="H32" s="469"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="468"/>
       <c r="B33" s="469"/>
       <c r="C33" s="469"/>
@@ -16537,7 +16938,7 @@
       <c r="G33" s="413"/>
       <c r="H33" s="469"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="468"/>
       <c r="B34" s="469"/>
       <c r="C34" s="469"/>
@@ -16547,7 +16948,7 @@
       <c r="G34" s="413"/>
       <c r="H34" s="469"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="468"/>
       <c r="B35" s="469"/>
       <c r="C35" s="469"/>
@@ -16557,7 +16958,7 @@
       <c r="G35" s="413"/>
       <c r="H35" s="469"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="468"/>
       <c r="B36" s="469"/>
       <c r="C36" s="469"/>
@@ -16567,7 +16968,7 @@
       <c r="G36" s="413"/>
       <c r="H36" s="469"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="468"/>
       <c r="B37" s="469"/>
       <c r="C37" s="403"/>
@@ -16577,7 +16978,7 @@
       <c r="G37" s="403"/>
       <c r="H37" s="403"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="468"/>
       <c r="B38" s="469"/>
       <c r="C38" s="469"/>
@@ -16587,7 +16988,7 @@
       <c r="G38" s="413"/>
       <c r="H38" s="469"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="468"/>
       <c r="B39" s="469"/>
       <c r="C39" s="469"/>
@@ -16597,7 +16998,7 @@
       <c r="G39" s="413"/>
       <c r="H39" s="469"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="468"/>
       <c r="B40" s="469"/>
       <c r="C40" s="469"/>
@@ -16607,7 +17008,7 @@
       <c r="G40" s="413"/>
       <c r="H40" s="469"/>
     </row>
-    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="383"/>
       <c r="B41" s="520"/>
       <c r="C41" s="520"/>
@@ -16619,7 +17020,7 @@
       <c r="I41" s="383"/>
       <c r="J41" s="383"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="467"/>
       <c r="B42" s="467"/>
       <c r="C42" s="467"/>
@@ -16631,7 +17032,7 @@
       <c r="I42" s="517"/>
       <c r="J42" s="518"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="468"/>
       <c r="B43" s="383"/>
       <c r="C43" s="383"/>
@@ -16643,7 +17044,7 @@
       <c r="I43" s="519"/>
       <c r="J43" s="519"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="468"/>
       <c r="B44" s="383"/>
       <c r="C44" s="383"/>
@@ -16655,7 +17056,7 @@
       <c r="I44" s="519"/>
       <c r="J44" s="519"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="383"/>
       <c r="B45" s="383"/>
       <c r="C45" s="383"/>
@@ -16665,11 +17066,11 @@
       <c r="G45" s="383"/>
       <c r="H45" s="383"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="517"/>
       <c r="C50" s="518"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" s="517"/>
       <c r="C57" s="518"/>
     </row>
@@ -16697,30 +17098,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="380"/>
       <c r="B1" s="473" t="s">
         <v>109</v>
@@ -16738,11 +17139,9 @@
       <c r="K1" s="380"/>
       <c r="L1" s="380"/>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="380"/>
-      <c r="B2" s="380" t="s">
-        <v>149</v>
-      </c>
+      <c r="B2" s="380"/>
       <c r="C2" s="380"/>
       <c r="D2" s="380"/>
       <c r="E2" s="380"/>
@@ -16754,7 +17153,7 @@
       <c r="K2" s="381"/>
       <c r="L2" s="381"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="522" t="s">
         <v>143</v>
       </c>
@@ -16770,7 +17169,7 @@
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
     </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="383"/>
       <c r="B4" s="384"/>
       <c r="C4" s="384"/>
@@ -16782,7 +17181,7 @@
       <c r="K4" s="382"/>
       <c r="M4" s="364"/>
     </row>
-    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="387" t="s">
         <v>110</v>
       </c>
@@ -16812,7 +17211,7 @@
       <c r="K5" s="391"/>
       <c r="L5" s="391"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="398">
         <v>1</v>
       </c>
@@ -16829,12 +17228,12 @@
         <v>19</v>
       </c>
       <c r="E6" s="400">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F6" s="379"/>
       <c r="G6" s="400">
         <f t="shared" ref="G6:G16" si="0">E6-F6</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H6" s="401"/>
       <c r="I6" s="397"/>
@@ -16842,7 +17241,7 @@
       <c r="K6" s="383"/>
       <c r="L6" s="397"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="398">
         <f t="shared" ref="A7:A16" si="1">A6+1</f>
         <v>2</v>
@@ -16860,12 +17259,12 @@
         <v>60</v>
       </c>
       <c r="E7" s="400">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F7" s="379"/>
       <c r="G7" s="400">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H7" s="402"/>
       <c r="I7" s="397"/>
@@ -16873,7 +17272,7 @@
       <c r="K7" s="383"/>
       <c r="L7" s="397"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="398">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -16888,15 +17287,15 @@
       </c>
       <c r="D8" s="400">
         <f>Данные!$B21</f>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E8" s="400">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F8" s="379"/>
       <c r="G8" s="400">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H8" s="402"/>
       <c r="I8" s="397"/>
@@ -16904,7 +17303,7 @@
       <c r="K8" s="383"/>
       <c r="L8" s="397"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="398">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -16922,12 +17321,14 @@
         <v>28</v>
       </c>
       <c r="E9" s="400">
-        <v>130</v>
-      </c>
-      <c r="F9" s="379"/>
+        <v>28</v>
+      </c>
+      <c r="F9" s="379">
+        <v>2</v>
+      </c>
       <c r="G9" s="400">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="H9" s="402"/>
       <c r="I9" s="403"/>
@@ -16935,7 +17336,7 @@
       <c r="K9" s="403"/>
       <c r="L9" s="397"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="398">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -16953,12 +17354,12 @@
         <v>28</v>
       </c>
       <c r="E10" s="400">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="F10" s="379"/>
       <c r="G10" s="400">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="H10" s="402"/>
       <c r="I10" s="397"/>
@@ -16966,7 +17367,7 @@
       <c r="K10" s="383"/>
       <c r="L10" s="397"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="398">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -16984,12 +17385,12 @@
         <v>78</v>
       </c>
       <c r="E11" s="400">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="F11" s="404"/>
       <c r="G11" s="400">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="H11" s="402"/>
       <c r="I11" s="403"/>
@@ -16998,7 +17399,7 @@
       <c r="L11" s="397"/>
       <c r="M11" s="405"/>
     </row>
-    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="398">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -17016,12 +17417,12 @@
         <v>0</v>
       </c>
       <c r="E12" s="400">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F12" s="406"/>
       <c r="G12" s="400">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H12" s="402"/>
       <c r="I12" s="403"/>
@@ -17030,7 +17431,7 @@
       <c r="L12" s="397"/>
       <c r="M12" s="405"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="398">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -17048,12 +17449,12 @@
         <v>21</v>
       </c>
       <c r="E13" s="471">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F13" s="379"/>
       <c r="G13" s="400">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H13" s="402" t="s">
         <v>42</v>
@@ -17063,7 +17464,7 @@
       <c r="K13" s="403"/>
       <c r="L13" s="397"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="398">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -17081,12 +17482,12 @@
         <v>0</v>
       </c>
       <c r="E14" s="400">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F14" s="404"/>
       <c r="G14" s="400">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H14" s="402"/>
       <c r="I14" s="403"/>
@@ -17094,7 +17495,7 @@
       <c r="K14" s="403"/>
       <c r="L14" s="397"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="398">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -17125,7 +17526,7 @@
       <c r="K15" s="403"/>
       <c r="L15" s="397"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="407">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -17156,7 +17557,7 @@
       <c r="K16" s="403"/>
       <c r="L16" s="397"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="414"/>
       <c r="B17" s="415"/>
       <c r="C17" s="383"/>
@@ -17168,7 +17569,7 @@
       <c r="I17" s="383"/>
       <c r="J17" s="383"/>
     </row>
-    <row r="18" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="383"/>
       <c r="B18" s="417" t="s">
         <v>117</v>
@@ -17184,7 +17585,7 @@
       <c r="K18" s="418"/>
       <c r="L18" s="418"/>
     </row>
-    <row r="19" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="387" t="s">
         <v>118</v>
       </c>
@@ -17216,79 +17617,102 @@
       <c r="K19" s="391"/>
       <c r="L19" s="391"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="422">
         <v>36000000</v>
       </c>
-      <c r="B20" s="423">
-        <v>43879</v>
-      </c>
-      <c r="C20" s="424">
-        <v>43884</v>
-      </c>
-      <c r="D20" s="423">
-        <v>43885</v>
-      </c>
+      <c r="B20" s="423"/>
+      <c r="C20" s="424"/>
+      <c r="D20" s="423"/>
       <c r="E20" s="425">
-        <v>1224080</v>
+        <v>1200000</v>
       </c>
       <c r="F20" s="425">
-        <v>1306692</v>
+        <v>1330000</v>
       </c>
       <c r="G20" s="426">
         <f>F20/A$20</f>
-        <v>3.6297000000000003E-2</v>
+        <v>3.6944444444444446E-2</v>
       </c>
       <c r="H20" s="427">
         <f>A20-F20</f>
-        <v>34693308</v>
+        <v>34670000</v>
       </c>
       <c r="I20" s="428">
         <f>1-G20</f>
-        <v>0.96370299999999998</v>
+        <v>0.96305555555555555</v>
       </c>
       <c r="J20" s="429"/>
       <c r="K20" s="403"/>
       <c r="L20" s="403"/>
     </row>
-    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="430"/>
-      <c r="B21" s="431"/>
-      <c r="C21" s="431"/>
-      <c r="D21" s="431"/>
-      <c r="E21" s="432"/>
-      <c r="F21" s="432"/>
+      <c r="B21" s="423">
+        <v>43879</v>
+      </c>
+      <c r="C21" s="424">
+        <v>43884</v>
+      </c>
+      <c r="D21" s="423">
+        <v>43885</v>
+      </c>
+      <c r="E21" s="425">
+        <v>1224080</v>
+      </c>
+      <c r="F21" s="425">
+        <v>1306692</v>
+      </c>
       <c r="G21" s="426">
         <f>F21/A$20</f>
-        <v>0</v>
+        <v>3.6297000000000003E-2</v>
       </c>
       <c r="H21" s="433">
         <f>H20-F21</f>
-        <v>34693308</v>
+        <v>33363308</v>
       </c>
       <c r="I21" s="434">
         <f>I20-G21</f>
-        <v>0.96370299999999998</v>
+        <v>0.92675855555555553</v>
       </c>
       <c r="J21" s="383"/>
       <c r="K21" s="383"/>
       <c r="L21" s="383"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="435"/>
-      <c r="B22" s="436"/>
-      <c r="C22" s="436"/>
-      <c r="D22" s="436"/>
-      <c r="E22" s="437"/>
-      <c r="F22" s="437"/>
-      <c r="G22" s="438"/>
-      <c r="H22" s="439"/>
-      <c r="I22" s="440"/>
+      <c r="B22" s="431">
+        <v>44078</v>
+      </c>
+      <c r="C22" s="431">
+        <v>44083</v>
+      </c>
+      <c r="D22" s="431">
+        <v>44091</v>
+      </c>
+      <c r="E22" s="432">
+        <v>1271088</v>
+      </c>
+      <c r="F22" s="432">
+        <v>1337394</v>
+      </c>
+      <c r="G22" s="426">
+        <f>F22/A$20</f>
+        <v>3.7149833333333333E-2</v>
+      </c>
+      <c r="H22" s="433">
+        <f>H21-F22</f>
+        <v>32025914</v>
+      </c>
+      <c r="I22" s="434">
+        <f>I21-G22</f>
+        <v>0.8896087222222222</v>
+      </c>
       <c r="J22" s="429"/>
       <c r="K22" s="403"/>
       <c r="L22" s="403"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="435"/>
       <c r="B23" s="375"/>
       <c r="C23" s="375"/>
@@ -17302,7 +17726,7 @@
       <c r="K23" s="429"/>
       <c r="L23" s="383"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="435"/>
       <c r="B24" s="436"/>
       <c r="C24" s="436"/>
@@ -17316,7 +17740,7 @@
       <c r="K24" s="443"/>
       <c r="L24" s="383"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="435"/>
       <c r="B25" s="436"/>
       <c r="C25" s="436"/>
@@ -17330,7 +17754,7 @@
       <c r="K25" s="429"/>
       <c r="L25" s="383"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="435"/>
       <c r="B26" s="436"/>
       <c r="C26" s="436"/>
@@ -17344,7 +17768,7 @@
       <c r="K26" s="429"/>
       <c r="L26" s="383"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="435"/>
       <c r="B27" s="436"/>
       <c r="C27" s="436"/>
@@ -17358,7 +17782,7 @@
       <c r="K27" s="429"/>
       <c r="L27" s="383"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="435"/>
       <c r="B28" s="436"/>
       <c r="C28" s="436"/>
@@ -17372,7 +17796,7 @@
       <c r="K28" s="429"/>
       <c r="L28" s="383"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="435"/>
       <c r="B29" s="436"/>
       <c r="C29" s="436"/>
@@ -17386,7 +17810,7 @@
       <c r="K29" s="429"/>
       <c r="L29" s="383"/>
     </row>
-    <row r="30" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="446"/>
       <c r="B30" s="447"/>
       <c r="C30" s="447"/>
@@ -17400,7 +17824,7 @@
       <c r="K30" s="383"/>
       <c r="L30" s="383"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="453" t="s">
         <v>127</v>
       </c>
@@ -17409,29 +17833,29 @@
       <c r="D31" s="455"/>
       <c r="E31" s="456">
         <f>SUM(E20:E30)</f>
-        <v>1224080</v>
+        <v>3695168</v>
       </c>
       <c r="F31" s="457">
         <f>SUM(F20:F30)</f>
-        <v>1306692</v>
+        <v>3974086</v>
       </c>
       <c r="G31" s="458">
         <f>SUM(G20:G30)</f>
-        <v>3.6297000000000003E-2</v>
+        <v>0.11039127777777777</v>
       </c>
       <c r="H31" s="459">
         <f>A20-F31</f>
-        <v>34693308</v>
+        <v>32025914</v>
       </c>
       <c r="I31" s="460">
         <f>1-G31</f>
-        <v>0.96370299999999998</v>
+        <v>0.8896087222222222</v>
       </c>
       <c r="J31" s="461"/>
       <c r="K31" s="461"/>
       <c r="L31" s="461"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="383"/>
       <c r="B34" s="383"/>
       <c r="C34" s="383"/>
@@ -17443,7 +17867,7 @@
       <c r="I34" s="383"/>
       <c r="J34" s="383"/>
     </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="523" t="s">
         <v>128</v>
       </c>
@@ -17457,7 +17881,7 @@
       <c r="I35" s="383"/>
       <c r="J35" s="383"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="524" t="s">
         <v>129</v>
       </c>
@@ -17475,19 +17899,19 @@
       <c r="I36" s="383"/>
       <c r="J36" s="383"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="525">
         <f>A20-F31</f>
-        <v>34693308</v>
+        <v>32025914</v>
       </c>
       <c r="B37" s="526"/>
       <c r="C37" s="463">
         <f>1-G31</f>
-        <v>0.96370299999999998</v>
+        <v>0.8896087222222222</v>
       </c>
       <c r="D37" s="464">
         <f>(C37/0.8)*100</f>
-        <v>120.462875</v>
+        <v>111.20109027777775</v>
       </c>
       <c r="E37" s="465" t="s">
         <v>132</v>
@@ -17498,7 +17922,7 @@
       <c r="I37" s="465"/>
       <c r="J37" s="465"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="383"/>
       <c r="B38" s="383"/>
       <c r="C38" s="383"/>
@@ -17506,7 +17930,7 @@
       <c r="E38" s="383"/>
       <c r="F38" s="383"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="383"/>
       <c r="B39" s="383"/>
       <c r="C39" s="383"/>
@@ -17521,7 +17945,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="383"/>
       <c r="B40" s="466"/>
       <c r="C40" s="466"/>
@@ -17533,7 +17957,7 @@
       <c r="I40" s="383"/>
       <c r="J40" s="383"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="467"/>
       <c r="B41" s="467"/>
       <c r="C41" s="467"/>
@@ -17545,7 +17969,7 @@
       <c r="I41" s="517"/>
       <c r="J41" s="518"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="468"/>
       <c r="B42" s="469"/>
       <c r="C42" s="469"/>
@@ -17555,7 +17979,7 @@
       <c r="G42" s="413"/>
       <c r="H42" s="469"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="468"/>
       <c r="B43" s="469"/>
       <c r="C43" s="469"/>
@@ -17565,7 +17989,7 @@
       <c r="G43" s="413"/>
       <c r="H43" s="469"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="468"/>
       <c r="B44" s="469"/>
       <c r="C44" s="469"/>
@@ -17575,7 +17999,7 @@
       <c r="G44" s="413"/>
       <c r="H44" s="469"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="468"/>
       <c r="B45" s="469"/>
       <c r="C45" s="469"/>
@@ -17585,7 +18009,7 @@
       <c r="G45" s="413"/>
       <c r="H45" s="469"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="468"/>
       <c r="B46" s="469"/>
       <c r="C46" s="469"/>
@@ -17595,7 +18019,7 @@
       <c r="G46" s="413"/>
       <c r="H46" s="469"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="468"/>
       <c r="B47" s="469"/>
       <c r="C47" s="403"/>
@@ -17605,7 +18029,7 @@
       <c r="G47" s="403"/>
       <c r="H47" s="403"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="468"/>
       <c r="B48" s="469"/>
       <c r="C48" s="469"/>
@@ -17615,7 +18039,7 @@
       <c r="G48" s="413"/>
       <c r="H48" s="469"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="468"/>
       <c r="B49" s="469"/>
       <c r="C49" s="469"/>
@@ -17625,7 +18049,7 @@
       <c r="G49" s="413"/>
       <c r="H49" s="469"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="468"/>
       <c r="B50" s="469"/>
       <c r="C50" s="469"/>
@@ -17635,7 +18059,7 @@
       <c r="G50" s="413"/>
       <c r="H50" s="469"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="383"/>
       <c r="B51" s="520"/>
       <c r="C51" s="520"/>
@@ -17647,7 +18071,7 @@
       <c r="I51" s="383"/>
       <c r="J51" s="383"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="467"/>
       <c r="B52" s="467"/>
       <c r="C52" s="467"/>
@@ -17659,7 +18083,7 @@
       <c r="I52" s="517"/>
       <c r="J52" s="518"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="468"/>
       <c r="B53" s="383"/>
       <c r="C53" s="383"/>
@@ -17671,7 +18095,7 @@
       <c r="I53" s="519"/>
       <c r="J53" s="519"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="468"/>
       <c r="B54" s="383"/>
       <c r="C54" s="383"/>
@@ -17683,7 +18107,7 @@
       <c r="I54" s="519"/>
       <c r="J54" s="519"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="383"/>
       <c r="B55" s="383"/>
       <c r="C55" s="383"/>
@@ -17693,11 +18117,11 @@
       <c r="G55" s="383"/>
       <c r="H55" s="383"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B60" s="517"/>
       <c r="C60" s="518"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="517"/>
       <c r="C67" s="518"/>
     </row>
@@ -17717,7 +18141,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="37" max="16383" man="1"/>
   </rowBreaks>
@@ -17725,26 +18149,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A32" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:F31"/>
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A17" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36:G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="300"/>
-    <col min="4" max="4" width="11.44140625" style="300" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="300"/>
-    <col min="6" max="6" width="10.33203125" style="300" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="300" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="300" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="300" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="300"/>
+    <col min="1" max="3" width="9.140625" style="300"/>
+    <col min="4" max="4" width="11.42578125" style="300" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="300"/>
+    <col min="6" max="6" width="10.28515625" style="300" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="300" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="300" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="300" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="300"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G2" s="309" t="s">
         <v>58</v>
       </c>
@@ -17753,7 +18177,7 @@
       <c r="J2" s="310"/>
       <c r="K2" s="310"/>
     </row>
-    <row r="3" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G3" s="309" t="s">
         <v>101</v>
       </c>
@@ -17762,7 +18186,7 @@
       <c r="J3" s="310"/>
       <c r="K3" s="310"/>
     </row>
-    <row r="4" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G4" s="309" t="s">
         <v>104</v>
       </c>
@@ -17771,8 +18195,8 @@
       <c r="J4" s="310"/>
       <c r="K4" s="310"/>
     </row>
-    <row r="5" spans="1:11" s="359" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="359" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G6" s="360"/>
       <c r="H6" s="309" t="s">
         <v>102</v>
@@ -17780,12 +18204,12 @@
       <c r="I6" s="310"/>
       <c r="J6" s="310"/>
     </row>
-    <row r="7" spans="1:11" s="359" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="359" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="H7" s="310"/>
       <c r="I7" s="310"/>
       <c r="J7" s="310"/>
     </row>
-    <row r="8" spans="1:11" s="359" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="359" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G8" s="303" t="s">
         <v>59</v>
       </c>
@@ -17795,21 +18219,21 @@
       </c>
       <c r="J8" s="310"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="538" t="s">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="546" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="538"/>
-      <c r="C11" s="538"/>
-      <c r="D11" s="538"/>
-      <c r="E11" s="538"/>
-      <c r="F11" s="538"/>
-      <c r="G11" s="538"/>
-      <c r="H11" s="538"/>
-      <c r="I11" s="538"/>
-      <c r="J11" s="538"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="546"/>
+      <c r="C11" s="546"/>
+      <c r="D11" s="546"/>
+      <c r="E11" s="546"/>
+      <c r="F11" s="546"/>
+      <c r="G11" s="546"/>
+      <c r="H11" s="546"/>
+      <c r="I11" s="546"/>
+      <c r="J11" s="546"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="527" t="s">
         <v>74</v>
       </c>
@@ -17823,22 +18247,22 @@
       <c r="I12" s="527"/>
       <c r="J12" s="527"/>
     </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="539" t="str">
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="547" t="str">
         <f>Данные!A2</f>
         <v>БК-СХ-60-200-19067-Л1</v>
       </c>
-      <c r="B13" s="538"/>
-      <c r="C13" s="538"/>
-      <c r="D13" s="538"/>
-      <c r="E13" s="538"/>
-      <c r="F13" s="538"/>
-      <c r="G13" s="538"/>
-      <c r="H13" s="538"/>
-      <c r="I13" s="538"/>
-      <c r="J13" s="538"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="546"/>
+      <c r="C13" s="546"/>
+      <c r="D13" s="546"/>
+      <c r="E13" s="546"/>
+      <c r="F13" s="546"/>
+      <c r="G13" s="546"/>
+      <c r="H13" s="546"/>
+      <c r="I13" s="546"/>
+      <c r="J13" s="546"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
         <v>60</v>
       </c>
@@ -17855,7 +18279,7 @@
       <c r="I15" s="304"/>
       <c r="J15" s="305"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="304" t="s">
         <v>95</v>
       </c>
@@ -17869,7 +18293,7 @@
       <c r="I16" s="304"/>
       <c r="J16" s="305"/>
     </row>
-    <row r="17" spans="1:10" s="361" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="361" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="312" t="s">
         <v>61</v>
       </c>
@@ -17890,7 +18314,7 @@
       </c>
       <c r="J17" s="305"/>
     </row>
-    <row r="18" spans="1:10" s="361" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="361" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="312" t="s">
         <v>61</v>
       </c>
@@ -17911,7 +18335,7 @@
       </c>
       <c r="J18" s="305"/>
     </row>
-    <row r="19" spans="1:10" s="361" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="361" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="313"/>
       <c r="B19" s="313"/>
       <c r="C19" s="313"/>
@@ -17929,7 +18353,7 @@
       </c>
       <c r="J19" s="305"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="304" t="s">
         <v>75</v>
       </c>
@@ -17946,7 +18370,7 @@
       </c>
       <c r="J20" s="305"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="304" t="s">
         <v>76</v>
       </c>
@@ -17960,7 +18384,7 @@
       <c r="I21" s="304"/>
       <c r="J21" s="305"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="528" t="s">
         <v>65</v>
       </c>
@@ -17982,7 +18406,7 @@
       <c r="I22" s="528"/>
       <c r="J22" s="528"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="528"/>
       <c r="B23" s="528"/>
       <c r="C23" s="528"/>
@@ -17994,15 +18418,15 @@
       <c r="I23" s="528"/>
       <c r="J23" s="528"/>
     </row>
-    <row r="24" spans="1:10" s="498" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="543">
+    <row r="24" spans="1:10" s="498" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="541">
         <v>1</v>
       </c>
-      <c r="B24" s="545" t="s">
+      <c r="B24" s="543" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="546"/>
-      <c r="D24" s="547"/>
+      <c r="C24" s="544"/>
+      <c r="D24" s="545"/>
       <c r="E24" s="530">
         <f>Данные!C16</f>
         <v>19067</v>
@@ -18016,14 +18440,14 @@
       <c r="I24" s="531"/>
       <c r="J24" s="532"/>
     </row>
-    <row r="25" spans="1:10" s="498" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="544"/>
-      <c r="B25" s="540" t="str">
+    <row r="25" spans="1:10" s="498" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="542"/>
+      <c r="B25" s="538" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
-      <c r="C25" s="541"/>
-      <c r="D25" s="542"/>
+      <c r="C25" s="539"/>
+      <c r="D25" s="540"/>
       <c r="E25" s="534"/>
       <c r="F25" s="535"/>
       <c r="G25" s="537"/>
@@ -18031,15 +18455,15 @@
       <c r="I25" s="534"/>
       <c r="J25" s="535"/>
     </row>
-    <row r="26" spans="1:10" s="498" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="543">
+    <row r="26" spans="1:10" s="498" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="541">
         <v>1</v>
       </c>
-      <c r="B26" s="545" t="s">
+      <c r="B26" s="543" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="546"/>
-      <c r="D26" s="547"/>
+      <c r="C26" s="544"/>
+      <c r="D26" s="545"/>
       <c r="E26" s="530">
         <f>Данные!C17</f>
         <v>19068</v>
@@ -18053,14 +18477,14 @@
       <c r="I26" s="531"/>
       <c r="J26" s="532"/>
     </row>
-    <row r="27" spans="1:10" s="498" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="544"/>
-      <c r="B27" s="540" t="str">
+    <row r="27" spans="1:10" s="498" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="542"/>
+      <c r="B27" s="538" t="str">
         <f>Данные!$C$34</f>
         <v>(к серийному формокомплекту Лампада 2)</v>
       </c>
-      <c r="C27" s="541"/>
-      <c r="D27" s="542"/>
+      <c r="C27" s="539"/>
+      <c r="D27" s="540"/>
       <c r="E27" s="534"/>
       <c r="F27" s="535"/>
       <c r="G27" s="537"/>
@@ -18068,15 +18492,15 @@
       <c r="I27" s="534"/>
       <c r="J27" s="535"/>
     </row>
-    <row r="28" spans="1:10" s="498" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="543">
+    <row r="28" spans="1:10" s="498" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="541">
         <v>1</v>
       </c>
-      <c r="B28" s="545" t="s">
+      <c r="B28" s="543" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="546"/>
-      <c r="D28" s="547"/>
+      <c r="C28" s="544"/>
+      <c r="D28" s="545"/>
       <c r="E28" s="530">
         <f>Данные!C18</f>
         <v>19069</v>
@@ -18090,14 +18514,14 @@
       <c r="I28" s="531"/>
       <c r="J28" s="532"/>
     </row>
-    <row r="29" spans="1:10" s="498" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="544"/>
-      <c r="B29" s="540" t="str">
+    <row r="29" spans="1:10" s="498" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="542"/>
+      <c r="B29" s="538" t="str">
         <f>Данные!$F$34</f>
         <v>(к серийному формокомплекту Лампада 3)</v>
       </c>
-      <c r="C29" s="541"/>
-      <c r="D29" s="542"/>
+      <c r="C29" s="539"/>
+      <c r="D29" s="540"/>
       <c r="E29" s="534"/>
       <c r="F29" s="535"/>
       <c r="G29" s="537"/>
@@ -18105,8 +18529,8 @@
       <c r="I29" s="534"/>
       <c r="J29" s="535"/>
     </row>
-    <row r="30" spans="1:10" s="498" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="543">
+    <row r="30" spans="1:10" s="498" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="541">
         <f>A24+1</f>
         <v>2</v>
       </c>
@@ -18128,14 +18552,14 @@
       <c r="I30" s="531"/>
       <c r="J30" s="532"/>
     </row>
-    <row r="31" spans="1:10" s="498" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="544"/>
-      <c r="B31" s="540" t="str">
+    <row r="31" spans="1:10" s="498" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="542"/>
+      <c r="B31" s="538" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
-      <c r="C31" s="541"/>
-      <c r="D31" s="542"/>
+      <c r="C31" s="539"/>
+      <c r="D31" s="540"/>
       <c r="E31" s="534"/>
       <c r="F31" s="535"/>
       <c r="G31" s="537"/>
@@ -18143,8 +18567,8 @@
       <c r="I31" s="534"/>
       <c r="J31" s="535"/>
     </row>
-    <row r="32" spans="1:10" s="498" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="543">
+    <row r="32" spans="1:10" s="498" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="541">
         <f t="shared" ref="A32" si="0">A30+1</f>
         <v>3</v>
       </c>
@@ -18166,14 +18590,14 @@
       <c r="I32" s="531"/>
       <c r="J32" s="532"/>
     </row>
-    <row r="33" spans="1:10" s="498" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="544"/>
-      <c r="B33" s="540" t="str">
+    <row r="33" spans="1:10" s="498" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="542"/>
+      <c r="B33" s="538" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
-      <c r="C33" s="541"/>
-      <c r="D33" s="542"/>
+      <c r="C33" s="539"/>
+      <c r="D33" s="540"/>
       <c r="E33" s="534"/>
       <c r="F33" s="535"/>
       <c r="G33" s="537"/>
@@ -18181,8 +18605,8 @@
       <c r="I33" s="534"/>
       <c r="J33" s="535"/>
     </row>
-    <row r="34" spans="1:10" s="498" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="543">
+    <row r="34" spans="1:10" s="498" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="541">
         <f t="shared" ref="A34" si="1">A32+1</f>
         <v>4</v>
       </c>
@@ -18198,20 +18622,20 @@
       <c r="F34" s="532"/>
       <c r="G34" s="536">
         <f>Данные!B21</f>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H34" s="530"/>
       <c r="I34" s="531"/>
       <c r="J34" s="532"/>
     </row>
-    <row r="35" spans="1:10" s="498" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="544"/>
-      <c r="B35" s="540" t="str">
+    <row r="35" spans="1:10" s="498" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="542"/>
+      <c r="B35" s="538" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
-      <c r="C35" s="541"/>
-      <c r="D35" s="542"/>
+      <c r="C35" s="539"/>
+      <c r="D35" s="540"/>
       <c r="E35" s="533"/>
       <c r="F35" s="535"/>
       <c r="G35" s="537"/>
@@ -18219,8 +18643,8 @@
       <c r="I35" s="534"/>
       <c r="J35" s="535"/>
     </row>
-    <row r="36" spans="1:10" s="498" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="543">
+    <row r="36" spans="1:10" s="498" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="541">
         <f t="shared" ref="A36" si="2">A34+1</f>
         <v>5</v>
       </c>
@@ -18242,14 +18666,14 @@
       <c r="I36" s="531"/>
       <c r="J36" s="532"/>
     </row>
-    <row r="37" spans="1:10" s="498" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="544"/>
-      <c r="B37" s="540" t="str">
+    <row r="37" spans="1:10" s="498" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="542"/>
+      <c r="B37" s="538" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
-      <c r="C37" s="541"/>
-      <c r="D37" s="542"/>
+      <c r="C37" s="539"/>
+      <c r="D37" s="540"/>
       <c r="E37" s="533"/>
       <c r="F37" s="535"/>
       <c r="G37" s="537"/>
@@ -18257,8 +18681,8 @@
       <c r="I37" s="534"/>
       <c r="J37" s="535"/>
     </row>
-    <row r="38" spans="1:10" s="498" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="543">
+    <row r="38" spans="1:10" s="498" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="541">
         <f t="shared" ref="A38" si="3">A36+1</f>
         <v>6</v>
       </c>
@@ -18280,14 +18704,14 @@
       <c r="I38" s="531"/>
       <c r="J38" s="532"/>
     </row>
-    <row r="39" spans="1:10" s="498" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="544"/>
-      <c r="B39" s="540" t="str">
+    <row r="39" spans="1:10" s="498" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="542"/>
+      <c r="B39" s="538" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
-      <c r="C39" s="541"/>
-      <c r="D39" s="542"/>
+      <c r="C39" s="539"/>
+      <c r="D39" s="540"/>
       <c r="E39" s="533"/>
       <c r="F39" s="535"/>
       <c r="G39" s="537"/>
@@ -18295,8 +18719,8 @@
       <c r="I39" s="534"/>
       <c r="J39" s="535"/>
     </row>
-    <row r="40" spans="1:10" s="498" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="543">
+    <row r="40" spans="1:10" s="498" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="541">
         <f t="shared" ref="A40:A42" si="4">A38+1</f>
         <v>7</v>
       </c>
@@ -18318,14 +18742,14 @@
       <c r="I40" s="531"/>
       <c r="J40" s="532"/>
     </row>
-    <row r="41" spans="1:10" s="498" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="544"/>
-      <c r="B41" s="540" t="str">
+    <row r="41" spans="1:10" s="498" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="542"/>
+      <c r="B41" s="538" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
-      <c r="C41" s="541"/>
-      <c r="D41" s="542"/>
+      <c r="C41" s="539"/>
+      <c r="D41" s="540"/>
       <c r="E41" s="533"/>
       <c r="F41" s="535"/>
       <c r="G41" s="537"/>
@@ -18333,8 +18757,8 @@
       <c r="I41" s="534"/>
       <c r="J41" s="535"/>
     </row>
-    <row r="42" spans="1:10" s="498" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="543">
+    <row r="42" spans="1:10" s="498" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="541">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
@@ -18356,14 +18780,14 @@
       <c r="I42" s="531"/>
       <c r="J42" s="532"/>
     </row>
-    <row r="43" spans="1:10" s="498" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="544"/>
-      <c r="B43" s="540" t="str">
+    <row r="43" spans="1:10" s="498" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="542"/>
+      <c r="B43" s="538" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
-      <c r="C43" s="541"/>
-      <c r="D43" s="542"/>
+      <c r="C43" s="539"/>
+      <c r="D43" s="540"/>
       <c r="E43" s="533"/>
       <c r="F43" s="535"/>
       <c r="G43" s="537"/>
@@ -18371,8 +18795,8 @@
       <c r="I43" s="534"/>
       <c r="J43" s="535"/>
     </row>
-    <row r="44" spans="1:10" s="498" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="543">
+    <row r="44" spans="1:10" s="498" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="541">
         <f t="shared" ref="A44" si="5">A42+1</f>
         <v>9</v>
       </c>
@@ -18394,14 +18818,14 @@
       <c r="I44" s="531"/>
       <c r="J44" s="532"/>
     </row>
-    <row r="45" spans="1:10" s="498" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="544"/>
-      <c r="B45" s="540" t="str">
+    <row r="45" spans="1:10" s="498" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="542"/>
+      <c r="B45" s="538" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
-      <c r="C45" s="541"/>
-      <c r="D45" s="542"/>
+      <c r="C45" s="539"/>
+      <c r="D45" s="540"/>
       <c r="E45" s="533"/>
       <c r="F45" s="535"/>
       <c r="G45" s="537"/>
@@ -18409,8 +18833,8 @@
       <c r="I45" s="534"/>
       <c r="J45" s="535"/>
     </row>
-    <row r="46" spans="1:10" s="498" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="543">
+    <row r="46" spans="1:10" s="498" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="541">
         <f t="shared" ref="A46" si="6">A44+1</f>
         <v>10</v>
       </c>
@@ -18432,14 +18856,14 @@
       <c r="I46" s="531"/>
       <c r="J46" s="532"/>
     </row>
-    <row r="47" spans="1:10" s="498" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="544"/>
-      <c r="B47" s="540" t="str">
+    <row r="47" spans="1:10" s="498" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="542"/>
+      <c r="B47" s="538" t="str">
         <f>Данные!$A$34</f>
         <v>(к серийному формокомплекту Лампада 1)</v>
       </c>
-      <c r="C47" s="541"/>
-      <c r="D47" s="542"/>
+      <c r="C47" s="539"/>
+      <c r="D47" s="540"/>
       <c r="E47" s="533"/>
       <c r="F47" s="535"/>
       <c r="G47" s="537"/>
@@ -18447,7 +18871,7 @@
       <c r="I47" s="534"/>
       <c r="J47" s="535"/>
     </row>
-    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
       <c r="B48" s="304"/>
       <c r="C48" s="304"/>
@@ -18459,7 +18883,7 @@
       <c r="I48" s="304"/>
       <c r="J48" s="305"/>
     </row>
-    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="304" t="s">
         <v>71</v>
       </c>
@@ -18473,7 +18897,7 @@
       <c r="I49" s="304"/>
       <c r="J49" s="305"/>
     </row>
-    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="304"/>
       <c r="B50" s="304"/>
       <c r="C50" s="304"/>
@@ -18485,7 +18909,7 @@
       <c r="I50" s="304"/>
       <c r="J50" s="305"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="304"/>
       <c r="B51" s="307" t="s">
         <v>72</v>
@@ -18501,7 +18925,7 @@
       <c r="I51" s="304"/>
       <c r="J51" s="305"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="304"/>
       <c r="B52" s="304"/>
       <c r="C52" s="304"/>
@@ -18513,7 +18937,7 @@
       <c r="I52" s="304"/>
       <c r="J52" s="305"/>
     </row>
-    <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="304"/>
       <c r="B53" s="304"/>
       <c r="C53" s="304"/>
@@ -18527,7 +18951,7 @@
       </c>
       <c r="J53" s="304"/>
     </row>
-    <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="304"/>
       <c r="B54" s="304"/>
       <c r="C54" s="304"/>
@@ -18538,7 +18962,7 @@
       <c r="I54" s="304"/>
       <c r="J54" s="304"/>
     </row>
-    <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="304"/>
       <c r="B55" s="304"/>
       <c r="C55" s="304"/>
@@ -18551,14 +18975,14 @@
         <v>Д.Е. Серков</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="301"/>
       <c r="B56" s="301"/>
       <c r="C56" s="301"/>
       <c r="D56" s="301"/>
       <c r="E56" s="301"/>
     </row>
-    <row r="57" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="301"/>
       <c r="B57" s="301"/>
       <c r="C57" s="301"/>
@@ -18662,7 +19086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -18673,20 +19097,20 @@
       <selection pane="bottomRight" activeCell="N27" sqref="N27:Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
     <col min="2" max="2" width="5" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.85546875" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -18707,7 +19131,7 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
       <c r="B2" s="565"/>
       <c r="C2" s="566"/>
@@ -18735,7 +19159,7 @@
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
       <c r="B3" s="568"/>
       <c r="C3" s="569"/>
@@ -18758,7 +19182,7 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
       <c r="B4" s="571"/>
       <c r="C4" s="572"/>
@@ -18779,7 +19203,7 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="592" t="s">
         <v>13</v>
@@ -18805,7 +19229,7 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="592" t="s">
         <v>12</v>
@@ -18831,7 +19255,7 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="556" t="s">
         <v>14</v>
@@ -18862,7 +19286,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -18883,7 +19307,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -18916,7 +19340,7 @@
       <c r="R9" s="318"/>
       <c r="S9" s="190"/>
     </row>
-    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -18947,7 +19371,7 @@
       <c r="R10" s="320"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>26</v>
@@ -18978,7 +19402,7 @@
       <c r="R11" s="322"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>2</v>
@@ -19009,7 +19433,7 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>3</v>
@@ -19042,7 +19466,7 @@
       <c r="R13" s="322"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>27</v>
@@ -19075,7 +19499,7 @@
       <c r="R14" s="322"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>9</v>
@@ -19106,7 +19530,7 @@
       <c r="R15" s="322"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>5</v>
@@ -19137,7 +19561,7 @@
       <c r="R16" s="322"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="96" t="s">
         <v>30</v>
@@ -19168,7 +19592,7 @@
       <c r="R17" s="322"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="103" t="s">
         <v>32</v>
@@ -19199,7 +19623,7 @@
       <c r="R18" s="324"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="103" t="s">
         <v>33</v>
@@ -19230,7 +19654,7 @@
       <c r="R19" s="324"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="103" t="s">
         <v>35</v>
@@ -19261,7 +19685,7 @@
       <c r="R20" s="324"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
       <c r="B21" s="103" t="s">
         <v>40</v>
@@ -19292,7 +19716,7 @@
       <c r="R21" s="324"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
       <c r="B22" s="103" t="s">
         <v>41</v>
@@ -19323,7 +19747,7 @@
       <c r="R22" s="324"/>
       <c r="S22" s="86"/>
     </row>
-    <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
       <c r="B23" s="551" t="s">
         <v>57</v>
@@ -19350,7 +19774,7 @@
       <c r="R23" s="324"/>
       <c r="S23" s="86"/>
     </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
       <c r="B24" s="589" t="s">
         <v>45</v>
@@ -19377,7 +19801,7 @@
       <c r="R24" s="326"/>
       <c r="S24" s="86"/>
     </row>
-    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="108"/>
       <c r="B25" s="109"/>
       <c r="C25" s="109"/>
@@ -19398,8 +19822,8 @@
       <c r="R25" s="111"/>
       <c r="S25" s="112"/>
     </row>
-    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="K27" s="564" t="s">
         <v>136</v>
       </c>
@@ -19410,7 +19834,7 @@
       <c r="P27" s="491"/>
       <c r="Q27" s="491"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="N28" s="561" t="s">
         <v>140</v>
       </c>
@@ -19464,7 +19888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -19475,20 +19899,20 @@
       <selection pane="bottomRight" activeCell="N27" sqref="N27:Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
     <col min="4" max="5" width="6" style="64" customWidth="1"/>
     <col min="6" max="6" width="7" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -19509,7 +19933,7 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
       <c r="B2" s="600">
         <f>'Чист. форма'!B2:D4</f>
@@ -19540,7 +19964,7 @@
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
       <c r="B3" s="603"/>
       <c r="C3" s="604"/>
@@ -19563,7 +19987,7 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
       <c r="B4" s="606"/>
       <c r="C4" s="607"/>
@@ -19584,7 +20008,7 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="592" t="s">
         <v>13</v>
@@ -19610,7 +20034,7 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="592" t="s">
         <v>12</v>
@@ -19636,7 +20060,7 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="556" t="s">
         <v>14</v>
@@ -19667,7 +20091,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -19688,7 +20112,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -19721,7 +20145,7 @@
       <c r="R9" s="318"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -19752,7 +20176,7 @@
       <c r="R10" s="320"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>28</v>
@@ -19785,7 +20209,7 @@
       <c r="R11" s="322"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>4</v>
@@ -19816,7 +20240,7 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>5</v>
@@ -19847,7 +20271,7 @@
       <c r="R13" s="322"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="598" t="s">
         <v>135</v>
@@ -19874,7 +20298,7 @@
       <c r="R14" s="324"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="551" t="s">
         <v>144</v>
@@ -19899,7 +20323,7 @@
       <c r="R15" s="324"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
       <c r="B16" s="589" t="s">
         <v>45</v>
@@ -19926,7 +20350,7 @@
       <c r="R16" s="326"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="108"/>
       <c r="B17" s="109"/>
       <c r="C17" s="109"/>
@@ -19947,11 +20371,11 @@
       <c r="R17" s="111"/>
       <c r="S17" s="112"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="121"/>
       <c r="P18" s="122"/>
     </row>
-    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
       <c r="L19" s="564" t="s">
         <v>136</v>
@@ -19963,7 +20387,7 @@
       <c r="Q19" s="491"/>
       <c r="R19" s="491"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O20" s="561" t="s">
         <v>140</v>
       </c>
@@ -20026,7 +20450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -20037,20 +20461,20 @@
       <selection pane="bottomRight" activeCell="N27" sqref="N27:Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
     <col min="2" max="2" width="5" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.85546875" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -20071,7 +20495,7 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
       <c r="B2" s="565"/>
       <c r="C2" s="566"/>
@@ -20099,7 +20523,7 @@
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
       <c r="B3" s="568"/>
       <c r="C3" s="569"/>
@@ -20122,7 +20546,7 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
       <c r="B4" s="571"/>
       <c r="C4" s="572"/>
@@ -20143,7 +20567,7 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
       <c r="B5" s="592" t="s">
         <v>13</v>
@@ -20169,7 +20593,7 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
       <c r="B6" s="592" t="s">
         <v>12</v>
@@ -20195,7 +20619,7 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
       <c r="B7" s="556" t="s">
         <v>14</v>
@@ -20226,7 +20650,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -20247,7 +20671,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -20280,7 +20704,7 @@
       <c r="R9" s="318"/>
       <c r="S9" s="190"/>
     </row>
-    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -20311,7 +20735,7 @@
       <c r="R10" s="320"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="96" t="s">
         <v>26</v>
@@ -20342,7 +20766,7 @@
       <c r="R11" s="322"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="96" t="s">
         <v>2</v>
@@ -20373,7 +20797,7 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="96" t="s">
         <v>3</v>
@@ -20406,7 +20830,7 @@
       <c r="R13" s="322"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="96" t="s">
         <v>27</v>
@@ -20439,7 +20863,7 @@
       <c r="R14" s="322"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="96" t="s">
         <v>9</v>
@@ -20470,7 +20894,7 @@
       <c r="R15" s="322"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="96" t="s">
         <v>5</v>
@@ -20501,7 +20925,7 @@
       <c r="R16" s="322"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="96" t="s">
         <v>30</v>
@@ -20532,7 +20956,7 @@
       <c r="R17" s="322"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="103" t="s">
         <v>32</v>
@@ -20563,7 +20987,7 @@
       <c r="R18" s="324"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="103" t="s">
         <v>33</v>
@@ -20594,7 +21018,7 @@
       <c r="R19" s="324"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="103" t="s">
         <v>35</v>
@@ -20625,7 +21049,7 @@
       <c r="R20" s="324"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
       <c r="B21" s="103" t="s">
         <v>40</v>
@@ -20656,7 +21080,7 @@
       <c r="R21" s="324"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
       <c r="B22" s="103" t="s">
         <v>41</v>
@@ -20687,7 +21111,7 @@
       <c r="R22" s="324"/>
       <c r="S22" s="86"/>
     </row>
-    <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
       <c r="B23" s="551" t="s">
         <v>57</v>
@@ -20714,7 +21138,7 @@
       <c r="R23" s="324"/>
       <c r="S23" s="86"/>
     </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
       <c r="B24" s="589" t="s">
         <v>45</v>
@@ -20741,7 +21165,7 @@
       <c r="R24" s="326"/>
       <c r="S24" s="86"/>
     </row>
-    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="108"/>
       <c r="B25" s="109"/>
       <c r="C25" s="109"/>
@@ -20762,8 +21186,8 @@
       <c r="R25" s="111"/>
       <c r="S25" s="112"/>
     </row>
-    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="K27" s="564" t="s">
         <v>136</v>
       </c>
@@ -20774,7 +21198,7 @@
       <c r="P27" s="491"/>
       <c r="Q27" s="491"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="N28" s="561" t="s">
         <v>140</v>
       </c>
